--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13299" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13366" uniqueCount="1859">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -3294,23 +3294,7 @@
     <t xml:space="preserve">teaching Dhamma</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xref </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dhamma teaching</t>
-    </r>
+    <t xml:space="preserve">xref Dhamma teaching</t>
   </si>
   <si>
     <t xml:space="preserve">Dhp363</t>
@@ -5053,25 +5037,6 @@
     <t xml:space="preserve">unattractiveness</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xref </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">perception of ugliness (asubhasañña)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">threefold knowledge</t>
   </si>
   <si>
@@ -5180,23 +5145,7 @@
     <t xml:space="preserve">thirty-two marks</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xref </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">marks of a great man</t>
-    </r>
+    <t xml:space="preserve">xref marks of a great man</t>
   </si>
   <si>
     <t xml:space="preserve">revealing themselves when praised</t>
@@ -5223,343 +5172,436 @@
     <t xml:space="preserve">xref arahant</t>
   </si>
   <si>
+    <t xml:space="preserve">Snp3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokālika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticizes chief disciples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahampati Brahmā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports Kokālika’s birth in hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifespan in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustard seeds, cartload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like length of hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actions that lead to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tāvatiṁsa heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebrating the Buddha’s birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asita, hermit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meets Bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between devas and asuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before enlightenment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhodana, king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nālaka, nephew of Asita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like licking razor’s edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowing does not speak much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">through suffering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a difference between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—whom to give to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—worthy of a gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consolodate grief/grieving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why is an9.26 under metta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should have headwords?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomodoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">headwords at start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ud6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also giving (dāna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also stinginess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also generosity (cāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also gradual instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Aging and death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also dependent origination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as frequent recollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving kindness (metta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age, illness, death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also friendship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as accompanying enlightenment factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN46.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a basis for insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN11.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as cause for rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN7.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as conditioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as factor of uposatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN9.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for a fingersnap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to gain the four assurances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as immeasurable deliverance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liberation of mind by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN6.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN8.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN20.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a conch blower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measureless liberation of mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN41.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more fruitful than giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a path to brahma world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN4.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN4.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as principle of cordiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN6.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN11.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN20.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN4.190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to weaken fetters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive speech: results of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive: definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Noble Eightfold Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā): definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also harsh speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN STARTS HERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? ten factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheel-turning monarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving-kindness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see fear in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sense pleasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascetic, mendicant, sage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception of ugliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref going forth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sn3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a difference between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—whom to give to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—worthy of a gift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consolodate grief/grieving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pomodoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">headwords at start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ud6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iti37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also giving (dāna)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also stinginess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also generosity (cāga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also gradual instruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Aging and death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also dependent origination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as frequent recollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving kindness (metta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age, illness, death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also friendship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as accompanying enlightenment factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN46.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a basis for insight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN11.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as cause for rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN7.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as conditioned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as factor of uposatha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN9.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for a fingersnap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to gain the four assurances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN3.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as immeasurable deliverance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liberation of mind by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN6.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN8.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN20.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like a conch blower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DN13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measureless liberation of mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN41.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more fruitful than giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a path to brahma world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN4.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN4.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN 83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as principle of cordiality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN6.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN11.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN3.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN4.190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to weaken fetters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive speech: results of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive: definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Noble Eightfold Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā): definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also harsh speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN STARTS HERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? ten factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">association  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheel-turning monarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving-kindness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see fear in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sense pleasures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hunger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ascetic, mendicant, sage  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">right view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">teaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perception of ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulty of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref going forth</t>
   </si>
 </sst>
 </file>
@@ -5571,7 +5613,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5592,11 +5634,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5657,7 +5694,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5678,10 +5715,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5690,7 +5723,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5704,15 +5737,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="no language" xfId="20"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5781,13 +5805,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1350"/>
+  <dimension ref="A1:C1373"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:C1350"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1358" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1374" activeCellId="0" sqref="A1374"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.49"/>
@@ -14431,7 +14455,7 @@
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="5" t="s">
+      <c r="A832" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B832" s="3"/>
@@ -14827,7 +14851,7 @@
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="6" t="s">
+      <c r="A872" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="B872" s="3"/>
@@ -19085,23 +19109,23 @@
         <v>1669</v>
       </c>
       <c r="C1289" s="0" t="s">
-        <v>1670</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1290" s="0" t="s">
         <v>1671</v>
-      </c>
-      <c r="C1290" s="0" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1291" s="0" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C1291" s="0" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19112,7 +19136,7 @@
         <v>799</v>
       </c>
       <c r="C1292" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19120,10 +19144,10 @@
         <v>616</v>
       </c>
       <c r="B1293" s="0" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C1293" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19131,15 +19155,15 @@
         <v>585</v>
       </c>
       <c r="C1294" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1295" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1295" s="0" t="s">
         <v>1676</v>
-      </c>
-      <c r="C1295" s="0" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19150,7 +19174,7 @@
         <v>1557</v>
       </c>
       <c r="C1296" s="0" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19158,18 +19182,18 @@
         <v>1021</v>
       </c>
       <c r="B1297" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1297" s="0" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1298" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1298" s="0" t="s">
         <v>1679</v>
-      </c>
-      <c r="C1298" s="0" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19177,18 +19201,18 @@
         <v>1021</v>
       </c>
       <c r="B1299" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1299" s="0" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C1300" s="0" t="s">
         <v>1681</v>
-      </c>
-      <c r="C1300" s="0" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19196,10 +19220,10 @@
         <v>1546</v>
       </c>
       <c r="B1301" s="0" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C1301" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19207,10 +19231,10 @@
         <v>1006</v>
       </c>
       <c r="B1302" s="0" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C1302" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19218,10 +19242,10 @@
         <v>1021</v>
       </c>
       <c r="B1303" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1303" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19229,10 +19253,10 @@
         <v>1006</v>
       </c>
       <c r="B1304" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1304" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19240,10 +19264,10 @@
         <v>1253</v>
       </c>
       <c r="B1305" s="0" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C1305" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19251,10 +19275,10 @@
         <v>1006</v>
       </c>
       <c r="B1306" s="0" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C1306" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19262,10 +19286,10 @@
         <v>1245</v>
       </c>
       <c r="B1307" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C1307" s="0" t="s">
         <v>1687</v>
-      </c>
-      <c r="C1307" s="0" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19273,7 +19297,7 @@
         <v>499</v>
       </c>
       <c r="C1308" s="0" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19281,10 +19305,10 @@
         <v>1245</v>
       </c>
       <c r="B1309" s="0" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C1309" s="0" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19292,10 +19316,10 @@
         <v>574</v>
       </c>
       <c r="B1310" s="0" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C1310" s="0" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19306,7 +19330,7 @@
         <v>178</v>
       </c>
       <c r="C1311" s="0" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19325,7 +19349,7 @@
         <v>511</v>
       </c>
       <c r="B1313" s="0" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C1313" s="0" t="s">
         <v>374</v>
@@ -19347,7 +19371,7 @@
         <v>1627</v>
       </c>
       <c r="C1315" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19355,7 +19379,7 @@
         <v>1393</v>
       </c>
       <c r="C1316" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19363,7 +19387,7 @@
         <v>1633</v>
       </c>
       <c r="C1317" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19374,7 +19398,7 @@
         <v>159</v>
       </c>
       <c r="C1318" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19382,10 +19406,10 @@
         <v>1129</v>
       </c>
       <c r="B1319" s="0" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C1319" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19396,7 +19420,7 @@
         <v>520</v>
       </c>
       <c r="C1320" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19404,10 +19428,10 @@
         <v>45</v>
       </c>
       <c r="B1321" s="0" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C1321" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19415,10 +19439,10 @@
         <v>45</v>
       </c>
       <c r="B1322" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1322" s="0" t="s">
         <v>1695</v>
-      </c>
-      <c r="C1322" s="0" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19429,7 +19453,7 @@
         <v>159</v>
       </c>
       <c r="C1323" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19440,18 +19464,18 @@
         <v>124</v>
       </c>
       <c r="C1324" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1325" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1325" s="0" t="s">
         <v>1697</v>
       </c>
-      <c r="B1325" s="0" t="s">
-        <v>1698</v>
-      </c>
       <c r="C1325" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19462,7 +19486,7 @@
         <v>457</v>
       </c>
       <c r="C1326" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19473,7 +19497,7 @@
         <v>1116</v>
       </c>
       <c r="C1327" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19484,7 +19508,7 @@
         <v>299</v>
       </c>
       <c r="C1328" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19495,7 +19519,7 @@
         <v>520</v>
       </c>
       <c r="C1329" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19503,37 +19527,37 @@
         <v>45</v>
       </c>
       <c r="B1330" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1330" s="0" t="s">
         <v>1700</v>
-      </c>
-      <c r="C1330" s="0" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1331" s="0" t="s">
         <v>1702</v>
       </c>
-      <c r="B1331" s="0" t="s">
-        <v>1703</v>
-      </c>
       <c r="C1331" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1332" s="0" t="s">
         <v>1704</v>
-      </c>
-      <c r="C1332" s="0" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1333" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1333" s="0" t="s">
         <v>1706</v>
-      </c>
-      <c r="C1333" s="0" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19541,10 +19565,10 @@
         <v>870</v>
       </c>
       <c r="B1334" s="0" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C1334" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19552,10 +19576,10 @@
         <v>499</v>
       </c>
       <c r="B1335" s="0" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C1335" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19566,7 +19590,7 @@
         <v>1545</v>
       </c>
       <c r="C1336" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19577,7 +19601,7 @@
         <v>868</v>
       </c>
       <c r="C1337" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19588,7 +19612,7 @@
         <v>1085</v>
       </c>
       <c r="C1338" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19599,7 +19623,7 @@
         <v>520</v>
       </c>
       <c r="C1339" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19629,7 +19653,7 @@
         <v>523</v>
       </c>
       <c r="B1342" s="0" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C1342" s="0" t="s">
         <v>220</v>
@@ -19659,10 +19683,10 @@
         <v>1118</v>
       </c>
       <c r="B1345" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C1345" s="0" t="s">
         <v>1711</v>
-      </c>
-      <c r="C1345" s="0" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19670,7 +19694,7 @@
         <v>1633</v>
       </c>
       <c r="C1346" s="0" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19678,10 +19702,10 @@
         <v>1632</v>
       </c>
       <c r="B1347" s="0" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C1347" s="0" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19689,7 +19713,7 @@
         <v>745</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19697,7 +19721,7 @@
         <v>1118</v>
       </c>
       <c r="C1349" s="0" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19708,7 +19732,239 @@
         <v>1631</v>
       </c>
       <c r="C1350" s="0" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1351" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1351" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1352" s="0" t="s">
         <v>1716</v>
+      </c>
+      <c r="B1352" s="0" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1352" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1353" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1353" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1353" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1354" s="0" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1354" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1355" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C1355" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1356" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1356" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1356" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1357" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1357" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1358" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1358" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1359" s="0" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C1359" s="0" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1360" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1360" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1360" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1361" s="0" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1361" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1362" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1362" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1363" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1363" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1364" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1364" s="0" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="0" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1365" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1366" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1366" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1367" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1367" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1368" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C1368" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1369" s="0" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1370" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1370" s="0" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1371" s="0" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1372" s="0" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1373" s="0" t="s">
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -19725,37 +19981,58 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A1:C1350"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1717</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1718</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1719</v>
+        <v>1744</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1720</v>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>1749</v>
       </c>
     </row>
   </sheetData>
@@ -19778,12 +20055,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="A1:C1350"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="1" width="11.57"/>
@@ -19791,17 +20068,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1721</v>
+        <v>1750</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1722</v>
+        <v>1751</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1723</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="6" t="n">
         <v>44806</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -19809,7 +20086,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="6" t="n">
         <v>44807</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -19817,29 +20094,29 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="6" t="n">
         <v>44808</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1724</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="6" t="n">
         <v>44809</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1725</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="6" t="n">
         <v>44810</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -19853,71 +20130,77 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="6" t="n">
         <v>44811</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>398</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="6" t="n">
         <v>44812</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>410</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="6" t="n">
         <v>44813</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="6" t="n">
         <v>44814</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="6" t="n">
         <v>44815</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="6" t="n">
         <v>44816</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="6" t="n">
         <v>44817</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="6" t="n">
         <v>44818</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="6" t="n">
         <v>44819</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="6" t="n">
         <v>44820</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="6" t="n">
         <v>44821</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="6" t="n">
         <v>44822</v>
       </c>
     </row>
@@ -19941,7 +20224,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1186" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1199" activeCellId="0" sqref="A1:C1350"/>
+      <selection pane="topLeft" activeCell="A1199" activeCellId="0" sqref="A1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19954,13 +20237,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1726</v>
+        <v>1755</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1727</v>
+        <v>1756</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1728</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19969,7 +20252,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1729</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19978,7 +20261,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1730</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20318,7 +20601,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1731</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20327,7 +20610,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1732</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20336,7 +20619,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1730</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21880,7 +22163,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1733</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21888,7 +22171,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1734</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21896,7 +22179,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1735</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22157,7 +22440,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1736</v>
+        <v>1765</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -22608,12 +22891,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -22621,7 +22904,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -22629,7 +22912,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -22637,7 +22920,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -22645,7 +22928,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -22653,7 +22936,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -22661,7 +22944,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -22669,7 +22952,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -22677,7 +22960,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -22685,7 +22968,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -22693,7 +22976,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -22728,7 +23011,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1733</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22736,7 +23019,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1734</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22744,7 +23027,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1739</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23005,7 +23288,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1736</v>
+        <v>1765</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -23456,12 +23739,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -23469,7 +23752,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -23477,7 +23760,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -23485,7 +23768,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -23493,7 +23776,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -23501,7 +23784,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -23509,7 +23792,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -23517,7 +23800,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -23525,7 +23808,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -23533,7 +23816,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -23541,7 +23824,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -23549,7 +23832,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -23557,7 +23840,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -23565,7 +23848,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -23573,7 +23856,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -23581,7 +23864,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -23589,15 +23872,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1740</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -23608,7 +23891,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -23619,7 +23902,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -23630,7 +23913,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -23641,7 +23924,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -23652,7 +23935,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -23663,7 +23946,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -23674,7 +23957,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -23685,7 +23968,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -23696,7 +23979,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -23707,183 +23990,183 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1741</v>
+        <v>1770</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1742</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1744</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>1745</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>1746</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>1747</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1748</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1749</v>
+        <v>1778</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1750</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1751</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1752</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1753</v>
+        <v>1782</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1754</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1755</v>
+        <v>1784</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1750</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1756</v>
+        <v>1785</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>1757</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1759</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1760</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1761</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1762</v>
+        <v>1791</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1763</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -23894,7 +24177,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -23905,32 +24188,32 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1764</v>
+        <v>1793</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1765</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1764</v>
+        <v>1793</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1766</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>286</v>
@@ -23938,10 +24221,10 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>287</v>
@@ -23949,76 +24232,76 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1768</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1751</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1769</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1770</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1771</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1772</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>306</v>
@@ -24026,32 +24309,32 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>1742</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1773</v>
+        <v>1802</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1774</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1773</v>
+        <v>1802</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>306</v>
@@ -24059,87 +24342,87 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1775</v>
+        <v>1804</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1776</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1777</v>
+        <v>1806</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1778</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1780</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>1781</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1774</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1782</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1783</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>22</v>
@@ -24147,21 +24430,21 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1784</v>
+        <v>1813</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1785</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1784</v>
+        <v>1813</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>32</v>
@@ -24169,68 +24452,68 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1784</v>
+        <v>1813</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1786</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1787</v>
+        <v>1816</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>1788</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1787</v>
+        <v>1816</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>1789</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1787</v>
+        <v>1816</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>1772</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1790</v>
+        <v>1819</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>1791</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1792</v>
+        <v>1821</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1751</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24238,7 +24521,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24246,7 +24529,7 @@
         <v>296</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1793</v>
+        <v>1822</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>297</v>
@@ -24257,7 +24540,7 @@
         <v>296</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1793</v>
+        <v>1822</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -24431,7 +24714,7 @@
         <v>317</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1794</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24455,7 +24738,7 @@
         <v>321</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1795</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24578,7 +24861,7 @@
         <v>324</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1796</v>
+        <v>1825</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>341</v>
@@ -24710,7 +24993,7 @@
         <v>324</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1797</v>
+        <v>1826</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>312</v>
@@ -24721,7 +25004,7 @@
         <v>324</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1798</v>
+        <v>1827</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -24732,7 +25015,7 @@
         <v>324</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1799</v>
+        <v>1828</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>300</v>
@@ -25120,7 +25403,7 @@
         <v>394</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1800</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25161,7 +25444,7 @@
         <v>324</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>398</v>
@@ -25172,7 +25455,7 @@
         <v>324</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1802</v>
+        <v>1831</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>400</v>
@@ -25634,7 +25917,7 @@
         <v>324</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1803</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25642,7 +25925,7 @@
         <v>324</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1804</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25657,8 +25940,8 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="8" t="s">
-        <v>1805</v>
+      <c r="A538" s="7" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25768,7 +26051,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1806</v>
+        <v>1835</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>445</v>
@@ -25811,7 +26094,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>458</v>
@@ -25819,7 +26102,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1808</v>
+        <v>1837</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>458</v>
@@ -25892,7 +26175,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>458</v>
@@ -26016,7 +26299,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1810</v>
+        <v>1839</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>488</v>
@@ -26194,7 +26477,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1811</v>
+        <v>1840</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>509</v>
@@ -26339,7 +26622,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>527</v>
@@ -26366,7 +26649,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>527</v>
@@ -26434,7 +26717,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1812</v>
+        <v>1841</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>537</v>
@@ -26493,7 +26776,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1813</v>
+        <v>1842</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>527</v>
@@ -26512,7 +26795,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>546</v>
@@ -26550,7 +26833,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>551</v>
@@ -26624,7 +26907,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -26724,7 +27007,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1815</v>
+        <v>1844</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>570</v>
@@ -27196,7 +27479,7 @@
         <v>616</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1816</v>
+        <v>1845</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>632</v>
@@ -27207,7 +27490,7 @@
         <v>616</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1816</v>
+        <v>1845</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>637</v>
@@ -28493,7 +28776,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>551</v>
@@ -28589,7 +28872,7 @@
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="s">
-        <v>1817</v>
+        <v>1846</v>
       </c>
       <c r="B835" s="3" t="s">
         <v>877</v>
@@ -28633,7 +28916,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>884</v>
@@ -28687,7 +28970,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1815</v>
+        <v>1844</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>895</v>
@@ -28709,7 +28992,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1818</v>
+        <v>1847</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>898</v>
@@ -28832,7 +29115,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>921</v>
@@ -28917,7 +29200,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>933</v>
@@ -29169,7 +29452,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1820</v>
+        <v>1849</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>968</v>
@@ -29502,7 +29785,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1821</v>
+        <v>1850</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1032</v>
@@ -29645,7 +29928,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1053</v>
@@ -29653,7 +29936,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>839</v>
@@ -29664,7 +29947,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1055</v>
@@ -29675,7 +29958,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1822</v>
+        <v>1851</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1057</v>
@@ -29686,7 +29969,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1059</v>
@@ -29708,7 +29991,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1063</v>
@@ -29719,7 +30002,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1064</v>
@@ -29730,7 +30013,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1064</v>
@@ -29741,7 +30024,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1067</v>
@@ -29807,7 +30090,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1079</v>
@@ -29870,7 +30153,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1823</v>
+        <v>1852</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1090</v>
@@ -29919,7 +30202,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1100</v>
@@ -30167,7 +30450,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1143</v>
@@ -30243,7 +30526,7 @@
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="6" t="s">
+      <c r="A1002" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="C1002" s="4" t="s">
@@ -30598,7 +30881,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1210</v>
@@ -30628,7 +30911,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1143</v>
@@ -30809,7 +31092,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1824</v>
+        <v>1853</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1225</v>
@@ -30820,7 +31103,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1226</v>
@@ -31277,7 +31560,7 @@
         <v>1003</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1825</v>
+        <v>1854</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1271</v>
@@ -31625,7 +31908,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1826</v>
+        <v>1855</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1325</v>
@@ -31644,7 +31927,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1827</v>
+        <v>1856</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1328</v>
@@ -31842,7 +32125,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1822</v>
+        <v>1851</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1071</v>
@@ -31853,7 +32136,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1822</v>
+        <v>1851</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1360</v>
@@ -31957,7 +32240,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1377</v>
@@ -32134,7 +32417,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1821</v>
+        <v>1850</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1401</v>
@@ -32204,7 +32487,7 @@
   <dimension ref="A1:C992"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B970" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C412" activeCellId="0" sqref="A1:C1350"/>
+      <selection pane="topLeft" activeCell="C412" activeCellId="0" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32217,21 +32500,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1726</v>
+        <v>1755</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1727</v>
+        <v>1756</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1728</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>286</v>
@@ -32239,7 +32522,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>285</v>
@@ -32250,35 +32533,35 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1759</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1760</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1761</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32382,7 +32665,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>270</v>
@@ -32390,7 +32673,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>270</v>
@@ -32398,7 +32681,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>271</v>
@@ -32406,7 +32689,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>271</v>
@@ -32483,7 +32766,7 @@
         <v>324</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1796</v>
+        <v>1825</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>341</v>
@@ -32502,10 +32785,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1784</v>
+        <v>1813</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -32513,13 +32796,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1784</v>
+        <v>1813</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1786</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32535,18 +32818,18 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1752</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>272</v>
@@ -32554,7 +32837,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>272</v>
@@ -32573,24 +32856,24 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1770</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1771</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32663,7 +32946,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>265</v>
@@ -32671,7 +32954,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>265</v>
@@ -32679,32 +32962,32 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1762</v>
+        <v>1791</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1763</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1787</v>
+        <v>1816</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1788</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>287</v>
@@ -32712,7 +32995,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>285</v>
@@ -32805,24 +33088,24 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1780</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1781</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32871,13 +33154,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1790</v>
+        <v>1819</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1791</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33061,7 +33344,7 @@
         <v>296</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1793</v>
+        <v>1822</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>297</v>
@@ -33080,7 +33363,7 @@
         <v>296</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1793</v>
+        <v>1822</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>58</v>
@@ -33129,7 +33412,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>291</v>
@@ -33236,7 +33519,7 @@
         <v>324</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1797</v>
+        <v>1826</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>312</v>
@@ -33423,7 +33706,7 @@
         <v>169</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1736</v>
+        <v>1765</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>209</v>
@@ -33434,7 +33717,7 @@
         <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1736</v>
+        <v>1765</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>209</v>
@@ -33464,7 +33747,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>283</v>
@@ -33475,24 +33758,24 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1784</v>
+        <v>1813</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>1785</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1768</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33684,13 +33967,13 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1753</v>
+        <v>1782</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1754</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33739,35 +34022,35 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1751</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1751</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1792</v>
+        <v>1821</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1751</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33797,7 +34080,7 @@
         <v>324</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1798</v>
+        <v>1827</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>144</v>
@@ -33849,13 +34132,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1769</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33882,7 +34165,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>285</v>
@@ -33893,18 +34176,18 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1756</v>
+        <v>1785</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1757</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>268</v>
@@ -33912,7 +34195,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>268</v>
@@ -33920,7 +34203,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>285</v>
@@ -33995,7 +34278,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>1053</v>
@@ -34834,7 +35117,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>551</v>
@@ -34944,7 +35227,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>1817</v>
+        <v>1846</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>877</v>
@@ -35010,7 +35293,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>884</v>
@@ -35097,7 +35380,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>1815</v>
+        <v>1844</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>895</v>
@@ -35108,7 +35391,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>1818</v>
+        <v>1847</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>898</v>
@@ -35269,7 +35552,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>921</v>
@@ -35357,7 +35640,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>933</v>
@@ -35639,7 +35922,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1820</v>
+        <v>1849</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>968</v>
@@ -35967,7 +36250,7 @@
         <v>616</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1816</v>
+        <v>1845</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>632</v>
@@ -36043,7 +36326,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1821</v>
+        <v>1850</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>1032</v>
@@ -36054,7 +36337,7 @@
         <v>616</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1816</v>
+        <v>1845</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>637</v>
@@ -36211,7 +36494,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>839</v>
@@ -36222,7 +36505,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>1055</v>
@@ -36233,7 +36516,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1822</v>
+        <v>1851</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>1057</v>
@@ -36244,7 +36527,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>1059</v>
@@ -36255,7 +36538,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>1063</v>
@@ -36277,7 +36560,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>1064</v>
@@ -36299,7 +36582,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>1064</v>
@@ -36310,7 +36593,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>1067</v>
@@ -36376,7 +36659,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>1079</v>
@@ -36472,7 +36755,7 @@
         <v>71</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1823</v>
+        <v>1852</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>1090</v>
@@ -36521,7 +36804,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>1100</v>
@@ -36814,7 +37097,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>1815</v>
+        <v>1844</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>570</v>
@@ -37399,24 +37682,24 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1774</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1773</v>
+        <v>1802</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1774</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37446,7 +37729,7 @@
         <v>324</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1799</v>
+        <v>1828</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>300</v>
@@ -37476,7 +37759,7 @@
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>21</v>
@@ -37495,7 +37778,7 @@
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>21</v>
@@ -37547,7 +37830,7 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>1806</v>
+        <v>1835</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>445</v>
@@ -37630,7 +37913,7 @@
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>1808</v>
+        <v>1837</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>458</v>
@@ -37668,7 +37951,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>1810</v>
+        <v>1839</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>488</v>
@@ -37784,7 +38067,7 @@
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>458</v>
@@ -37827,7 +38110,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>458</v>
@@ -37991,7 +38274,7 @@
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>1811</v>
+        <v>1840</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>509</v>
@@ -38236,7 +38519,7 @@
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>527</v>
@@ -38282,7 +38565,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>546</v>
@@ -38293,7 +38576,7 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>551</v>
@@ -38304,7 +38587,7 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>527</v>
@@ -38312,7 +38595,7 @@
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>1812</v>
+        <v>1841</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>537</v>
@@ -38407,7 +38690,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1813</v>
+        <v>1842</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>527</v>
@@ -38467,7 +38750,7 @@
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>269</v>
@@ -38475,7 +38758,7 @@
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>269</v>
@@ -38483,7 +38766,7 @@
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>269</v>
@@ -38532,24 +38815,24 @@
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1782</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>1747</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38590,7 +38873,7 @@
         <v>324</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="C631" s="4" t="s">
         <v>398</v>
@@ -38609,7 +38892,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>279</v>
@@ -38628,24 +38911,24 @@
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1764</v>
+        <v>1793</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>1766</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1748</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38793,7 +39076,7 @@
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>293</v>
@@ -38837,24 +39120,24 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1744</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>1745</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38889,7 +39172,7 @@
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C659" s="4" t="s">
         <v>273</v>
@@ -38897,7 +39180,7 @@
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C660" s="4" t="s">
         <v>273</v>
@@ -38905,29 +39188,29 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1764</v>
+        <v>1793</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>1765</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>1746</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>293</v>
@@ -38938,29 +39221,29 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1749</v>
+        <v>1778</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>1750</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1755</v>
+        <v>1784</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>1750</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C666" s="4" t="s">
         <v>275</v>
@@ -39056,7 +39339,7 @@
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C675" s="4" t="s">
         <v>276</v>
@@ -39075,7 +39358,7 @@
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C677" s="4" t="s">
         <v>267</v>
@@ -39083,7 +39366,7 @@
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C678" s="4" t="s">
         <v>267</v>
@@ -39157,7 +39440,7 @@
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C685" s="4" t="s">
         <v>277</v>
@@ -39165,7 +39448,7 @@
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C686" s="4" t="s">
         <v>278</v>
@@ -39173,13 +39456,13 @@
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>1783</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39195,10 +39478,10 @@
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C689" s="4" t="s">
         <v>22</v>
@@ -39209,7 +39492,7 @@
         <v>169</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>1733</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39217,7 +39500,7 @@
         <v>169</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>1733</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39225,7 +39508,7 @@
         <v>169</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1734</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39233,7 +39516,7 @@
         <v>169</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>1734</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39241,15 +39524,15 @@
         <v>324</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>1803</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>1740</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39257,7 +39540,7 @@
         <v>45</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1731</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39265,7 +39548,7 @@
         <v>0</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1729</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39273,7 +39556,7 @@
         <v>45</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>1732</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39281,7 +39564,7 @@
         <v>324</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>1804</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39292,7 +39575,7 @@
         <v>394</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>1800</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39300,7 +39583,7 @@
         <v>169</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>1735</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39308,7 +39591,7 @@
         <v>169</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>1739</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39316,7 +39599,7 @@
         <v>317</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>1794</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39324,7 +39607,7 @@
         <v>0</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>1730</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39332,7 +39615,7 @@
         <v>45</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>1730</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39340,7 +39623,7 @@
         <v>45</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>1730</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39348,7 +39631,7 @@
         <v>261</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39356,7 +39639,7 @@
         <v>261</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39364,7 +39647,7 @@
         <v>239</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39372,7 +39655,7 @@
         <v>321</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1795</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39622,7 +39905,7 @@
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>281</v>
@@ -39754,46 +40037,46 @@
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1787</v>
+        <v>1816</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>1789</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1777</v>
+        <v>1806</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>1778</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1787</v>
+        <v>1816</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>1772</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>1772</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40070,13 +40353,13 @@
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1775</v>
+        <v>1804</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>1776</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40111,7 +40394,7 @@
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C781" s="4" t="s">
         <v>274</v>
@@ -40119,7 +40402,7 @@
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C782" s="4" t="s">
         <v>274</v>
@@ -40149,10 +40432,10 @@
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C785" s="4" t="s">
         <v>306</v>
@@ -40160,10 +40443,10 @@
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1773</v>
+        <v>1802</v>
       </c>
       <c r="C786" s="4" t="s">
         <v>306</v>
@@ -40174,7 +40457,7 @@
         <v>324</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1802</v>
+        <v>1831</v>
       </c>
       <c r="C787" s="4" t="s">
         <v>400</v>
@@ -40182,7 +40465,7 @@
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>285</v>
@@ -40193,24 +40476,24 @@
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1741</v>
+        <v>1770</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>1742</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>1742</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40553,7 +40836,7 @@
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C822" s="4" t="s">
         <v>264</v>
@@ -40561,7 +40844,7 @@
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C823" s="4" t="s">
         <v>264</v>
@@ -40887,7 +41170,7 @@
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>1143</v>
@@ -40952,7 +41235,7 @@
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="6" t="s">
+      <c r="A860" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="C860" s="4" t="s">
@@ -41360,7 +41643,7 @@
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B900" s="3" t="s">
         <v>1143</v>
@@ -41478,7 +41761,7 @@
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="B911" s="3" t="s">
         <v>1226</v>
@@ -41519,7 +41802,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>1824</v>
+        <v>1853</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>1225</v>
@@ -41719,7 +42002,7 @@
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C934" s="4" t="s">
         <v>266</v>
@@ -41727,7 +42010,7 @@
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="C935" s="4" t="s">
         <v>266</v>
@@ -42047,7 +42330,7 @@
         <v>1003</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>1825</v>
+        <v>1854</v>
       </c>
       <c r="C966" s="4" t="s">
         <v>1271</v>
@@ -42224,7 +42507,7 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="C984" s="4" t="s">
         <v>1210</v>
@@ -42235,7 +42518,7 @@
         <v>1272</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>1828</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42281,8 +42564,8 @@
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="8" t="s">
-        <v>1805</v>
+      <c r="A992" s="7" t="s">
+        <v>1834</v>
       </c>
     </row>
   </sheetData>
@@ -42304,10 +42587,10 @@
   <dimension ref="A1:C1350"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="A1:C1350"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -47108,7 +47391,7 @@
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B455" s="3"/>
@@ -52023,7 +52306,7 @@
         <v>1631</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1716</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52467,10 +52750,10 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C978" s="0" t="s">
         <v>1704</v>
-      </c>
-      <c r="C978" s="0" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53234,7 +53517,7 @@
         <v>585</v>
       </c>
       <c r="C1054" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53242,10 +53525,10 @@
         <v>616</v>
       </c>
       <c r="B1055" s="0" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C1055" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53256,15 +53539,15 @@
         <v>799</v>
       </c>
       <c r="C1056" s="0" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1057" s="0" t="s">
         <v>1676</v>
-      </c>
-      <c r="C1057" s="0" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53272,10 +53555,10 @@
         <v>1021</v>
       </c>
       <c r="B1058" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1058" s="0" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53286,7 +53569,7 @@
         <v>1557</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53294,26 +53577,26 @@
         <v>1021</v>
       </c>
       <c r="B1060" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1061" s="0" t="s">
         <v>1679</v>
-      </c>
-      <c r="C1061" s="0" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C1062" s="0" t="s">
         <v>1681</v>
-      </c>
-      <c r="C1062" s="0" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53321,10 +53604,10 @@
         <v>1006</v>
       </c>
       <c r="B1063" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1063" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53332,10 +53615,10 @@
         <v>1006</v>
       </c>
       <c r="B1064" s="0" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C1064" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53343,10 +53626,10 @@
         <v>1006</v>
       </c>
       <c r="B1065" s="0" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C1065" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53354,10 +53637,10 @@
         <v>1021</v>
       </c>
       <c r="B1066" s="0" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1066" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53365,10 +53648,10 @@
         <v>1546</v>
       </c>
       <c r="B1067" s="0" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C1067" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53376,10 +53659,10 @@
         <v>1253</v>
       </c>
       <c r="B1068" s="0" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C1068" s="0" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53583,10 +53866,10 @@
         <v>1245</v>
       </c>
       <c r="B1089" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C1089" s="0" t="s">
         <v>1687</v>
-      </c>
-      <c r="C1089" s="0" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53594,10 +53877,10 @@
         <v>1245</v>
       </c>
       <c r="B1090" s="0" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C1090" s="0" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53608,7 +53891,7 @@
         <v>178</v>
       </c>
       <c r="C1091" s="0" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53616,10 +53899,10 @@
         <v>574</v>
       </c>
       <c r="B1092" s="0" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C1092" s="0" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53627,7 +53910,7 @@
         <v>511</v>
       </c>
       <c r="B1093" s="0" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C1093" s="0" t="s">
         <v>374</v>
@@ -53704,7 +53987,7 @@
         <v>1633</v>
       </c>
       <c r="C1100" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53715,7 +53998,7 @@
         <v>520</v>
       </c>
       <c r="C1101" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53723,7 +54006,7 @@
         <v>1627</v>
       </c>
       <c r="C1102" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53734,7 +54017,7 @@
         <v>159</v>
       </c>
       <c r="C1103" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53742,10 +54025,10 @@
         <v>45</v>
       </c>
       <c r="B1104" s="0" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C1104" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53753,10 +54036,10 @@
         <v>1129</v>
       </c>
       <c r="B1105" s="0" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C1105" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53764,18 +54047,18 @@
         <v>1393</v>
       </c>
       <c r="C1106" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1107" s="0" t="s">
         <v>1697</v>
       </c>
-      <c r="B1107" s="0" t="s">
-        <v>1698</v>
-      </c>
       <c r="C1107" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53786,7 +54069,7 @@
         <v>124</v>
       </c>
       <c r="C1108" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53797,7 +54080,7 @@
         <v>159</v>
       </c>
       <c r="C1109" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53805,10 +54088,10 @@
         <v>45</v>
       </c>
       <c r="B1110" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1110" s="0" t="s">
         <v>1695</v>
-      </c>
-      <c r="C1110" s="0" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53819,7 +54102,7 @@
         <v>520</v>
       </c>
       <c r="C1111" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53830,7 +54113,7 @@
         <v>457</v>
       </c>
       <c r="C1112" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53841,7 +54124,7 @@
         <v>299</v>
       </c>
       <c r="C1113" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53852,7 +54135,7 @@
         <v>1116</v>
       </c>
       <c r="C1114" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53863,7 +54146,7 @@
         <v>1545</v>
       </c>
       <c r="C1115" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53871,10 +54154,10 @@
         <v>499</v>
       </c>
       <c r="B1116" s="0" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C1116" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53885,18 +54168,18 @@
         <v>520</v>
       </c>
       <c r="C1117" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1118" s="0" t="s">
         <v>1702</v>
       </c>
-      <c r="B1118" s="0" t="s">
-        <v>1703</v>
-      </c>
       <c r="C1118" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53907,7 +54190,7 @@
         <v>868</v>
       </c>
       <c r="C1119" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53915,10 +54198,10 @@
         <v>870</v>
       </c>
       <c r="B1120" s="0" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C1120" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53926,10 +54209,10 @@
         <v>45</v>
       </c>
       <c r="B1121" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1121" s="0" t="s">
         <v>1700</v>
-      </c>
-      <c r="C1121" s="0" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53940,7 +54223,7 @@
         <v>1085</v>
       </c>
       <c r="C1122" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54003,7 +54286,7 @@
         <v>523</v>
       </c>
       <c r="B1128" s="0" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C1128" s="0" t="s">
         <v>220</v>
@@ -54022,7 +54305,7 @@
         <v>1633</v>
       </c>
       <c r="C1130" s="0" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54030,10 +54313,10 @@
         <v>1118</v>
       </c>
       <c r="B1131" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C1131" s="0" t="s">
         <v>1711</v>
-      </c>
-      <c r="C1131" s="0" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54041,10 +54324,10 @@
         <v>1632</v>
       </c>
       <c r="B1132" s="0" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C1132" s="0" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54293,7 +54576,7 @@
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1156" s="6" t="s">
+      <c r="A1156" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="B1156" s="3"/>
@@ -55881,7 +56164,7 @@
         <v>1118</v>
       </c>
       <c r="C1308" s="0" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55889,7 +56172,7 @@
         <v>499</v>
       </c>
       <c r="C1309" s="0" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55897,7 +56180,7 @@
         <v>745</v>
       </c>
       <c r="C1310" s="0" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56025,18 +56308,18 @@
     </row>
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1326" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1326" s="0" t="s">
         <v>1671</v>
-      </c>
-      <c r="C1326" s="0" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1327" s="0" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C1327" s="0" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56049,10 +56332,10 @@
     </row>
     <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1329" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1329" s="0" t="s">
         <v>1706</v>
-      </c>
-      <c r="C1329" s="0" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56127,7 +56410,7 @@
         <v>1669</v>
       </c>
       <c r="C1338" s="0" t="s">
-        <v>1670</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13366" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13369" uniqueCount="1859">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -5808,7 +5808,7 @@
   <dimension ref="A1:C1373"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1358" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1374" activeCellId="0" sqref="A1374"/>
+      <selection pane="topLeft" activeCell="C1370" activeCellId="0" sqref="C1370:C1373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19950,6 +19950,9 @@
       <c r="B1371" s="0" t="s">
         <v>1740</v>
       </c>
+      <c r="C1371" s="0" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1372" s="0" t="s">
@@ -19958,6 +19961,9 @@
       <c r="B1372" s="0" t="s">
         <v>1741</v>
       </c>
+      <c r="C1372" s="0" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1373" s="0" t="s">
@@ -19965,6 +19971,9 @@
       </c>
       <c r="B1373" s="0" t="s">
         <v>1360</v>
+      </c>
+      <c r="C1373" s="0" t="s">
+        <v>1739</v>
       </c>
     </row>
   </sheetData>
@@ -19987,7 +19996,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="C1370:C1373 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20055,7 +20064,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="C1370:C1373 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20224,7 +20233,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1186" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1199" activeCellId="0" sqref="A1199"/>
+      <selection pane="topLeft" activeCell="A1199" activeCellId="1" sqref="C1370:C1373 A1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32487,7 +32496,7 @@
   <dimension ref="A1:C992"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B970" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C412" activeCellId="0" sqref="C412"/>
+      <selection pane="topLeft" activeCell="C412" activeCellId="1" sqref="C1370:C1373 C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42587,7 +42596,7 @@
   <dimension ref="A1:C1350"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="C1370:C1373 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -5244,7 +5244,7 @@
     <t xml:space="preserve">real reason for</t>
   </si>
   <si>
-    <t xml:space="preserve">Sn3.12</t>
+    <t xml:space="preserve">Snp3.12</t>
   </si>
   <si>
     <t xml:space="preserve">analysis</t>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13369" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13410" uniqueCount="1876">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -4437,1168 +4437,1219 @@
     <t xml:space="preserve">xref good actions</t>
   </si>
   <si>
+    <t xml:space="preserve">purity (soceyya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagacity/perfection (moneyya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sage (muni)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong view (micchā diṭṭhi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formless (arūpā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compared to parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wishing for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prosperity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of rotten fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of sandalwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with similar people/like elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leading to mendicant’s decline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk (bhassa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor (sakkāra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gods rejoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wishes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benefiting the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meditation on ugliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impermanence meditation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thoughts (vitakkā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillful and unskillful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unwholesome roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as inner stains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evil wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopping when more left to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence (aggappasāda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best of groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of firebrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closeness to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing sees the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing sees the Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed, hatred, delusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as fires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once returner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attached to sense pleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-returner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attached to rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danger in slightest fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowledges, three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">born from mouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disciples of Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requisites, four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as trifles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref requisites, four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with requisites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart’s release (cetovimutti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release by wisdom (paññavimutti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source of craving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parents as first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provided by laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutual dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of monastics and laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent on laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of waves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sense pleasures, five </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of whirlpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of against the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of crocodiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolerating bad thoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for practicing always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti110–11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hindrances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constantly removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knower of the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as best </t>
+  </si>
+  <si>
+    <t xml:space="preserve">without counterpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed (rāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of plucked lotus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essence (sāra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of fig tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahant is free from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of snake skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his attainments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref loved ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of fallen leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stick with good friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equal or better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">companionship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of bracelets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with wicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmaviharas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as metaphor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downfall (parābhava)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being fond of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not caring for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">womanizer (itthidhuta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gambling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to a younger partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcoholics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unrealistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire worship (aggika)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoidance of paying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not wanting to get caught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not birth defines a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth is not determinant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discard desire for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as best wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as sweetest taste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as means of crossing flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truthfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by truthfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by hard work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friendship gained by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asubhasañña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charnel ground contemplation (sivathika)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of peacock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat eating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking but not doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true and false friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with the wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient traditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your Dhamma teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.8–9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when not ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamma teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unattractiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threefold knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref knowledges, three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triple knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiarity breeds contempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advice for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sīlabbata-parāmāsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alms gathering practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using after reflecting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty to support saṅgha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lay practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uposatha practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref Bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attacks the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well spoken words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not relying on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worthy of gifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmā world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to be reborn in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encouraging others to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha, the word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard to find in world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marks of a great man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirty-two marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref marks of a great man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revealing themselves when praised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as king of Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wise do not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true meaning of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only conventional designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref brahmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref arahant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokālika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticizes chief disciples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahampati Brahmā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports Kokālika’s birth in hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifespan in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustard seeds, cartload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like length of hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actions that lead to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tāvatiṁsa heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebrating the Buddha’s birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asita, hermit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meets Bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between devas and asuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before enlightenment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhodana, king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nālaka, nephew of Asita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like licking razor’s edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowing does not speak much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">through suffering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more peaceful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">against the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamma as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more peaceful than form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sense pleasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be avoided like snake head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a leaky boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boat, bailed out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile for escaping saṁsara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the past and future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like fish in dried-up stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purity (suddhi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a difference between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—whom to give to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—worthy of a gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consolodate grief/grieving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why is an9.26 under metta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should have headwords?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomodoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">headwords at start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ud6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also giving (dāna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also stinginess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also generosity (cāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also gradual instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Aging and death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also dependent origination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as frequent recollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving kindness (metta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age, illness, death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also friendship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as accompanying enlightenment factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN46.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a basis for insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN11.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as cause for rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN7.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as conditioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as factor of uposatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN9.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for a fingersnap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to gain the four assurances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as immeasurable deliverance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liberation of mind by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN6.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN8.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN20.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a conch blower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measureless liberation of mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN41.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more fruitful than giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a path to brahma world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN4.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN4.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as principle of cordiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN6.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN11.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN20.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN4.190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to weaken fetters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive speech: results of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive: definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Noble Eightfold Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā): definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also harsh speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN STARTS HERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? ten factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheel-turning monarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving-kindness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see fear in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascetic, mendicant, sage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception of ugliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref going forth</t>
+  </si>
+  <si>
     <t xml:space="preserve">purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagacity/perfection (moneyya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sage (muni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong view (micchā diṭṭhi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formless (arūpā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compared to parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">praise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wishing for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prosperity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of rotten fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of sandalwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as fragile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with similar people/like elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leading to mendicant’s decline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk (bhassa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">honor (sakkāra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gods rejoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of gods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wishes of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">benefiting the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meditation on ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impermanence meditation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thoughts (vitakkā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillful and unskillful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unwholesome roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as inner stains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evil wishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stopping when more left to do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confidence (aggappasāda)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best of groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goal of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of firebrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closeness to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing sees the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing sees the Dhamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greed, hatred, delusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as fires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">once returner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attached to sense pleasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-returner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attached to rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danger in slightest fault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowledges, three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">born from mouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disciples of Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requisites, four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as trifles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref requisites, four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with requisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart’s release (cetovimutti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">release by wisdom (paññavimutti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teachers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source of craving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parents as first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provided by laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutual dependence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of monastics and laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependent on laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of waves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sense pleasures, five </t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of whirlpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of against the stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of crocodiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolerating bad thoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for practicing always</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti110–11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hindrances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constantly removing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his understanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knower of the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as best </t>
-  </si>
-  <si>
-    <t xml:space="preserve">without counterpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of venom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greed (rāga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of plucked lotus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essence (sāra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of fig tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahant is free from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of snake skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his attainments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref loved ones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of fallen leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stick with good friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equal or better</t>
-  </si>
-  <si>
-    <t xml:space="preserve">companionship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of bracelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with wicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmaviharas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as metaphor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downfall (parābhava)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">being fond of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not caring for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">womanizer (itthidhuta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gambling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to a younger partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcoholics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unrealistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire worship (aggika)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avoidance of paying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not wanting to get caught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not birth defines a person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth is not determinant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discard desire for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as best wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as sweetest taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as means of crossing flood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truthfulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by truthfulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by hard work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friendship gained by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asubhasañña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charnel ground contemplation (sivathika)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of peacock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meat eating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talking but not doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true and false friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with the wise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient traditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">your Dhamma teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.8–9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when not ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhamma teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of boat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unattractiveness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threefold knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref knowledges, three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">triple knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familiarity breeds contempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advice for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sīlabbata-parāmāsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alms gathering practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using after reflecting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty to support saṅgha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lay practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uposatha practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gotama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref Bodhisatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attacks the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as well spoken words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not relying on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worthy of gifts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmā world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how to be reborn in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encouraging others to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddha, the word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hard to find in world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marks of a great man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp.3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirty-two marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref marks of a great man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revealing themselves when praised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as king of Dhamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wise do not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true meaning of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only conventional designation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref brahmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref arahant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kokālika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criticizes chief disciples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahampati Brahmā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports Kokālika’s birth in hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifespan in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mustard seeds, cartload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like length of hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions that lead to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tāvatiṁsa heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">celebrating the Buddha’s birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asita, hermit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meets Bodhisatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">war</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between devas and asuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before enlightenment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudhodana, king</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nālaka, nephew of Asita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like licking razor’s edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowing does not speak much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">real reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">through suffering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a difference between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—whom to give to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—worthy of a gift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consolodate grief/grieving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why is an9.26 under metta?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should have headwords?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anxiety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pomodoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">headwords at start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ud6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iti37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also giving (dāna)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also stinginess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also generosity (cāga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also gradual instruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Aging and death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also dependent origination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as frequent recollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving kindness (metta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age, illness, death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also friendship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as accompanying enlightenment factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN46.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a basis for insight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN11.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as cause for rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN7.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as conditioned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as factor of uposatha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN9.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for a fingersnap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to gain the four assurances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN3.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as immeasurable deliverance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liberation of mind by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN6.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN8.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN20.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like a conch blower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DN13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measureless liberation of mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN41.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more fruitful than giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a path to brahma world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN4.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN4.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN 83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as principle of cordiality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN6.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN11.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN3.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN4.190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to weaken fetters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive speech: results of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive: definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Noble Eightfold Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā): definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also harsh speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN STARTS HERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? ten factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">association  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheel-turning monarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving-kindness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see fear in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sense pleasures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hunger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ascetic, mendicant, sage  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">right view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">teaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perception of ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulty of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref going forth</t>
   </si>
   <si>
     <t xml:space="preserve">Sn3.9</t>
@@ -5805,10 +5856,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1373"/>
+  <dimension ref="A1:C1388"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1358" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1370" activeCellId="0" sqref="C1370:C1373"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1378" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1389" activeCellId="0" sqref="A1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19974,6 +20025,159 @@
       </c>
       <c r="C1373" s="0" t="s">
         <v>1739</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1374" s="0" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1375" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1375" s="0" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1376" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1376" s="0" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1377" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="C1377" s="0" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1378" s="0" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1379" s="0" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C1379" s="0" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1380" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1380" s="0" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="0" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1381" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1381" s="0" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1382" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1382" s="0" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1383" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C1383" s="0" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1384" s="0" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1385" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1385" s="0" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="0" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1386" s="0" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1387" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1387" s="0" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1388" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1388" s="0" t="s">
+        <v>1758</v>
       </c>
     </row>
   </sheetData>
@@ -19996,24 +20200,24 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="C1370:C1373 B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1742</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1743</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1744</v>
+        <v>1761</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1692</v>
@@ -20021,27 +20225,27 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1745</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1746</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1747</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1748</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1749</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
@@ -20064,7 +20268,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="C1370:C1373 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20077,13 +20281,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1750</v>
+        <v>1767</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1751</v>
+        <v>1768</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1752</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20110,7 +20314,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1753</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20121,7 +20325,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1754</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20233,7 +20437,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1186" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1199" activeCellId="1" sqref="C1370:C1373 A1199"/>
+      <selection pane="topLeft" activeCell="A1199" activeCellId="0" sqref="A1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20246,13 +20450,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1755</v>
+        <v>1772</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1756</v>
+        <v>1773</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1757</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20261,7 +20465,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1758</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20270,7 +20474,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1759</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20610,7 +20814,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1760</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20619,7 +20823,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1761</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20628,7 +20832,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1759</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22172,7 +22376,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1762</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22180,7 +22384,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1763</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22188,7 +22392,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1764</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22449,7 +22653,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1765</v>
+        <v>1782</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -22900,12 +23104,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1766</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -22913,7 +23117,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -22921,7 +23125,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -22929,7 +23133,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -22937,7 +23141,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -22945,7 +23149,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -22953,7 +23157,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -22961,7 +23165,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -22969,7 +23173,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -22977,7 +23181,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -22985,7 +23189,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -23020,7 +23224,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1762</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23028,7 +23232,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1763</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23036,7 +23240,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1768</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23297,7 +23501,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1765</v>
+        <v>1782</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -23748,12 +23952,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1766</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -23761,7 +23965,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -23769,7 +23973,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -23777,7 +23981,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -23785,7 +23989,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -23793,7 +23997,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -23801,7 +24005,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -23809,7 +24013,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -23817,7 +24021,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -23825,7 +24029,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -23833,7 +24037,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -23841,7 +24045,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -23849,7 +24053,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -23857,7 +24061,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -23865,7 +24069,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -23873,7 +24077,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -23881,15 +24085,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1769</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -23900,7 +24104,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -23911,7 +24115,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -23922,7 +24126,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -23933,7 +24137,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -23944,7 +24148,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -23955,7 +24159,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -23966,7 +24170,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -23977,7 +24181,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -23988,7 +24192,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -23999,183 +24203,183 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1770</v>
+        <v>1787</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1771</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1773</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>1774</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>1775</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>1776</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1777</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1778</v>
+        <v>1795</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1779</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1781</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1783</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1784</v>
+        <v>1801</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1779</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1785</v>
+        <v>1802</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>1786</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1788</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1789</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1790</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1792</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -24186,7 +24390,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -24197,32 +24401,32 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1793</v>
+        <v>1810</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1794</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1793</v>
+        <v>1810</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1795</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>286</v>
@@ -24230,10 +24434,10 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>287</v>
@@ -24241,76 +24445,76 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1797</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1798</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1799</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1800</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1801</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>306</v>
@@ -24318,32 +24522,32 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>1771</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1802</v>
+        <v>1819</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1803</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1802</v>
+        <v>1819</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>306</v>
@@ -24351,87 +24555,87 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1804</v>
+        <v>1821</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1805</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1806</v>
+        <v>1823</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1807</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1809</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>1810</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1803</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1811</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1812</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>22</v>
@@ -24439,21 +24643,21 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1814</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>32</v>
@@ -24461,68 +24665,68 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1815</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>1817</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>1818</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>1801</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1819</v>
+        <v>1836</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>1820</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24530,7 +24734,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1766</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24538,7 +24742,7 @@
         <v>296</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>297</v>
@@ -24549,7 +24753,7 @@
         <v>296</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -24723,7 +24927,7 @@
         <v>317</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1823</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24747,7 +24951,7 @@
         <v>321</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1824</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24870,7 +25074,7 @@
         <v>324</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1825</v>
+        <v>1842</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>341</v>
@@ -25002,7 +25206,7 @@
         <v>324</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1826</v>
+        <v>1843</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>312</v>
@@ -25013,7 +25217,7 @@
         <v>324</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1827</v>
+        <v>1844</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -25024,7 +25228,7 @@
         <v>324</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1828</v>
+        <v>1845</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>300</v>
@@ -25412,7 +25616,7 @@
         <v>394</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1829</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25453,7 +25657,7 @@
         <v>324</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1830</v>
+        <v>1847</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>398</v>
@@ -25464,7 +25668,7 @@
         <v>324</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1831</v>
+        <v>1848</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>400</v>
@@ -25926,7 +26130,7 @@
         <v>324</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1832</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25934,7 +26138,7 @@
         <v>324</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1833</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25950,7 +26154,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>1834</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26060,7 +26264,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1835</v>
+        <v>1852</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>445</v>
@@ -26103,7 +26307,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>458</v>
@@ -26111,7 +26315,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1837</v>
+        <v>1854</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>458</v>
@@ -26184,7 +26388,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>458</v>
@@ -26308,7 +26512,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1839</v>
+        <v>1856</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>488</v>
@@ -26486,7 +26690,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1840</v>
+        <v>1857</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>509</v>
@@ -26631,7 +26835,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>527</v>
@@ -26658,7 +26862,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>527</v>
@@ -26726,7 +26930,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1841</v>
+        <v>1858</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>537</v>
@@ -26785,7 +26989,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1842</v>
+        <v>1859</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>527</v>
@@ -26804,7 +27008,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>546</v>
@@ -26842,7 +27046,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>551</v>
@@ -26916,7 +27120,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -27016,7 +27220,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1844</v>
+        <v>1861</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>570</v>
@@ -27488,7 +27692,7 @@
         <v>616</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1845</v>
+        <v>1862</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>632</v>
@@ -27499,7 +27703,7 @@
         <v>616</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1845</v>
+        <v>1862</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>637</v>
@@ -28785,7 +28989,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>551</v>
@@ -28881,7 +29085,7 @@
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="s">
-        <v>1846</v>
+        <v>1746</v>
       </c>
       <c r="B835" s="3" t="s">
         <v>877</v>
@@ -28925,7 +29129,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>884</v>
@@ -28979,7 +29183,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1844</v>
+        <v>1861</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>895</v>
@@ -29001,7 +29205,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1847</v>
+        <v>1863</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>898</v>
@@ -29124,7 +29328,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>921</v>
@@ -29209,7 +29413,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>933</v>
@@ -29461,7 +29665,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1849</v>
+        <v>1865</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>968</v>
@@ -29794,7 +29998,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1850</v>
+        <v>1866</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1032</v>
@@ -29937,7 +30141,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1053</v>
@@ -29945,7 +30149,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>839</v>
@@ -29956,7 +30160,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1055</v>
@@ -29967,7 +30171,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1851</v>
+        <v>1867</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1057</v>
@@ -29978,7 +30182,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1059</v>
@@ -30000,7 +30204,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1063</v>
@@ -30011,7 +30215,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1064</v>
@@ -30022,7 +30226,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1064</v>
@@ -30033,7 +30237,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1067</v>
@@ -30099,7 +30303,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1079</v>
@@ -30162,7 +30366,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1852</v>
+        <v>1868</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1090</v>
@@ -30211,7 +30415,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1100</v>
@@ -30459,7 +30663,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1143</v>
@@ -30890,7 +31094,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1210</v>
@@ -30920,7 +31124,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1143</v>
@@ -31101,7 +31305,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1853</v>
+        <v>1869</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1225</v>
@@ -31112,7 +31316,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1226</v>
@@ -31569,7 +31773,7 @@
         <v>1003</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1854</v>
+        <v>1870</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1271</v>
@@ -31917,7 +32121,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1855</v>
+        <v>1871</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1325</v>
@@ -31936,7 +32140,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1328</v>
@@ -32134,7 +32338,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1851</v>
+        <v>1867</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1071</v>
@@ -32145,7 +32349,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1851</v>
+        <v>1867</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1360</v>
@@ -32249,7 +32453,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1377</v>
@@ -32426,7 +32630,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1850</v>
+        <v>1866</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1401</v>
@@ -32496,7 +32700,7 @@
   <dimension ref="A1:C992"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B970" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C412" activeCellId="1" sqref="C1370:C1373 C412"/>
+      <selection pane="topLeft" activeCell="C412" activeCellId="0" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32509,21 +32713,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1755</v>
+        <v>1772</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1756</v>
+        <v>1773</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1757</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>286</v>
@@ -32531,7 +32735,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>285</v>
@@ -32542,35 +32746,35 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1788</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1789</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1790</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32674,7 +32878,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>270</v>
@@ -32682,7 +32886,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>270</v>
@@ -32690,7 +32894,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>271</v>
@@ -32698,7 +32902,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>271</v>
@@ -32775,7 +32979,7 @@
         <v>324</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1825</v>
+        <v>1842</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>341</v>
@@ -32794,10 +32998,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -32805,13 +33009,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1815</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32827,18 +33031,18 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1781</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>272</v>
@@ -32846,7 +33050,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>272</v>
@@ -32865,24 +33069,24 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1799</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1800</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32955,7 +33159,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>265</v>
@@ -32963,7 +33167,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>265</v>
@@ -32971,32 +33175,32 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1792</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1817</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>287</v>
@@ -33004,7 +33208,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>285</v>
@@ -33097,24 +33301,24 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1809</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1810</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33163,13 +33367,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1819</v>
+        <v>1836</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1820</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33353,7 +33557,7 @@
         <v>296</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>297</v>
@@ -33372,7 +33576,7 @@
         <v>296</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>58</v>
@@ -33421,7 +33625,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>291</v>
@@ -33528,7 +33732,7 @@
         <v>324</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1826</v>
+        <v>1843</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>312</v>
@@ -33715,7 +33919,7 @@
         <v>169</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1765</v>
+        <v>1782</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>209</v>
@@ -33726,7 +33930,7 @@
         <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1765</v>
+        <v>1782</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>209</v>
@@ -33756,7 +33960,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>283</v>
@@ -33767,24 +33971,24 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>1814</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1797</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33976,13 +34180,13 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1783</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34031,35 +34235,35 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34089,7 +34293,7 @@
         <v>324</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1827</v>
+        <v>1844</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>144</v>
@@ -34141,13 +34345,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1798</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34174,7 +34378,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>285</v>
@@ -34185,18 +34389,18 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1785</v>
+        <v>1802</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1786</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>268</v>
@@ -34204,7 +34408,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>268</v>
@@ -34212,7 +34416,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>285</v>
@@ -34287,7 +34491,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>1053</v>
@@ -35126,7 +35330,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>551</v>
@@ -35236,7 +35440,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>1846</v>
+        <v>1746</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>877</v>
@@ -35302,7 +35506,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>884</v>
@@ -35389,7 +35593,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>1844</v>
+        <v>1861</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>895</v>
@@ -35400,7 +35604,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>1847</v>
+        <v>1863</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>898</v>
@@ -35561,7 +35765,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>921</v>
@@ -35649,7 +35853,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>933</v>
@@ -35931,7 +36135,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1849</v>
+        <v>1865</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>968</v>
@@ -36259,7 +36463,7 @@
         <v>616</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1845</v>
+        <v>1862</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>632</v>
@@ -36335,7 +36539,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1850</v>
+        <v>1866</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>1032</v>
@@ -36346,7 +36550,7 @@
         <v>616</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1845</v>
+        <v>1862</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>637</v>
@@ -36503,7 +36707,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>839</v>
@@ -36514,7 +36718,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>1055</v>
@@ -36525,7 +36729,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1851</v>
+        <v>1867</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>1057</v>
@@ -36536,7 +36740,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>1059</v>
@@ -36547,7 +36751,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>1063</v>
@@ -36569,7 +36773,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>1064</v>
@@ -36591,7 +36795,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>1064</v>
@@ -36602,7 +36806,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>1067</v>
@@ -36668,7 +36872,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>1079</v>
@@ -36764,7 +36968,7 @@
         <v>71</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1852</v>
+        <v>1868</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>1090</v>
@@ -36813,7 +37017,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>1100</v>
@@ -37106,7 +37310,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>1844</v>
+        <v>1861</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>570</v>
@@ -37691,24 +37895,24 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1803</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1802</v>
+        <v>1819</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1803</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37738,7 +37942,7 @@
         <v>324</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1828</v>
+        <v>1845</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>300</v>
@@ -37768,7 +37972,7 @@
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>21</v>
@@ -37787,7 +37991,7 @@
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>21</v>
@@ -37839,7 +38043,7 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>1835</v>
+        <v>1852</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>445</v>
@@ -37922,7 +38126,7 @@
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>1837</v>
+        <v>1854</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>458</v>
@@ -37960,7 +38164,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>1839</v>
+        <v>1856</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>488</v>
@@ -38076,7 +38280,7 @@
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>458</v>
@@ -38119,7 +38323,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>458</v>
@@ -38283,7 +38487,7 @@
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>1840</v>
+        <v>1857</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>509</v>
@@ -38528,7 +38732,7 @@
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>527</v>
@@ -38574,7 +38778,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>546</v>
@@ -38585,7 +38789,7 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>551</v>
@@ -38596,7 +38800,7 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>527</v>
@@ -38604,7 +38808,7 @@
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>1841</v>
+        <v>1858</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>537</v>
@@ -38699,7 +38903,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1842</v>
+        <v>1859</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>527</v>
@@ -38759,7 +38963,7 @@
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>269</v>
@@ -38767,7 +38971,7 @@
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>269</v>
@@ -38775,7 +38979,7 @@
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>269</v>
@@ -38824,24 +39028,24 @@
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1811</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>1776</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38882,7 +39086,7 @@
         <v>324</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1830</v>
+        <v>1847</v>
       </c>
       <c r="C631" s="4" t="s">
         <v>398</v>
@@ -38901,7 +39105,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>279</v>
@@ -38920,24 +39124,24 @@
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1793</v>
+        <v>1810</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>1795</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1777</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39085,7 +39289,7 @@
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>293</v>
@@ -39129,24 +39333,24 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1773</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>1774</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39181,7 +39385,7 @@
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C659" s="4" t="s">
         <v>273</v>
@@ -39189,7 +39393,7 @@
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C660" s="4" t="s">
         <v>273</v>
@@ -39197,29 +39401,29 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1793</v>
+        <v>1810</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>1794</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>1775</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>293</v>
@@ -39230,29 +39434,29 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1778</v>
+        <v>1795</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>1779</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1784</v>
+        <v>1801</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>1779</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C666" s="4" t="s">
         <v>275</v>
@@ -39348,7 +39552,7 @@
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C675" s="4" t="s">
         <v>276</v>
@@ -39367,7 +39571,7 @@
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C677" s="4" t="s">
         <v>267</v>
@@ -39375,7 +39579,7 @@
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C678" s="4" t="s">
         <v>267</v>
@@ -39449,7 +39653,7 @@
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C685" s="4" t="s">
         <v>277</v>
@@ -39457,7 +39661,7 @@
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C686" s="4" t="s">
         <v>278</v>
@@ -39465,13 +39669,13 @@
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>1812</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39487,10 +39691,10 @@
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C689" s="4" t="s">
         <v>22</v>
@@ -39501,7 +39705,7 @@
         <v>169</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>1762</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39509,7 +39713,7 @@
         <v>169</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>1762</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39517,7 +39721,7 @@
         <v>169</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1763</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39525,7 +39729,7 @@
         <v>169</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>1763</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39533,15 +39737,15 @@
         <v>324</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>1832</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>1769</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39549,7 +39753,7 @@
         <v>45</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1760</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39557,7 +39761,7 @@
         <v>0</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1758</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39565,7 +39769,7 @@
         <v>45</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>1761</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39573,7 +39777,7 @@
         <v>324</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>1833</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39584,7 +39788,7 @@
         <v>394</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>1829</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39592,7 +39796,7 @@
         <v>169</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>1764</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39600,7 +39804,7 @@
         <v>169</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>1768</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39608,7 +39812,7 @@
         <v>317</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>1823</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39616,7 +39820,7 @@
         <v>0</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>1759</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39624,7 +39828,7 @@
         <v>45</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>1759</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39632,7 +39836,7 @@
         <v>45</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>1759</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39640,7 +39844,7 @@
         <v>261</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>1766</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39648,7 +39852,7 @@
         <v>261</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>1766</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39656,7 +39860,7 @@
         <v>239</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>1766</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39664,7 +39868,7 @@
         <v>321</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1824</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39914,7 +40118,7 @@
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>281</v>
@@ -40046,46 +40250,46 @@
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>1818</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1806</v>
+        <v>1823</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>1807</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>1801</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>1801</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40362,13 +40566,13 @@
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1804</v>
+        <v>1821</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>1805</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40403,7 +40607,7 @@
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C781" s="4" t="s">
         <v>274</v>
@@ -40411,7 +40615,7 @@
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C782" s="4" t="s">
         <v>274</v>
@@ -40441,10 +40645,10 @@
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C785" s="4" t="s">
         <v>306</v>
@@ -40452,10 +40656,10 @@
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1802</v>
+        <v>1819</v>
       </c>
       <c r="C786" s="4" t="s">
         <v>306</v>
@@ -40466,7 +40670,7 @@
         <v>324</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1831</v>
+        <v>1848</v>
       </c>
       <c r="C787" s="4" t="s">
         <v>400</v>
@@ -40474,7 +40678,7 @@
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>285</v>
@@ -40485,24 +40689,24 @@
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1770</v>
+        <v>1787</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>1771</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>1771</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40845,7 +41049,7 @@
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C822" s="4" t="s">
         <v>264</v>
@@ -40853,7 +41057,7 @@
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C823" s="4" t="s">
         <v>264</v>
@@ -41179,7 +41383,7 @@
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>1143</v>
@@ -41652,7 +41856,7 @@
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="B900" s="3" t="s">
         <v>1143</v>
@@ -41770,7 +41974,7 @@
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
-        <v>1843</v>
+        <v>1860</v>
       </c>
       <c r="B911" s="3" t="s">
         <v>1226</v>
@@ -41811,7 +42015,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>1853</v>
+        <v>1869</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>1225</v>
@@ -42011,7 +42215,7 @@
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C934" s="4" t="s">
         <v>266</v>
@@ -42019,7 +42223,7 @@
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="C935" s="4" t="s">
         <v>266</v>
@@ -42339,7 +42543,7 @@
         <v>1003</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>1854</v>
+        <v>1870</v>
       </c>
       <c r="C966" s="4" t="s">
         <v>1271</v>
@@ -42516,7 +42720,7 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>1838</v>
+        <v>1855</v>
       </c>
       <c r="C984" s="4" t="s">
         <v>1210</v>
@@ -42527,7 +42731,7 @@
         <v>1272</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>1857</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42574,7 +42778,7 @@
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="7" t="s">
-        <v>1834</v>
+        <v>1851</v>
       </c>
     </row>
   </sheetData>
@@ -42596,7 +42800,7 @@
   <dimension ref="A1:C1350"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="C1370:C1373 B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49536,7 +49740,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1470</v>
+        <v>1874</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1453</v>
@@ -52315,7 +52519,7 @@
         <v>1631</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1858</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13410" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13468" uniqueCount="1901">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -5304,6 +5304,107 @@
     <t xml:space="preserve">Snp4.5</t>
   </si>
   <si>
+    <t xml:space="preserve">aging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref old age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like dream gone when waking are the dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sexual activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by monastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref disputes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclusivity of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Māgaṇḍiya</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">father of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Māgaṇḍiyā</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Māgaṇḍiyā</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">daughter of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Māgaṇḍiya</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rightly practiced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quarrels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variations on</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a difference between</t>
   </si>
   <si>
@@ -5326,6 +5427,12 @@
   </si>
   <si>
     <t xml:space="preserve">anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are debates and disputes (over views) interchangeable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should “dependent origination, varriations on” be a thing? Or should that be causality?</t>
   </si>
   <si>
     <t xml:space="preserve">pomodoros</t>
@@ -5664,7 +5771,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5685,6 +5792,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5745,7 +5857,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5770,11 +5882,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5856,10 +5972,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1388"/>
+  <dimension ref="A1:C1408"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1378" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1389" activeCellId="0" sqref="A1389"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1392" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1409" activeCellId="0" sqref="A1409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20178,6 +20294,214 @@
       </c>
       <c r="C1388" s="0" t="s">
         <v>1758</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="0" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1389" s="0" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1390" s="0" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1391" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1391" s="0" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1392" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1392" s="0" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="0" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1393" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1393" s="0" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1394" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1394" s="0" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1395" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1395" s="0" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1396" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1396" s="0" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1397" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1397" s="0" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="0" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1398" s="0" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1399" s="0" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C1399" s="0" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="0" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1400" s="0" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1400" s="0" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="6" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1401" s="0" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1401" s="0" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1402" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1402" s="0" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1403" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1403" s="0" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1404" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1404" s="0" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1405" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1405" s="0" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1405" s="0" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1406" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1406" s="0" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1407" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1407" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1407" s="0" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1408" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1408" s="0" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C1408" s="0" t="s">
+        <v>1780</v>
       </c>
     </row>
   </sheetData>
@@ -20197,27 +20521,27 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1759</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1761</v>
+        <v>1784</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1692</v>
@@ -20225,27 +20549,37 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1762</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1763</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1764</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1765</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1766</v>
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
@@ -20273,7 +20607,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="1" width="11.57"/>
@@ -20281,17 +20615,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1767</v>
+        <v>1792</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1768</v>
+        <v>1793</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1769</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>44806</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -20299,7 +20633,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>44807</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -20307,29 +20641,29 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>44808</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1770</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>44809</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1771</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>44810</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -20343,7 +20677,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>44811</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -20357,7 +20691,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>44812</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -20368,52 +20702,52 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>44813</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>44814</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>44815</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>44816</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="7" t="n">
         <v>44817</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>44818</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>44819</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>44820</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="7" t="n">
         <v>44821</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="7" t="n">
         <v>44822</v>
       </c>
     </row>
@@ -20450,13 +20784,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1772</v>
+        <v>1797</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1773</v>
+        <v>1798</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1774</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20465,7 +20799,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1775</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20474,7 +20808,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1776</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20814,7 +21148,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1777</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20823,7 +21157,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1778</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20832,7 +21166,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1776</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22376,7 +22710,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1779</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22384,7 +22718,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1780</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22392,7 +22726,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1781</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22653,7 +22987,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1782</v>
+        <v>1807</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -23104,12 +23438,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1783</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -23117,7 +23451,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -23125,7 +23459,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -23133,7 +23467,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -23141,7 +23475,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -23149,7 +23483,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -23157,7 +23491,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -23165,7 +23499,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -23173,7 +23507,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -23181,7 +23515,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -23189,7 +23523,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -23224,7 +23558,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1779</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23232,7 +23566,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1780</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23240,7 +23574,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1785</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23501,7 +23835,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1782</v>
+        <v>1807</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -23952,12 +24286,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1783</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -23965,7 +24299,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -23973,7 +24307,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -23981,7 +24315,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -23989,7 +24323,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -23997,7 +24331,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -24005,7 +24339,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -24013,7 +24347,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -24021,7 +24355,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -24029,7 +24363,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -24037,7 +24371,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -24045,7 +24379,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -24053,7 +24387,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -24061,7 +24395,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -24069,7 +24403,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -24077,7 +24411,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -24085,15 +24419,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1786</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -24104,7 +24438,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -24115,7 +24449,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -24126,7 +24460,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -24137,7 +24471,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -24148,7 +24482,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -24159,7 +24493,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -24170,7 +24504,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -24181,7 +24515,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -24192,7 +24526,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -24203,183 +24537,183 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1787</v>
+        <v>1812</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1788</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1790</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>1791</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>1792</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>1793</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1794</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1795</v>
+        <v>1820</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1796</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1797</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1798</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1799</v>
+        <v>1824</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1800</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1801</v>
+        <v>1826</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1796</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1802</v>
+        <v>1827</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>1803</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1804</v>
+        <v>1829</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1805</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1804</v>
+        <v>1829</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1806</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1804</v>
+        <v>1829</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1807</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1808</v>
+        <v>1833</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1809</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -24390,7 +24724,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -24401,32 +24735,32 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1810</v>
+        <v>1835</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1811</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1810</v>
+        <v>1835</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1812</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>286</v>
@@ -24434,10 +24768,10 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>287</v>
@@ -24445,76 +24779,76 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1814</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1797</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1815</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1816</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1817</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1818</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>306</v>
@@ -24522,32 +24856,32 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C385" s="4" t="s">
         <v>1813</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1819</v>
+        <v>1844</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1820</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1819</v>
+        <v>1844</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>306</v>
@@ -24555,87 +24889,87 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1821</v>
+        <v>1846</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1822</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1823</v>
+        <v>1848</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1824</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1826</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>1827</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1820</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1828</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1829</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>22</v>
@@ -24643,21 +24977,21 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1831</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>32</v>
@@ -24665,68 +24999,68 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1832</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>1834</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>1835</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>1818</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1836</v>
+        <v>1861</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>1837</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1838</v>
+        <v>1863</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1797</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24734,7 +25068,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1783</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24742,7 +25076,7 @@
         <v>296</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1839</v>
+        <v>1864</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>297</v>
@@ -24753,7 +25087,7 @@
         <v>296</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1839</v>
+        <v>1864</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -24927,7 +25261,7 @@
         <v>317</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1840</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24951,7 +25285,7 @@
         <v>321</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1841</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25074,7 +25408,7 @@
         <v>324</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1842</v>
+        <v>1867</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>341</v>
@@ -25206,7 +25540,7 @@
         <v>324</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1843</v>
+        <v>1868</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>312</v>
@@ -25217,7 +25551,7 @@
         <v>324</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1844</v>
+        <v>1869</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -25228,7 +25562,7 @@
         <v>324</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1845</v>
+        <v>1870</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>300</v>
@@ -25616,7 +25950,7 @@
         <v>394</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1846</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25657,7 +25991,7 @@
         <v>324</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1847</v>
+        <v>1872</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>398</v>
@@ -25668,7 +26002,7 @@
         <v>324</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1848</v>
+        <v>1873</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>400</v>
@@ -26130,7 +26464,7 @@
         <v>324</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1849</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26138,7 +26472,7 @@
         <v>324</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1850</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26153,8 +26487,8 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="7" t="s">
-        <v>1851</v>
+      <c r="A538" s="8" t="s">
+        <v>1876</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26264,7 +26598,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1852</v>
+        <v>1877</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>445</v>
@@ -26307,7 +26641,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>458</v>
@@ -26315,7 +26649,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1854</v>
+        <v>1879</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>458</v>
@@ -26388,7 +26722,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>458</v>
@@ -26512,7 +26846,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1856</v>
+        <v>1881</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>488</v>
@@ -26690,7 +27024,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1857</v>
+        <v>1882</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>509</v>
@@ -26835,7 +27169,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>527</v>
@@ -26862,7 +27196,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>527</v>
@@ -26930,7 +27264,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1858</v>
+        <v>1883</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>537</v>
@@ -26989,7 +27323,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1859</v>
+        <v>1884</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>527</v>
@@ -27008,7 +27342,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>546</v>
@@ -27046,7 +27380,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>551</v>
@@ -27120,7 +27454,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1860</v>
+        <v>1885</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -27220,7 +27554,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1861</v>
+        <v>1886</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>570</v>
@@ -27692,7 +28026,7 @@
         <v>616</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1862</v>
+        <v>1887</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>632</v>
@@ -27703,7 +28037,7 @@
         <v>616</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1862</v>
+        <v>1887</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>637</v>
@@ -28989,7 +29323,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>551</v>
@@ -29129,7 +29463,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>884</v>
@@ -29183,7 +29517,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1861</v>
+        <v>1886</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>895</v>
@@ -29205,7 +29539,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1863</v>
+        <v>1888</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>898</v>
@@ -29328,7 +29662,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>921</v>
@@ -29413,7 +29747,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>933</v>
@@ -29665,7 +29999,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1865</v>
+        <v>1890</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>968</v>
@@ -29998,7 +30332,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1866</v>
+        <v>1891</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1032</v>
@@ -30141,7 +30475,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1053</v>
@@ -30149,7 +30483,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>839</v>
@@ -30160,7 +30494,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1055</v>
@@ -30171,7 +30505,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1867</v>
+        <v>1892</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1057</v>
@@ -30182,7 +30516,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1059</v>
@@ -30204,7 +30538,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1063</v>
@@ -30215,7 +30549,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1064</v>
@@ -30226,7 +30560,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1064</v>
@@ -30237,7 +30571,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1067</v>
@@ -30303,7 +30637,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1079</v>
@@ -30366,7 +30700,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1868</v>
+        <v>1893</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1090</v>
@@ -30415,7 +30749,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1860</v>
+        <v>1885</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1100</v>
@@ -30663,7 +30997,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1143</v>
@@ -31094,7 +31428,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1210</v>
@@ -31124,7 +31458,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1143</v>
@@ -31305,7 +31639,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1869</v>
+        <v>1894</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1225</v>
@@ -31316,7 +31650,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1860</v>
+        <v>1885</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1226</v>
@@ -31773,7 +32107,7 @@
         <v>1003</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1870</v>
+        <v>1895</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1271</v>
@@ -32121,7 +32455,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1871</v>
+        <v>1896</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1325</v>
@@ -32140,7 +32474,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1872</v>
+        <v>1897</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1328</v>
@@ -32338,7 +32672,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1867</v>
+        <v>1892</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1071</v>
@@ -32349,7 +32683,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1867</v>
+        <v>1892</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1360</v>
@@ -32453,7 +32787,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1377</v>
@@ -32630,7 +32964,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1866</v>
+        <v>1891</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1401</v>
@@ -32713,21 +33047,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1772</v>
+        <v>1797</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1773</v>
+        <v>1798</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1774</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>286</v>
@@ -32735,7 +33069,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>285</v>
@@ -32746,35 +33080,35 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1804</v>
+        <v>1829</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1805</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1804</v>
+        <v>1829</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1806</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1804</v>
+        <v>1829</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1807</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32878,7 +33212,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>270</v>
@@ -32886,7 +33220,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>270</v>
@@ -32894,7 +33228,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>271</v>
@@ -32902,7 +33236,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>271</v>
@@ -32979,7 +33313,7 @@
         <v>324</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1842</v>
+        <v>1867</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>341</v>
@@ -32998,10 +33332,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -33009,13 +33343,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1832</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33031,18 +33365,18 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1798</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>272</v>
@@ -33050,7 +33384,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>272</v>
@@ -33069,24 +33403,24 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1816</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1817</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33159,7 +33493,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>265</v>
@@ -33167,7 +33501,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>265</v>
@@ -33175,32 +33509,32 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1808</v>
+        <v>1833</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1809</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1834</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>287</v>
@@ -33208,7 +33542,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>285</v>
@@ -33301,24 +33635,24 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1826</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1827</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33367,13 +33701,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1836</v>
+        <v>1861</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1837</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33557,7 +33891,7 @@
         <v>296</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1839</v>
+        <v>1864</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>297</v>
@@ -33576,7 +33910,7 @@
         <v>296</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1839</v>
+        <v>1864</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>58</v>
@@ -33625,7 +33959,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>291</v>
@@ -33732,7 +34066,7 @@
         <v>324</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1843</v>
+        <v>1868</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>312</v>
@@ -33919,7 +34253,7 @@
         <v>169</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1782</v>
+        <v>1807</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>209</v>
@@ -33930,7 +34264,7 @@
         <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1782</v>
+        <v>1807</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>209</v>
@@ -33960,7 +34294,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>283</v>
@@ -33971,24 +34305,24 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1830</v>
+        <v>1855</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>1831</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1814</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34180,13 +34514,13 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1799</v>
+        <v>1824</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1800</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34235,35 +34569,35 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1797</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1797</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1838</v>
+        <v>1863</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1797</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34293,7 +34627,7 @@
         <v>324</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1844</v>
+        <v>1869</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>144</v>
@@ -34345,13 +34679,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1815</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34378,7 +34712,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>285</v>
@@ -34389,18 +34723,18 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1802</v>
+        <v>1827</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1803</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>268</v>
@@ -34408,7 +34742,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>268</v>
@@ -34416,7 +34750,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>285</v>
@@ -34491,7 +34825,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>1053</v>
@@ -35330,7 +35664,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>551</v>
@@ -35506,7 +35840,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>884</v>
@@ -35593,7 +35927,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>1861</v>
+        <v>1886</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>895</v>
@@ -35604,7 +35938,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>1863</v>
+        <v>1888</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>898</v>
@@ -35765,7 +36099,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>921</v>
@@ -35853,7 +36187,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>933</v>
@@ -36135,7 +36469,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1865</v>
+        <v>1890</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>968</v>
@@ -36463,7 +36797,7 @@
         <v>616</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1862</v>
+        <v>1887</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>632</v>
@@ -36539,7 +36873,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1866</v>
+        <v>1891</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>1032</v>
@@ -36550,7 +36884,7 @@
         <v>616</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1862</v>
+        <v>1887</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>637</v>
@@ -36707,7 +37041,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>839</v>
@@ -36718,7 +37052,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>1055</v>
@@ -36729,7 +37063,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1867</v>
+        <v>1892</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>1057</v>
@@ -36740,7 +37074,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>1059</v>
@@ -36751,7 +37085,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>1063</v>
@@ -36773,7 +37107,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>1064</v>
@@ -36795,7 +37129,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>1064</v>
@@ -36806,7 +37140,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>1067</v>
@@ -36872,7 +37206,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1864</v>
+        <v>1889</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>1079</v>
@@ -36968,7 +37302,7 @@
         <v>71</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1868</v>
+        <v>1893</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>1090</v>
@@ -37017,7 +37351,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>1860</v>
+        <v>1885</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>1100</v>
@@ -37310,7 +37644,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>1861</v>
+        <v>1886</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>570</v>
@@ -37895,24 +38229,24 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1820</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>1819</v>
+        <v>1844</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1820</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37942,7 +38276,7 @@
         <v>324</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1845</v>
+        <v>1870</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>300</v>
@@ -37972,7 +38306,7 @@
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>21</v>
@@ -37991,7 +38325,7 @@
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>21</v>
@@ -38043,7 +38377,7 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>1852</v>
+        <v>1877</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>445</v>
@@ -38126,7 +38460,7 @@
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>1854</v>
+        <v>1879</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>458</v>
@@ -38164,7 +38498,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>1856</v>
+        <v>1881</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>488</v>
@@ -38280,7 +38614,7 @@
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>458</v>
@@ -38323,7 +38657,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>458</v>
@@ -38487,7 +38821,7 @@
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>1857</v>
+        <v>1882</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>509</v>
@@ -38732,7 +39066,7 @@
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>527</v>
@@ -38778,7 +39112,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>546</v>
@@ -38789,7 +39123,7 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>551</v>
@@ -38800,7 +39134,7 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>527</v>
@@ -38808,7 +39142,7 @@
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>1858</v>
+        <v>1883</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>537</v>
@@ -38903,7 +39237,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1859</v>
+        <v>1884</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>527</v>
@@ -38963,7 +39297,7 @@
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>269</v>
@@ -38971,7 +39305,7 @@
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>269</v>
@@ -38979,7 +39313,7 @@
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>1860</v>
+        <v>1885</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>269</v>
@@ -39028,24 +39362,24 @@
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1828</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>1793</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39086,7 +39420,7 @@
         <v>324</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1847</v>
+        <v>1872</v>
       </c>
       <c r="C631" s="4" t="s">
         <v>398</v>
@@ -39105,7 +39439,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>279</v>
@@ -39124,24 +39458,24 @@
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1810</v>
+        <v>1835</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>1812</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1794</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39289,7 +39623,7 @@
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>293</v>
@@ -39333,24 +39667,24 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1790</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>1791</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39385,7 +39719,7 @@
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C659" s="4" t="s">
         <v>273</v>
@@ -39393,7 +39727,7 @@
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C660" s="4" t="s">
         <v>273</v>
@@ -39401,29 +39735,29 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1810</v>
+        <v>1835</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>1811</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1789</v>
+        <v>1814</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>1792</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>293</v>
@@ -39434,29 +39768,29 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1795</v>
+        <v>1820</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>1796</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1801</v>
+        <v>1826</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>1796</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C666" s="4" t="s">
         <v>275</v>
@@ -39552,7 +39886,7 @@
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C675" s="4" t="s">
         <v>276</v>
@@ -39571,7 +39905,7 @@
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C677" s="4" t="s">
         <v>267</v>
@@ -39579,7 +39913,7 @@
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C678" s="4" t="s">
         <v>267</v>
@@ -39653,7 +39987,7 @@
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C685" s="4" t="s">
         <v>277</v>
@@ -39661,7 +39995,7 @@
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C686" s="4" t="s">
         <v>278</v>
@@ -39669,13 +40003,13 @@
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>1829</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39691,10 +40025,10 @@
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="C689" s="4" t="s">
         <v>22</v>
@@ -39705,7 +40039,7 @@
         <v>169</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>1779</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39713,7 +40047,7 @@
         <v>169</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>1779</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39721,7 +40055,7 @@
         <v>169</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1780</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39729,7 +40063,7 @@
         <v>169</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>1780</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39737,15 +40071,15 @@
         <v>324</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>1849</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>1786</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39753,7 +40087,7 @@
         <v>45</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1777</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39761,7 +40095,7 @@
         <v>0</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1775</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39769,7 +40103,7 @@
         <v>45</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>1778</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39777,7 +40111,7 @@
         <v>324</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>1850</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39788,7 +40122,7 @@
         <v>394</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>1846</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39796,7 +40130,7 @@
         <v>169</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>1781</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39804,7 +40138,7 @@
         <v>169</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>1785</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39812,7 +40146,7 @@
         <v>317</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>1840</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39820,7 +40154,7 @@
         <v>0</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>1776</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39828,7 +40162,7 @@
         <v>45</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>1776</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39836,7 +40170,7 @@
         <v>45</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>1776</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39844,7 +40178,7 @@
         <v>261</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>1783</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39852,7 +40186,7 @@
         <v>261</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>1783</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39860,7 +40194,7 @@
         <v>239</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>1783</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39868,7 +40202,7 @@
         <v>321</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1841</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40118,7 +40452,7 @@
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>281</v>
@@ -40250,46 +40584,46 @@
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>1835</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1823</v>
+        <v>1848</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>1824</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>1818</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>1818</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40566,13 +40900,13 @@
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1821</v>
+        <v>1846</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>1822</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40607,7 +40941,7 @@
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C781" s="4" t="s">
         <v>274</v>
@@ -40615,7 +40949,7 @@
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C782" s="4" t="s">
         <v>274</v>
@@ -40645,10 +40979,10 @@
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="C785" s="4" t="s">
         <v>306</v>
@@ -40656,10 +40990,10 @@
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1819</v>
+        <v>1844</v>
       </c>
       <c r="C786" s="4" t="s">
         <v>306</v>
@@ -40670,7 +41004,7 @@
         <v>324</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1848</v>
+        <v>1873</v>
       </c>
       <c r="C787" s="4" t="s">
         <v>400</v>
@@ -40678,7 +41012,7 @@
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>285</v>
@@ -40689,24 +41023,24 @@
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>1787</v>
+        <v>1812</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>1788</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="B790" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C790" s="4" t="s">
         <v>1813</v>
-      </c>
-      <c r="C790" s="4" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41049,7 +41383,7 @@
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C822" s="4" t="s">
         <v>264</v>
@@ -41057,7 +41391,7 @@
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C823" s="4" t="s">
         <v>264</v>
@@ -41383,7 +41717,7 @@
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>1143</v>
@@ -41856,7 +42190,7 @@
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="B900" s="3" t="s">
         <v>1143</v>
@@ -41974,7 +42308,7 @@
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
-        <v>1860</v>
+        <v>1885</v>
       </c>
       <c r="B911" s="3" t="s">
         <v>1226</v>
@@ -42015,7 +42349,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>1869</v>
+        <v>1894</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>1225</v>
@@ -42215,7 +42549,7 @@
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C934" s="4" t="s">
         <v>266</v>
@@ -42223,7 +42557,7 @@
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
-        <v>1784</v>
+        <v>1809</v>
       </c>
       <c r="C935" s="4" t="s">
         <v>266</v>
@@ -42543,7 +42877,7 @@
         <v>1003</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>1870</v>
+        <v>1895</v>
       </c>
       <c r="C966" s="4" t="s">
         <v>1271</v>
@@ -42720,7 +43054,7 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>1855</v>
+        <v>1880</v>
       </c>
       <c r="C984" s="4" t="s">
         <v>1210</v>
@@ -42731,7 +43065,7 @@
         <v>1272</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>1873</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42777,8 +43111,8 @@
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="7" t="s">
-        <v>1851</v>
+      <c r="A992" s="8" t="s">
+        <v>1876</v>
       </c>
     </row>
   </sheetData>
@@ -49740,7 +50074,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1874</v>
+        <v>1899</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1453</v>
@@ -52519,7 +52853,7 @@
         <v>1631</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1875</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10917" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10962" uniqueCount="1923">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -4362,1372 +4362,1432 @@
     <t xml:space="preserve">simile of stars</t>
   </si>
   <si>
+    <t xml:space="preserve">sacrifices (yañña)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excessive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti28–9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti30–1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resulting in hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resulting in heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prudence (ottāpa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keenness (ātāpi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti35–6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urgency (saṁvega)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanctuary/security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thoughts he has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evil (pāpa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conscience and prudence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with something left over (saupādisesā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with nothing left over (anupādisesa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wakeful (jāgara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false claim of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref mendicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">love of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disgust with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form, formlessness, cessation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three kinds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti52–3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleasant feelings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen as suffering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">painful feelings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen as dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral feelings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen as impermanent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral feelings seen as </t>
+  </si>
+  <si>
+    <t xml:space="preserve">searches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti54–5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defilements (āsava)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti56–7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grounds for making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divine eye (dibbacakkhu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eye of wisdom (paññācakkhu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculties (indriya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref good actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purity (soceyya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagacity/perfection (moneyya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sage (muni)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong view (micchā diṭṭhi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formless (arūpā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compared to parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wishing for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prosperity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of rotten fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of sandalwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with similar people/like elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leading to mendicant’s decline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk (bhassa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor (sakkāra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gods rejoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wishes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benefiting the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meditation on ugliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impermanence meditation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thoughts (vitakkā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillful and unskillful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unwholesome roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as inner stains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evil wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopping when more left to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence (aggappasāda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best of groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of firebrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closeness to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing sees the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing sees the Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed, hatred, delusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as fires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once returner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attached to sense pleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-returner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attached to rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danger in slightest fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowledges, three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">born from mouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disciples of Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requisites, four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as trifles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref requisites, four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with requisites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart’s release (cetovimutti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release by wisdom (paññavimutti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source of craving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parents as first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provided by laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutual dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of monastics and laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent on laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of waves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sense pleasures, five </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of whirlpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of against the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of crocodiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolerating bad thoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for practicing always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti110–11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hindrances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constantly removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knower of the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as best </t>
+  </si>
+  <si>
+    <t xml:space="preserve">without counterpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed (rāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of plucked lotus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essence (sāra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of fig tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahant is free from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of snake skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his attainments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref loved ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of fallen leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stick with good friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equal or better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">companionship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of bracelets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with wicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmaviharas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as metaphor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downfall (parābhava)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being fond of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not caring for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">womanizer (itthidhuta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gambling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to a younger partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcoholics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unrealistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire worship (aggika)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoidance of paying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not wanting to get caught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not birth defines a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth is not determinant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discard desire for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as best wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as sweetest taste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as means of crossing flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truthfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by truthfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by hard work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friendship gained by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asubhasañña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charnel ground contemplation (sivathika)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of peacock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat eating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking but not doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true and false friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with the wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient traditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your Dhamma teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.8–9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when not ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamma teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unattractiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threefold knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref knowledges, three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triple knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiarity breeds contempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advice for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sīlabbata-parāmāsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alms gathering practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using after reflecting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty to support saṅgha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lay practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uposatha practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref Bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attacks the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well spoken words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not relying on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worthy of gifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmā world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to be reborn in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encouraging others to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha, the word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard to find in world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marks of a great man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirty-two marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref marks of a great man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revealing themselves when praised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as king of Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wise do not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true meaning of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only conventional designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref brahmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref arahant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokālika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticizes chief disciples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahampati Brahmā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports Kokālika’s birth in hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifespan in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustard seeds, cartload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like length of hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actions that lead to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tāvatiṁsa heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebrating the Buddha’s birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asita, hermit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meets Bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between devas and asuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before enlightenment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhodana, king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nālaka, nephew of Asita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like licking razor’s edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowing does not speak much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">through suffering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more peaceful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">against the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamma as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more peaceful than form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sense pleasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be avoided like snake head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a leaky boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boat, bailed out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile for escaping saṁsara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the past and future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like fish in dried-up stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purity (suddhi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref old age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like dream gone when waking are the dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sexual activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by monastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref disputes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclusivity of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Māgaṇḍiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father of Māgaṇḍiyā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Māgaṇḍiyā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter of Māgaṇḍiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rightly practiced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quarrels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variations on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here alone is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peaceful person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like  deep ocean is still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong livelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtuous do not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sāriputta, Ven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as inquirer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bāvari, ascetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head-splitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a difference between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—whom to give to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—worthy of a gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consolodate grief/grieving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why is an9.26 under metta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should have headwords?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are debates and disputes (over views) interchangeable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should “dependent origination, varriations on” be a thing? Or should that be causality?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomodoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">headwords at start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locators at start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ud6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also giving (dāna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also stinginess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also generosity (cāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also gradual instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Aging and death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also dependent origination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as frequent recollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving kindness (metta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age, illness, death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also friendship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive speech: results of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive: definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Noble Eightfold Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā): definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also harsh speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN STARTS HERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? ten factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheel-turning monarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving-kindness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see fear in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascetic, mendicant, sage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception of ugliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escape</t>
+  </si>
+  <si>
     <t xml:space="preserve">sacrifices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excessive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti28–9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guarding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti30–1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resulting in hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resulting in heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prudence (ottāpa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keenness (ātāpi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti35–6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urgency (saṁvega)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanctuary/security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thoughts he has</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evil (pāpa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conscience and prudence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with something left over (saupādisesā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with nothing left over (anupādisesa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wakeful (jāgara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false claim of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref mendicant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">love of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disgust with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form, formlessness, cessation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three kinds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti52–3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pleasant feelings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen as suffering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">painful feelings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen as dart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutral feelings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen as impermanent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutral feelings seen as </t>
-  </si>
-  <si>
-    <t xml:space="preserve">searches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti54–5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defilements (āsava)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti56–7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grounds for making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divine eye (dibbacakkhu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eye of wisdom (paññācakkhu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faculties (indriya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref good actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purity (soceyya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagacity/perfection (moneyya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sage (muni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong view (micchā diṭṭhi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formless (arūpā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compared to parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">praise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wishing for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prosperity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of rotten fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of sandalwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as fragile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with similar people/like elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leading to mendicant’s decline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk (bhassa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">honor (sakkāra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gods rejoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of gods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wishes of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">benefiting the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meditation on ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impermanence meditation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thoughts (vitakkā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillful and unskillful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unwholesome roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as inner stains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evil wishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stopping when more left to do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confidence (aggappasāda)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best of groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goal of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of firebrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closeness to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing sees the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing sees the Dhamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greed, hatred, delusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as fires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">once returner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attached to sense pleasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-returner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attached to rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danger in slightest fault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowledges, three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">born from mouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disciples of Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requisites, four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as trifles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref requisites, four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with requisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart’s release (cetovimutti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">release by wisdom (paññavimutti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teachers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source of craving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parents as first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provided by laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutual dependence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of monastics and laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependent on laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of waves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sense pleasures, five </t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of whirlpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of against the stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of crocodiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolerating bad thoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for practicing always</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti110–11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hindrances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constantly removing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his understanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knower of the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as best </t>
-  </si>
-  <si>
-    <t xml:space="preserve">without counterpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of venom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greed (rāga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of plucked lotus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essence (sāra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of fig tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahant is free from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of snake skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his attainments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref loved ones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of fallen leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stick with good friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equal or better</t>
-  </si>
-  <si>
-    <t xml:space="preserve">companionship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of bracelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with wicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmaviharas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as metaphor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downfall (parābhava)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">being fond of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not caring for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">womanizer (itthidhuta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gambling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to a younger partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcoholics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unrealistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire worship (aggika)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avoidance of paying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not wanting to get caught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not birth defines a person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth is not determinant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discard desire for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as best wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as sweetest taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as means of crossing flood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truthfulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by truthfulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by hard work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friendship gained by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asubhasañña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charnel ground contemplation (sivathika)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of peacock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meat eating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talking but not doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true and false friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with the wise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient traditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">your Dhamma teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.8–9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when not ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhamma teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of boat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unattractiveness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threefold knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref knowledges, three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">triple knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familiarity breeds contempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advice for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sīlabbata-parāmāsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alms gathering practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using after reflecting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty to support saṅgha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lay practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uposatha practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gotama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref Bodhisatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attacks the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as well spoken words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not relying on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worthy of gifts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmā world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how to be reborn in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encouraging others to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddha, the word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hard to find in world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marks of a great man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp.3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirty-two marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref marks of a great man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revealing themselves when praised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as king of Dhamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wise do not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true meaning of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only conventional designation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref brahmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref arahant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kokālika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criticizes chief disciples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahampati Brahmā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports Kokālika’s birth in hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifespan in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mustard seeds, cartload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like length of hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions that lead to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tāvatiṁsa heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">celebrating the Buddha’s birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asita, hermit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meets Bodhisatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">war</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between devas and asuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before enlightenment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudhodana, king</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nālaka, nephew of Asita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like licking razor’s edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowing does not speak much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">real reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">through suffering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more peaceful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">against the stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhamma as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more peaceful than form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sense pleasures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be avoided like snake head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like a leaky boat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boat, bailed out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile for escaping saṁsara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the past and future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like fish in dried-up stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purity (suddhi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref old age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp.4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like dream gone when waking are the dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sexual activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by monastics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp.4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref disputes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclusivity of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Māgaṇḍiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father of Māgaṇḍiyā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Māgaṇḍiyā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daughter of Māgaṇḍiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rightly practiced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quarrels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variations on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a difference between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—whom to give to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—worthy of a gift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consolodate grief/grieving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why is an9.26 under metta?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should have headwords?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anxiety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are debates and disputes (over views) interchangeable?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should “dependent origination, varriations on” be a thing? Or should that be causality?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pomodoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">headwords at start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ud6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iti37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also giving (dāna)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also stinginess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also generosity (cāga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also gradual instruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Aging and death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also dependent origination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as frequent recollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving kindness (metta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age, illness, death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also friendship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive speech: results of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive: definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Noble Eightfold Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā): definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also harsh speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN STARTS HERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? ten factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">association  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheel-turning monarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving-kindness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see fear in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hunger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ascetic, mendicant, sage  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">right view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">teaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perception of ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulty of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escape</t>
   </si>
   <si>
     <t xml:space="preserve">purity</t>
@@ -5937,16 +5997,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1455"/>
+  <dimension ref="A1:C1471"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1445" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1456" activeCellId="0" sqref="A1456"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1463" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1472" activeCellId="0" sqref="C1472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.94"/>
   </cols>
   <sheetData>
@@ -20992,6 +21052,167 @@
       </c>
       <c r="C1455" s="0" t="s">
         <v>1832</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1456" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1456" s="0" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="0" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1457" s="0" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1457" s="0" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1458" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1458" s="0" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="0" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1459" s="0" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1459" s="0" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1460" s="0" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1460" s="0" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1461" s="0" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1461" s="0" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1462" s="0" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C1462" s="0" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1463" s="0" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1463" s="0" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1464" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C1464" s="0" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="0" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1465" s="0" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1465" s="0" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1466" s="0" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1466" s="0" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="0" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1467" s="0" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1468" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1468" s="0" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="0" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1469" s="0" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1470" s="0" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C1471" s="0" t="s">
+        <v>1851</v>
       </c>
     </row>
   </sheetData>
@@ -21021,17 +21242,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1834</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1835</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1836</v>
+        <v>1854</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1744</v>
@@ -21039,37 +21260,37 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1837</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1838</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1839</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1840</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1841</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1842</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1843</v>
+        <v>1861</v>
       </c>
     </row>
   </sheetData>
@@ -21089,29 +21310,34 @@
     <tabColor rgb="FF800000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1844</v>
+        <v>1862</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1845</v>
+        <v>1863</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1846</v>
+        <v>1864</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21138,7 +21364,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1847</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21149,7 +21375,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1848</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21197,6 +21423,15 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>44813</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1455</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21277,13 +21512,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1849</v>
+        <v>1868</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1850</v>
+        <v>1869</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1851</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21292,7 +21527,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1852</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21301,7 +21536,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1853</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21641,7 +21876,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1854</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21650,7 +21885,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1855</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21659,7 +21894,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1853</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23203,7 +23438,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1856</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23211,7 +23446,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1857</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23219,7 +23454,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1858</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23480,7 +23715,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1859</v>
+        <v>1878</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -23931,12 +24166,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1860</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -23944,7 +24179,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -23952,7 +24187,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -23960,7 +24195,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -23968,7 +24203,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -23976,7 +24211,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -23984,7 +24219,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -23992,7 +24227,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -24000,7 +24235,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -24008,7 +24243,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -24016,7 +24251,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -24051,7 +24286,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1856</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24059,7 +24294,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1857</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24067,7 +24302,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1862</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24328,7 +24563,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1859</v>
+        <v>1878</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -24779,12 +25014,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1860</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -24792,7 +25027,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -24800,7 +25035,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -24808,7 +25043,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -24816,7 +25051,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -24824,7 +25059,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -24832,7 +25067,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -24840,7 +25075,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -24848,7 +25083,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -24856,7 +25091,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -24864,7 +25099,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -24872,7 +25107,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -24880,7 +25115,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -24888,7 +25123,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -24896,7 +25131,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -24904,7 +25139,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -24912,15 +25147,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1863</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -24931,7 +25166,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -24942,7 +25177,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -24953,7 +25188,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -24964,7 +25199,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -24975,7 +25210,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -24986,7 +25221,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -24997,7 +25232,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -25008,7 +25243,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -25019,7 +25254,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -25030,7 +25265,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -25041,7 +25276,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -25052,7 +25287,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -25063,7 +25298,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -25074,7 +25309,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -25085,7 +25320,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -25096,7 +25331,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -25107,7 +25342,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -25118,7 +25353,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -25129,7 +25364,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -25140,7 +25375,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -25151,7 +25386,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
@@ -25162,7 +25397,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -25173,7 +25408,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -25184,7 +25419,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -25195,7 +25430,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -25206,7 +25441,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -25217,7 +25452,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -25228,7 +25463,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -25239,7 +25474,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -25250,7 +25485,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -25261,7 +25496,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -25272,7 +25507,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -25283,7 +25518,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -25294,7 +25529,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -25305,29 +25540,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1864</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1865</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -25338,7 +25573,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -25349,7 +25584,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -25360,7 +25595,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -25371,7 +25606,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -25382,7 +25617,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -25393,7 +25628,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -25404,7 +25639,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -25415,7 +25650,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -25426,7 +25661,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -25437,7 +25672,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -25448,7 +25683,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -25459,7 +25694,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -25470,7 +25705,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -25481,7 +25716,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -25492,7 +25727,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -25503,7 +25738,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -25514,7 +25749,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -25525,7 +25760,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -25536,10 +25771,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1866</v>
+        <v>1885</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -25547,7 +25782,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -25561,7 +25796,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1860</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25569,7 +25804,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1867</v>
+        <v>1886</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -25580,7 +25815,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1867</v>
+        <v>1886</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -25754,7 +25989,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1868</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25778,7 +26013,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1869</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25901,7 +26136,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1870</v>
+        <v>1889</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>394</v>
@@ -26033,7 +26268,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1871</v>
+        <v>1890</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -26044,7 +26279,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1872</v>
+        <v>1891</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -26055,7 +26290,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1873</v>
+        <v>1892</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -26443,7 +26678,7 @@
         <v>447</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1874</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26484,7 +26719,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1875</v>
+        <v>1894</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>451</v>
@@ -26495,7 +26730,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1876</v>
+        <v>1895</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>453</v>
@@ -26957,7 +27192,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1877</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26965,7 +27200,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1878</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26981,7 +27216,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>1879</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27091,7 +27326,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1880</v>
+        <v>1899</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>498</v>
@@ -27134,7 +27369,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1881</v>
+        <v>1900</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>511</v>
@@ -27142,7 +27377,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1882</v>
+        <v>1901</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>511</v>
@@ -27215,7 +27450,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>511</v>
@@ -27339,7 +27574,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1884</v>
+        <v>1903</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>541</v>
@@ -27517,7 +27752,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1885</v>
+        <v>1904</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>562</v>
@@ -27662,7 +27897,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1881</v>
+        <v>1900</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>580</v>
@@ -27689,7 +27924,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>580</v>
@@ -27757,7 +27992,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1886</v>
+        <v>1905</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>590</v>
@@ -27816,7 +28051,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1887</v>
+        <v>1906</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>580</v>
@@ -27835,7 +28070,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1881</v>
+        <v>1900</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>599</v>
@@ -27873,7 +28108,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1881</v>
+        <v>1900</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>604</v>
@@ -27947,7 +28182,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1888</v>
+        <v>1907</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -28047,7 +28282,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1889</v>
+        <v>1908</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>624</v>
@@ -28519,7 +28754,7 @@
         <v>670</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1890</v>
+        <v>1909</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>686</v>
@@ -28530,7 +28765,7 @@
         <v>670</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1890</v>
+        <v>1909</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>691</v>
@@ -29816,7 +30051,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>604</v>
@@ -29956,7 +30191,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1881</v>
+        <v>1900</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>938</v>
@@ -30010,7 +30245,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1889</v>
+        <v>1908</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>949</v>
@@ -30032,7 +30267,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1891</v>
+        <v>1910</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>952</v>
@@ -30155,7 +30390,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>975</v>
@@ -30240,7 +30475,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>987</v>
@@ -30492,7 +30727,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1893</v>
+        <v>1912</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1022</v>
@@ -30825,7 +31060,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1894</v>
+        <v>1913</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1086</v>
@@ -30968,7 +31203,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1107</v>
@@ -30976,7 +31211,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>893</v>
@@ -30987,7 +31222,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1109</v>
@@ -30998,7 +31233,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1895</v>
+        <v>1914</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1111</v>
@@ -31009,7 +31244,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1113</v>
@@ -31031,7 +31266,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1117</v>
@@ -31042,7 +31277,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1118</v>
@@ -31053,7 +31288,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1118</v>
@@ -31064,7 +31299,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1121</v>
@@ -31130,7 +31365,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1892</v>
+        <v>1911</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1133</v>
@@ -31193,7 +31428,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1896</v>
+        <v>1915</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1144</v>
@@ -31242,7 +31477,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1888</v>
+        <v>1907</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1154</v>
@@ -31490,7 +31725,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1198</v>
@@ -31921,7 +32156,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1265</v>
@@ -31951,7 +32186,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1198</v>
@@ -32132,7 +32367,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1897</v>
+        <v>1916</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1280</v>
@@ -32143,7 +32378,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1888</v>
+        <v>1907</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1281</v>
@@ -32600,7 +32835,7 @@
         <v>1057</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1898</v>
+        <v>1917</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1326</v>
@@ -32948,7 +33183,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1899</v>
+        <v>1918</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1380</v>
@@ -32967,7 +33202,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1900</v>
+        <v>1919</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1383</v>
@@ -33165,7 +33400,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1895</v>
+        <v>1914</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1125</v>
@@ -33176,7 +33411,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1895</v>
+        <v>1914</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1414</v>
@@ -33280,7 +33515,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1881</v>
+        <v>1900</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1431</v>
@@ -33408,7 +33643,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>1445</v>
+        <v>1920</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -33457,7 +33692,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1894</v>
+        <v>1913</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1453</v>
@@ -40394,7 +40629,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1445</v>
+        <v>1920</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -40885,7 +41120,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1901</v>
+        <v>1921</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1505</v>
@@ -43664,7 +43899,7 @@
         <v>1683</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1902</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45150,7 +45385,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1445</v>
+        <v>1920</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1713</v>
@@ -45402,7 +45637,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1445</v>
+        <v>1920</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1744</v>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10962" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10965" uniqueCount="1924">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -5581,6 +5581,9 @@
   </si>
   <si>
     <t xml:space="preserve">Snp5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a difference between</t>
@@ -5997,7 +6000,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1471"/>
+  <dimension ref="A1:C1472"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1463" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1472" activeCellId="0" sqref="C1472"/>
@@ -21213,6 +21216,17 @@
       </c>
       <c r="C1471" s="0" t="s">
         <v>1851</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1472" s="0" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1472" s="0" t="s">
+        <v>1852</v>
       </c>
     </row>
   </sheetData>
@@ -21242,17 +21256,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1744</v>
@@ -21260,37 +21274,37 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
   </sheetData>
@@ -21328,16 +21342,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21364,7 +21378,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21375,7 +21389,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21512,13 +21526,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21527,7 +21541,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21536,7 +21550,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21876,7 +21890,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21885,7 +21899,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21894,7 +21908,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23438,7 +23452,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23446,7 +23460,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23454,7 +23468,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23715,7 +23729,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -24166,12 +24180,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -24179,7 +24193,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -24187,7 +24201,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -24195,7 +24209,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -24203,7 +24217,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -24211,7 +24225,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -24219,7 +24233,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -24227,7 +24241,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -24235,7 +24249,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -24243,7 +24257,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -24251,7 +24265,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -24286,7 +24300,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24294,7 +24308,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24302,7 +24316,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24563,7 +24577,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -25014,12 +25028,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -25027,7 +25041,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -25035,7 +25049,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -25043,7 +25057,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -25051,7 +25065,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -25059,7 +25073,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -25067,7 +25081,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -25075,7 +25089,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -25083,7 +25097,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -25091,7 +25105,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -25099,7 +25113,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -25107,7 +25121,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -25115,7 +25129,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -25123,7 +25137,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -25131,7 +25145,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -25139,7 +25153,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -25147,15 +25161,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -25166,7 +25180,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -25177,7 +25191,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -25188,7 +25202,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -25199,7 +25213,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -25210,7 +25224,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -25221,7 +25235,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -25232,7 +25246,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -25243,7 +25257,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -25254,7 +25268,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -25265,7 +25279,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -25276,7 +25290,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -25287,7 +25301,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -25298,7 +25312,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -25309,7 +25323,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -25320,7 +25334,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -25331,7 +25345,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -25342,7 +25356,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -25353,7 +25367,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -25364,7 +25378,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -25375,7 +25389,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -25386,7 +25400,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
@@ -25397,7 +25411,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -25408,7 +25422,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -25419,7 +25433,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -25430,7 +25444,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -25441,7 +25455,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -25452,7 +25466,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -25463,7 +25477,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -25474,7 +25488,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -25485,7 +25499,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -25496,7 +25510,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -25507,7 +25521,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -25518,7 +25532,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -25529,7 +25543,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -25540,29 +25554,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -25573,7 +25587,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -25584,7 +25598,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -25595,7 +25609,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -25606,7 +25620,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -25617,7 +25631,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -25628,7 +25642,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -25639,7 +25653,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -25650,7 +25664,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -25661,7 +25675,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -25672,7 +25686,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -25683,7 +25697,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -25694,7 +25708,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -25705,7 +25719,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -25716,7 +25730,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -25727,7 +25741,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -25738,7 +25752,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -25749,7 +25763,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -25760,7 +25774,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -25771,10 +25785,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -25782,7 +25796,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -25796,7 +25810,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25804,7 +25818,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -25815,7 +25829,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -25989,7 +26003,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26013,7 +26027,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26136,7 +26150,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>394</v>
@@ -26268,7 +26282,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -26279,7 +26293,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -26290,7 +26304,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -26678,7 +26692,7 @@
         <v>447</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26719,7 +26733,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>451</v>
@@ -26730,7 +26744,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>453</v>
@@ -27192,7 +27206,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27200,7 +27214,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27216,7 +27230,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27326,7 +27340,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>498</v>
@@ -27369,7 +27383,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>511</v>
@@ -27377,7 +27391,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>511</v>
@@ -27450,7 +27464,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>511</v>
@@ -27574,7 +27588,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>541</v>
@@ -27752,7 +27766,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>562</v>
@@ -27897,7 +27911,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>580</v>
@@ -27924,7 +27938,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>580</v>
@@ -27992,7 +28006,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>590</v>
@@ -28051,7 +28065,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>580</v>
@@ -28070,7 +28084,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>599</v>
@@ -28108,7 +28122,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>604</v>
@@ -28182,7 +28196,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -28282,7 +28296,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>624</v>
@@ -28754,7 +28768,7 @@
         <v>670</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>686</v>
@@ -28765,7 +28779,7 @@
         <v>670</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>691</v>
@@ -30051,7 +30065,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>604</v>
@@ -30191,7 +30205,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>938</v>
@@ -30245,7 +30259,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>949</v>
@@ -30267,7 +30281,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>952</v>
@@ -30390,7 +30404,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>975</v>
@@ -30475,7 +30489,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>987</v>
@@ -30727,7 +30741,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1022</v>
@@ -31060,7 +31074,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1086</v>
@@ -31203,7 +31217,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1107</v>
@@ -31211,7 +31225,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>893</v>
@@ -31222,7 +31236,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1109</v>
@@ -31233,7 +31247,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1111</v>
@@ -31244,7 +31258,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1113</v>
@@ -31266,7 +31280,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1117</v>
@@ -31277,7 +31291,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1118</v>
@@ -31288,7 +31302,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1118</v>
@@ -31299,7 +31313,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1121</v>
@@ -31365,7 +31379,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1133</v>
@@ -31428,7 +31442,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1144</v>
@@ -31477,7 +31491,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1154</v>
@@ -31725,7 +31739,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1198</v>
@@ -32156,7 +32170,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1265</v>
@@ -32186,7 +32200,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1198</v>
@@ -32367,7 +32381,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1280</v>
@@ -32378,7 +32392,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1281</v>
@@ -32835,7 +32849,7 @@
         <v>1057</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1326</v>
@@ -33183,7 +33197,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1380</v>
@@ -33202,7 +33216,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1383</v>
@@ -33400,7 +33414,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1125</v>
@@ -33411,7 +33425,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1414</v>
@@ -33515,7 +33529,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1431</v>
@@ -33643,7 +33657,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -33692,7 +33706,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1453</v>
@@ -40629,7 +40643,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -41120,7 +41134,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1505</v>
@@ -43899,7 +43913,7 @@
         <v>1683</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45385,7 +45399,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1713</v>
@@ -45637,7 +45651,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1744</v>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10965" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10991" uniqueCount="1934">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -5583,7 +5583,37 @@
     <t xml:space="preserve">Snp5.4</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST</t>
+    <t xml:space="preserve">Snp5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot release someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception of nothingness (natthi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a flame blown out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in terms of vows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as sanctuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.12</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a difference between</t>
@@ -6000,10 +6030,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1472"/>
+  <dimension ref="A1:C1481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1463" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1472" activeCellId="0" sqref="C1472"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1465" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1482" activeCellId="0" sqref="A1482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21220,13 +21250,109 @@
     </row>
     <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1472" s="0" t="s">
-        <v>506</v>
+        <v>1034</v>
       </c>
       <c r="B1472" s="0" t="s">
-        <v>1852</v>
+        <v>1831</v>
       </c>
       <c r="C1472" s="0" t="s">
         <v>1852</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1473" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C1473" s="0" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1474" s="0" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1474" s="0" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="0" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1475" s="0" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1476" s="0" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1476" s="0" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1477" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1477" s="0" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1478" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1478" s="0" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="0" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1479" s="0" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1479" s="0" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1480" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C1480" s="0" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1481" s="0" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1481" s="0" t="s">
+        <v>1862</v>
       </c>
     </row>
   </sheetData>
@@ -21256,17 +21382,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1853</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1854</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1855</v>
+        <v>1865</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1744</v>
@@ -21274,37 +21400,37 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1856</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1857</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1858</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1859</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1860</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1861</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1862</v>
+        <v>1872</v>
       </c>
     </row>
   </sheetData>
@@ -21342,16 +21468,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1863</v>
+        <v>1873</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1866</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21378,7 +21504,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1867</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21389,7 +21515,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1868</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21526,13 +21652,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1871</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21541,7 +21667,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1872</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21550,7 +21676,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21890,7 +22016,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1874</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21899,7 +22025,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1875</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21908,7 +22034,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23452,7 +23578,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1876</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23460,7 +23586,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1877</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23468,7 +23594,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1878</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23729,7 +23855,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1879</v>
+        <v>1889</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -24180,12 +24306,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1880</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -24193,7 +24319,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -24201,7 +24327,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -24209,7 +24335,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -24217,7 +24343,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -24225,7 +24351,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -24233,7 +24359,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -24241,7 +24367,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -24249,7 +24375,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -24257,7 +24383,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -24265,7 +24391,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -24300,7 +24426,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1876</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24308,7 +24434,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1877</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24316,7 +24442,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1882</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24577,7 +24703,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1879</v>
+        <v>1889</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -25028,12 +25154,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1880</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -25041,7 +25167,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -25049,7 +25175,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -25057,7 +25183,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -25065,7 +25191,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -25073,7 +25199,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -25081,7 +25207,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -25089,7 +25215,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -25097,7 +25223,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -25105,7 +25231,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -25113,7 +25239,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -25121,7 +25247,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -25129,7 +25255,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -25137,7 +25263,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -25145,7 +25271,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -25153,7 +25279,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -25161,15 +25287,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1883</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -25180,7 +25306,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -25191,7 +25317,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -25202,7 +25328,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -25213,7 +25339,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -25224,7 +25350,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -25235,7 +25361,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -25246,7 +25372,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -25257,7 +25383,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -25268,7 +25394,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -25279,7 +25405,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -25290,7 +25416,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -25301,7 +25427,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -25312,7 +25438,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -25323,7 +25449,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -25334,7 +25460,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -25345,7 +25471,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -25356,7 +25482,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -25367,7 +25493,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -25378,7 +25504,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -25389,7 +25515,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -25400,7 +25526,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
@@ -25411,7 +25537,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -25422,7 +25548,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -25433,7 +25559,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -25444,7 +25570,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -25455,7 +25581,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -25466,7 +25592,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -25477,7 +25603,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -25488,7 +25614,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -25499,7 +25625,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -25510,7 +25636,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -25521,7 +25647,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -25532,7 +25658,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -25543,7 +25669,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -25554,29 +25680,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1884</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1885</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -25587,7 +25713,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -25598,7 +25724,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -25609,7 +25735,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -25620,7 +25746,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -25631,7 +25757,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -25642,7 +25768,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -25653,7 +25779,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -25664,7 +25790,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -25675,7 +25801,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -25686,7 +25812,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -25697,7 +25823,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -25708,7 +25834,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -25719,7 +25845,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -25730,7 +25856,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -25741,7 +25867,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -25752,7 +25878,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -25763,7 +25889,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -25774,7 +25900,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -25785,10 +25911,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1886</v>
+        <v>1896</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -25796,7 +25922,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -25810,7 +25936,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1880</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25818,7 +25944,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1887</v>
+        <v>1897</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -25829,7 +25955,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1887</v>
+        <v>1897</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -26003,7 +26129,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1888</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26027,7 +26153,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1889</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26150,7 +26276,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>394</v>
@@ -26282,7 +26408,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1891</v>
+        <v>1901</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -26293,7 +26419,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1892</v>
+        <v>1902</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -26304,7 +26430,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1893</v>
+        <v>1903</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -26692,7 +26818,7 @@
         <v>447</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1894</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26733,7 +26859,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1895</v>
+        <v>1905</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>451</v>
@@ -26744,7 +26870,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1896</v>
+        <v>1906</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>453</v>
@@ -27206,7 +27332,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1897</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27214,7 +27340,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1898</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27230,7 +27356,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>1899</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27340,7 +27466,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>498</v>
@@ -27383,7 +27509,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>511</v>
@@ -27391,7 +27517,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1902</v>
+        <v>1912</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>511</v>
@@ -27464,7 +27590,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>511</v>
@@ -27588,7 +27714,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1904</v>
+        <v>1914</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>541</v>
@@ -27766,7 +27892,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1905</v>
+        <v>1915</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>562</v>
@@ -27911,7 +28037,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>580</v>
@@ -27938,7 +28064,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>580</v>
@@ -28006,7 +28132,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1906</v>
+        <v>1916</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>590</v>
@@ -28065,7 +28191,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1907</v>
+        <v>1917</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>580</v>
@@ -28084,7 +28210,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>599</v>
@@ -28122,7 +28248,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>604</v>
@@ -28196,7 +28322,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1908</v>
+        <v>1918</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -28296,7 +28422,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1909</v>
+        <v>1919</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>624</v>
@@ -28768,7 +28894,7 @@
         <v>670</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>686</v>
@@ -28779,7 +28905,7 @@
         <v>670</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>691</v>
@@ -30065,7 +30191,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>604</v>
@@ -30205,7 +30331,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>938</v>
@@ -30259,7 +30385,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1909</v>
+        <v>1919</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>949</v>
@@ -30281,7 +30407,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1911</v>
+        <v>1921</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>952</v>
@@ -30404,7 +30530,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>975</v>
@@ -30489,7 +30615,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>987</v>
@@ -30741,7 +30867,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1913</v>
+        <v>1923</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1022</v>
@@ -31074,7 +31200,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1914</v>
+        <v>1924</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1086</v>
@@ -31217,7 +31343,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1107</v>
@@ -31225,7 +31351,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>893</v>
@@ -31236,7 +31362,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1109</v>
@@ -31247,7 +31373,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1111</v>
@@ -31258,7 +31384,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1113</v>
@@ -31280,7 +31406,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1117</v>
@@ -31291,7 +31417,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1118</v>
@@ -31302,7 +31428,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1118</v>
@@ -31313,7 +31439,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1121</v>
@@ -31379,7 +31505,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1133</v>
@@ -31442,7 +31568,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1916</v>
+        <v>1926</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1144</v>
@@ -31491,7 +31617,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1908</v>
+        <v>1918</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1154</v>
@@ -31739,7 +31865,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1198</v>
@@ -32170,7 +32296,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1265</v>
@@ -32200,7 +32326,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1198</v>
@@ -32381,7 +32507,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1917</v>
+        <v>1927</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1280</v>
@@ -32392,7 +32518,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1908</v>
+        <v>1918</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1281</v>
@@ -32849,7 +32975,7 @@
         <v>1057</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1918</v>
+        <v>1928</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1326</v>
@@ -33197,7 +33323,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1919</v>
+        <v>1929</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1380</v>
@@ -33216,7 +33342,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1383</v>
@@ -33414,7 +33540,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1125</v>
@@ -33425,7 +33551,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1414</v>
@@ -33529,7 +33655,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1431</v>
@@ -33657,7 +33783,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -33706,7 +33832,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1914</v>
+        <v>1924</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1453</v>
@@ -40643,7 +40769,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -41134,7 +41260,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1922</v>
+        <v>1932</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1505</v>
@@ -43913,7 +44039,7 @@
         <v>1683</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1923</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45399,7 +45525,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1713</v>
@@ -45651,7 +45777,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1744</v>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10991" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11033" uniqueCount="1957">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -5614,6 +5614,75 @@
   </si>
   <si>
     <t xml:space="preserve">Snp5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vakkali, Ven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">committed to faith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansions, heavenly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref devas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heavenly mansions (vimāna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gifts, specific types of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesame seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.10</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a difference between</t>
@@ -6030,10 +6099,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1481"/>
+  <dimension ref="A1:C1496"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1465" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1482" activeCellId="0" sqref="A1482"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1477" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1485" activeCellId="0" sqref="C1485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21353,6 +21422,162 @@
       </c>
       <c r="C1481" s="0" t="s">
         <v>1862</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="0" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1482" s="0" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1482" s="0" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="0" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1483" s="0" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="0" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1484" s="0" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1485" s="0" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1486" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1486" s="0" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1487" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1487" s="0" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1488" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1488" s="0" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1489" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1489" s="0" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1490" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1490" s="0" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1491" s="0" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1491" s="0" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1492" s="0" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1492" s="0" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1493" s="0" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1493" s="0" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1494" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1494" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1494" s="0" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1495" s="0" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1495" s="0" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1496" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1496" s="0" t="s">
+        <v>1885</v>
       </c>
     </row>
   </sheetData>
@@ -21382,17 +21607,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1863</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1864</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1865</v>
+        <v>1888</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1744</v>
@@ -21400,37 +21625,37 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1866</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1867</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1868</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1869</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1870</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1871</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1872</v>
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
@@ -21468,16 +21693,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1873</v>
+        <v>1896</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1874</v>
+        <v>1897</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1875</v>
+        <v>1898</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1876</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21504,7 +21729,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1877</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21515,7 +21740,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1878</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21652,13 +21877,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1879</v>
+        <v>1902</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1880</v>
+        <v>1903</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1881</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21667,7 +21892,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1882</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21676,7 +21901,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1883</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22016,7 +22241,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1884</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22025,7 +22250,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1885</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22034,7 +22259,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1883</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23578,7 +23803,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1886</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23586,7 +23811,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1887</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23594,7 +23819,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1888</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23855,7 +24080,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1889</v>
+        <v>1912</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -24306,12 +24531,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1890</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -24319,7 +24544,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -24327,7 +24552,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -24335,7 +24560,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -24343,7 +24568,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -24351,7 +24576,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -24359,7 +24584,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -24367,7 +24592,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -24375,7 +24600,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -24383,7 +24608,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -24391,7 +24616,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -24426,7 +24651,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1886</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24434,7 +24659,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1887</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24442,7 +24667,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1892</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24703,7 +24928,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1889</v>
+        <v>1912</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -25154,12 +25379,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1890</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -25167,7 +25392,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -25175,7 +25400,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -25183,7 +25408,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -25191,7 +25416,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -25199,7 +25424,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -25207,7 +25432,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -25215,7 +25440,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -25223,7 +25448,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -25231,7 +25456,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -25239,7 +25464,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -25247,7 +25472,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -25255,7 +25480,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -25263,7 +25488,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -25271,7 +25496,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -25279,7 +25504,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -25287,15 +25512,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1893</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -25306,7 +25531,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -25317,7 +25542,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -25328,7 +25553,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -25339,7 +25564,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -25350,7 +25575,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -25361,7 +25586,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -25372,7 +25597,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -25383,7 +25608,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -25394,7 +25619,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -25405,7 +25630,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -25416,7 +25641,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -25427,7 +25652,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -25438,7 +25663,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -25449,7 +25674,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -25460,7 +25685,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -25471,7 +25696,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -25482,7 +25707,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -25493,7 +25718,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -25504,7 +25729,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -25515,7 +25740,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -25526,7 +25751,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
@@ -25537,7 +25762,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -25548,7 +25773,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -25559,7 +25784,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -25570,7 +25795,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -25581,7 +25806,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -25592,7 +25817,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -25603,7 +25828,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -25614,7 +25839,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -25625,7 +25850,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -25636,7 +25861,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -25647,7 +25872,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -25658,7 +25883,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -25669,7 +25894,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -25680,29 +25905,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1894</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1895</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -25713,7 +25938,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -25724,7 +25949,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -25735,7 +25960,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -25746,7 +25971,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -25757,7 +25982,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -25768,7 +25993,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -25779,7 +26004,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -25790,7 +26015,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -25801,7 +26026,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -25812,7 +26037,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -25823,7 +26048,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -25834,7 +26059,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -25845,7 +26070,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -25856,7 +26081,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -25867,7 +26092,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -25878,7 +26103,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -25889,7 +26114,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -25900,7 +26125,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -25911,10 +26136,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1896</v>
+        <v>1919</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -25922,7 +26147,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -25936,7 +26161,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1890</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25944,7 +26169,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1897</v>
+        <v>1920</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -25955,7 +26180,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1897</v>
+        <v>1920</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -26129,7 +26354,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1898</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26153,7 +26378,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1899</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26276,7 +26501,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1900</v>
+        <v>1923</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>394</v>
@@ -26408,7 +26633,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1901</v>
+        <v>1924</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -26419,7 +26644,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1902</v>
+        <v>1925</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -26430,7 +26655,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1903</v>
+        <v>1926</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -26818,7 +27043,7 @@
         <v>447</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1904</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26859,7 +27084,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1905</v>
+        <v>1928</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>451</v>
@@ -26870,7 +27095,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1906</v>
+        <v>1929</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>453</v>
@@ -27332,7 +27557,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1907</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27340,7 +27565,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1908</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27356,7 +27581,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>1909</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27466,7 +27691,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1910</v>
+        <v>1933</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>498</v>
@@ -27509,7 +27734,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1911</v>
+        <v>1934</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>511</v>
@@ -27517,7 +27742,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1912</v>
+        <v>1935</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>511</v>
@@ -27590,7 +27815,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>511</v>
@@ -27714,7 +27939,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1914</v>
+        <v>1937</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>541</v>
@@ -27892,7 +28117,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1915</v>
+        <v>1938</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>562</v>
@@ -28037,7 +28262,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1911</v>
+        <v>1934</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>580</v>
@@ -28064,7 +28289,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>580</v>
@@ -28132,7 +28357,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1916</v>
+        <v>1939</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>590</v>
@@ -28191,7 +28416,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1917</v>
+        <v>1940</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>580</v>
@@ -28210,7 +28435,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1911</v>
+        <v>1934</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>599</v>
@@ -28248,7 +28473,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1911</v>
+        <v>1934</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>604</v>
@@ -28322,7 +28547,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1918</v>
+        <v>1941</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -28422,7 +28647,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1919</v>
+        <v>1942</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>624</v>
@@ -28894,7 +29119,7 @@
         <v>670</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1920</v>
+        <v>1943</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>686</v>
@@ -28905,7 +29130,7 @@
         <v>670</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1920</v>
+        <v>1943</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>691</v>
@@ -30191,7 +30416,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>604</v>
@@ -30331,7 +30556,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1911</v>
+        <v>1934</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>938</v>
@@ -30385,7 +30610,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1919</v>
+        <v>1942</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>949</v>
@@ -30407,7 +30632,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1921</v>
+        <v>1944</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>952</v>
@@ -30530,7 +30755,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>975</v>
@@ -30615,7 +30840,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>987</v>
@@ -30867,7 +31092,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1923</v>
+        <v>1946</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1022</v>
@@ -31200,7 +31425,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1924</v>
+        <v>1947</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1086</v>
@@ -31343,7 +31568,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1107</v>
@@ -31351,7 +31576,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>893</v>
@@ -31362,7 +31587,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1109</v>
@@ -31373,7 +31598,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1925</v>
+        <v>1948</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1111</v>
@@ -31384,7 +31609,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1113</v>
@@ -31406,7 +31631,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1117</v>
@@ -31417,7 +31642,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1118</v>
@@ -31428,7 +31653,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1118</v>
@@ -31439,7 +31664,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1121</v>
@@ -31505,7 +31730,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1133</v>
@@ -31568,7 +31793,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1926</v>
+        <v>1949</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1144</v>
@@ -31617,7 +31842,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1918</v>
+        <v>1941</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1154</v>
@@ -31865,7 +32090,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1198</v>
@@ -32296,7 +32521,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1265</v>
@@ -32326,7 +32551,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1198</v>
@@ -32507,7 +32732,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1927</v>
+        <v>1950</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1280</v>
@@ -32518,7 +32743,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1918</v>
+        <v>1941</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1281</v>
@@ -32975,7 +33200,7 @@
         <v>1057</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1928</v>
+        <v>1951</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1326</v>
@@ -33323,7 +33548,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1929</v>
+        <v>1952</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1380</v>
@@ -33342,7 +33567,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1930</v>
+        <v>1953</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1383</v>
@@ -33540,7 +33765,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1925</v>
+        <v>1948</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1125</v>
@@ -33551,7 +33776,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1925</v>
+        <v>1948</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1414</v>
@@ -33655,7 +33880,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1911</v>
+        <v>1934</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1431</v>
@@ -33783,7 +34008,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>1931</v>
+        <v>1954</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -33832,7 +34057,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1924</v>
+        <v>1947</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1453</v>
@@ -40769,7 +40994,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1931</v>
+        <v>1954</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -41260,7 +41485,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1932</v>
+        <v>1955</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1505</v>
@@ -44039,7 +44264,7 @@
         <v>1683</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1933</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45525,7 +45750,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1931</v>
+        <v>1954</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1713</v>
@@ -45777,7 +46002,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1931</v>
+        <v>1954</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1744</v>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -6101,8 +6101,8 @@
   </sheetPr>
   <dimension ref="A1:C1496"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1477" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1485" activeCellId="0" sqref="C1485"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1480" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1497" activeCellId="0" sqref="A1497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11033" uniqueCount="1957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11104" uniqueCount="1980">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -4323,1570 +4323,1639 @@
     <t xml:space="preserve">not to be feared</t>
   </si>
   <si>
+    <t xml:space="preserve">brahmās</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebirth as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self-control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results now and in future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in making merit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saṁsara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and mountain of bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as indicator of shamelessness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of clear sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sacrifices (yañña)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excessive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti28–9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti30–1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resulting in hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resulting in heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prudence (ottāpa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keenness (ātāpi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti35–6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urgency (saṁvega)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanctuary/security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thoughts he has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evil (pāpa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conscience and prudence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with something left over (saupādisesā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with nothing left over (anupādisesa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wakeful (jāgara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false claim of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref mendicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">love of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disgust with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form, formlessness, cessation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three kinds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti52–3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleasant feelings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen as suffering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">painful feelings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen as dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral feelings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen as impermanent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral feelings seen as </t>
+  </si>
+  <si>
+    <t xml:space="preserve">searches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti54–5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defilements (āsava)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti56–7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grounds for making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divine eye (dibbacakkhu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eye of wisdom (paññācakkhu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculties (indriya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref good actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purity (soceyya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagacity/perfection (moneyya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sage (muni)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong view (micchā diṭṭhi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formless (arūpā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compared to parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wishing for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prosperity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of rotten fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of sandalwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with similar people/like elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leading to mendicant’s decline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk (bhassa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">honor (sakkāra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gods rejoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wishes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benefiting the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meditation on ugliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impermanence meditation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thoughts (vitakkā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillful and unskillful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unwholesome roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as inner stains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evil wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopping when more left to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence (aggappasāda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best of groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of firebrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closeness to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing sees the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing sees the Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed, hatred, delusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as fires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once returner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attached to sense pleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-returner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attached to rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danger in slightest fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowledges, three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">born from mouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disciples of Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requisites, four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as trifles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref requisites, four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with requisites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart’s release (cetovimutti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release by wisdom (paññavimutti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source of craving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parents as first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provided by laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutual dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of monastics and laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent on laypeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of waves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sense pleasures, five </t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of whirlpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of against the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of crocodiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolerating bad thoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for practicing always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti110–11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hindrances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constantly removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iti112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knower of the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as best </t>
+  </si>
+  <si>
+    <t xml:space="preserve">without counterpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed (rāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of plucked lotus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essence (sāra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of fig tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arahant is free from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of snake skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his attainments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref loved ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of fallen leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stick with good friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equal or better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">companionship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of bracelets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with wicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmaviharas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as metaphor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downfall (parābhava)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being fond of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not caring for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">womanizer (itthidhuta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gambling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to a younger partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcoholics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unrealistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire worship (aggika)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoidance of paying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not wanting to get caught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not birth defines a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth is not determinant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discard desire for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as best wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as sweetest taste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as means of crossing flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truthfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by truthfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by hard work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gained by giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friendship gained by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asubhasañña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charnel ground contemplation (sivathika)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of peacock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat eating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking but not doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true and false friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with the wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient traditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your Dhamma teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.8–9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when not ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamma teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unattractiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threefold knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref knowledges, three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triple knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiarity breeds contempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advice for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sīlabbata-parāmāsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alms gathering practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using after reflecting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty to support saṅgha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lay practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uposatha practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref Bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attacks the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well spoken words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not relying on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worthy of gifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmā world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to be reborn in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encouraging others to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha, the word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard to find in world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marks of a great man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirty-two marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref marks of a great man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revealing themselves when praised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as king of Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wise do not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true meaning of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only conventional designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref brahmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref arahant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokālika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticizes chief disciples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahampati Brahmā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports Kokālika’s birth in hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifespan in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustard seeds, cartload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like length of hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actions that lead to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tāvatiṁsa heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebrating the Buddha’s birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asita, hermit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meets Bodhisatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between devas and asuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before enlightenment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhodana, king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nālaka, nephew of Asita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like licking razor’s edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowing does not speak much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">through suffering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more peaceful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">against the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamma as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more peaceful than form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sense pleasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be avoided like snake head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a leaky boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boat, bailed out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile for escaping saṁsara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the past and future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like fish in dried-up stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purity (suddhi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref old age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like dream gone when waking are the dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sexual activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by monastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp.4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref disputes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclusivity of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Māgaṇḍiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father of Māgaṇḍiyā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Māgaṇḍiyā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter of Māgaṇḍiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rightly practiced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quarrels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variations on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here alone is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peaceful person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like  deep ocean is still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong livelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtuous do not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sāriputta, Ven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as inquirer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bāvari, ascetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head-splitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot release someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception of nothingness (natthi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a flame blown out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in terms of vows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as sanctuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vakkali, Ven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">committed to faith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snp5.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansions, heavenly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref devas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heavenly mansions (vimāna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gifts, specific types of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesame seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fidelity in marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abstaining from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once returners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gods that delight in creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref brahmās</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with psychic powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stream enterers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gods that have become</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not greatest happiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worshiping (vandati)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">over not making spiritual progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a difference between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—whom to give to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving—worthy of a gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consolodate grief/grieving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why is an9.26 under metta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should have headwords?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are debates and disputes (over views) interchangeable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should “dependent origination, varriations on” be a thing? Or should that be causality?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomodoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">headwords at start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locators at start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ud6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also giving (dāna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also stinginess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also generosity (cāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also gradual instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Aging and death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also dependent origination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as frequent recollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving kindness (metta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Old age, illness, death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also friendship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive speech: results of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisive: definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Noble Eightfold Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right speech (sammāvācā): definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also false speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also harsh speech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN STARTS HERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? ten factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheel-turning monarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loving-kindness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see fear in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascetic, mendicant, sage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">craving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception of ugliness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escape</t>
+  </si>
+  <si>
     <t xml:space="preserve">brahmā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebirth as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">self-control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results now and in future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in making merit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saṁsara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and mountain of bones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">length of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as indicator of shamelessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of clear sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sacrifices (yañña)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excessive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti28–9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guarding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti30–1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resulting in hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resulting in heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prudence (ottāpa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keenness (ātāpi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti35–6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urgency (saṁvega)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanctuary/security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thoughts he has</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evil (pāpa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conscience and prudence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with something left over (saupādisesā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with nothing left over (anupādisesa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wakeful (jāgara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false claim of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref mendicant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">love of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disgust with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form, formlessness, cessation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three kinds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti52–3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pleasant feelings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen as suffering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">painful feelings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen as dart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutral feelings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seen as impermanent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutral feelings seen as </t>
-  </si>
-  <si>
-    <t xml:space="preserve">searches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti54–5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defilements (āsava)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti56–7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grounds for making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divine eye (dibbacakkhu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eye of wisdom (paññācakkhu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faculties (indriya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref good actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purity (soceyya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sagacity/perfection (moneyya)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sage (muni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong view (micchā diṭṭhi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formless (arūpā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compared to parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">praise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wishing for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prosperity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of rotten fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of sandalwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as fragile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with similar people/like elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leading to mendicant’s decline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk (bhassa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">honor (sakkāra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gods rejoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of gods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wishes of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">benefiting the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meditation on ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impermanence meditation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thoughts (vitakkā)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillful and unskillful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unwholesome roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as inner stains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evil wishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stopping when more left to do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confidence (aggappasāda)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best of groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goal of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of firebrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closeness to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing sees the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seeing sees the Dhamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greed, hatred, delusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as fires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">once returner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attached to sense pleasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-returner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attached to rebirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danger in slightest fault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowledges, three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">born from mouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disciples of Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requisites, four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as trifles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref requisites, four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with requisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart’s release (cetovimutti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">release by wisdom (paññavimutti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teachers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source of craving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parents as first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provided by laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutual dependence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of monastics and laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependent on laypeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of waves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sense pleasures, five </t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of whirlpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of against the stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of crocodiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolerating bad thoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for practicing always</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti110–11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hindrances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constantly removing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iti112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his understanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knower of the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as best </t>
-  </si>
-  <si>
-    <t xml:space="preserve">without counterpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of venom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greed (rāga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of plucked lotus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essence (sāra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of fig tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arahant is free from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of snake skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his attainments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref loved ones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of fallen leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stick with good friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equal or better</t>
-  </si>
-  <si>
-    <t xml:space="preserve">companionship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of bracelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with wicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmaviharas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as metaphor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downfall (parābhava)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">being fond of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not caring for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">womanizer (itthidhuta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gambling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to a younger partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcoholics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unrealistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire worship (aggika)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avoidance of paying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not wanting to get caught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not birth defines a person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth is not determinant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discard desire for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as best wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as sweetest taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as means of crossing flood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truthfulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by truthfulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by hard work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained by giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friendship gained by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asubhasañña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charnel ground contemplation (sivathika)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of peacock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meat eating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talking but not doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true and false friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with the wise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient traditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">your Dhamma teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.8–9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when not ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhamma teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile of boat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unattractiveness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threefold knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref knowledges, three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">triple knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familiarity breeds contempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advice for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sīlabbata-parāmāsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alms gathering practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using after reflecting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty to support saṅgha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lay practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uposatha practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gotama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref Bodhisatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attacks the Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as well spoken words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not relying on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worthy of gifts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahmā world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how to be reborn in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encouraging others to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddha, the word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hard to find in world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marks of a great man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp.3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirty-two marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref marks of a great man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revealing themselves when praised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as king of Dhamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wise do not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true meaning of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only conventional designation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref brahmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref arahant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kokālika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criticizes chief disciples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahampati Brahmā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports Kokālika’s birth in hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifespan in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mustard seeds, cartload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like length of hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions that lead to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tāvatiṁsa heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">celebrating the Buddha’s birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asita, hermit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meets Bodhisatta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">war</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between devas and asuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before enlightenment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudhodana, king</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nālaka, nephew of Asita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like licking razor’s edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowing does not speak much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">real reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp3.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">through suffering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more peaceful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">against the stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhamma as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more peaceful than form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sense pleasures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be avoided like snake head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like a leaky boat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boat, bailed out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simile for escaping saṁsara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the past and future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like fish in dried-up stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purity (suddhi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref old age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp.4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like dream gone when waking are the dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sexual activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by monastics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp.4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref disputes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclusivity of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Māgaṇḍiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father of Māgaṇḍiyā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Māgaṇḍiyā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daughter of Māgaṇḍiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rightly practiced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quarrels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variations on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">here alone is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peaceful person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like  deep ocean is still</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong livelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtuous do not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like a flood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sāriputta, Ven.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as inquirer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp4.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bāvari, ascetic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head-splitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannot release someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perception of nothingness (natthi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like a flame blown out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in terms of vows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as sanctuary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vakkali, Ven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">committed to faith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snp5.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mansions, heavenly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xref devas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heavenly mansions (vimāna)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gifts, specific types of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesame seeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vv1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a difference between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—whom to give to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving—worthy of a gift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consolodate grief/grieving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why is an9.26 under metta?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should have headwords?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anxiety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are debates and disputes (over views) interchangeable?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should “dependent origination, varriations on” be a thing? Or should that be causality?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pomodoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">headwords at start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locators at start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ud6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iti37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also giving (dāna)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also stinginess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also generosity (cāga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also gradual instruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Aging and death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also dependent origination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as frequent recollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving kindness (metta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Old age, illness, death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also friendship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AN20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the state of a brahm/f"Arial CE"ā/f""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive speech: results of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisive: definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also Noble Eightfold Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā) abolishes wrong speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right speech (sammāvācā): definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also false speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see also harsh speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN STARTS HERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? ten factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">association  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheel-turning monarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loving-kindness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see fear in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hunger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ascetic, mendicant, sage  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">right view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">craving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">teaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perception of ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulty of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escape</t>
   </si>
   <si>
     <t xml:space="preserve">sacrifices</t>
@@ -6099,10 +6168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1496"/>
+  <dimension ref="A1:C1521"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1480" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1497" activeCellId="0" sqref="A1497"/>
+      <selection pane="topLeft" activeCell="A1512" activeCellId="0" sqref="A1512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21578,6 +21647,269 @@
       </c>
       <c r="C1496" s="0" t="s">
         <v>1885</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="0" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1497" s="0" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1498" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1498" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C1498" s="0" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1499" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1499" s="0" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1499" s="0" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1500" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1500" s="0" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1500" s="0" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1501" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1501" s="0" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1501" s="0" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1502" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1502" s="0" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1502" s="0" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1503" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1503" s="0" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="0" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1504" s="0" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1505" s="0" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1506" s="0" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1507" s="0" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C1507" s="0" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1508" s="0" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C1508" s="0" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1509" s="0" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1509" s="0" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1510" s="0" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1510" s="0" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1511" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1511" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1511" s="0" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1512" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1512" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1512" s="0" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1513" s="0" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1513" s="0" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1514" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1514" s="0" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1514" s="0" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1515" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1515" s="0" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1516" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1516" s="0" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1517" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1517" s="0" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1517" s="0" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1518" s="0" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1518" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C1518" s="0" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1519" s="0" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1519" s="0" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1520" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1520" s="0" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C1520" s="0" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1521" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1521" s="0" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1521" s="0" t="s">
+        <v>1907</v>
       </c>
     </row>
   </sheetData>
@@ -21607,17 +21939,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1886</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1887</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1888</v>
+        <v>1910</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1744</v>
@@ -21625,37 +21957,37 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1889</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1890</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1891</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1892</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1893</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1894</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1895</v>
+        <v>1917</v>
       </c>
     </row>
   </sheetData>
@@ -21693,16 +22025,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1896</v>
+        <v>1918</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1897</v>
+        <v>1919</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1898</v>
+        <v>1920</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1899</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21729,7 +22061,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1900</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21740,7 +22072,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1901</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21877,13 +22209,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1902</v>
+        <v>1924</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1903</v>
+        <v>1925</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1904</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21892,7 +22224,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1905</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21901,7 +22233,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1906</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22241,7 +22573,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1907</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22250,7 +22582,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1908</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22259,7 +22591,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>1906</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23803,7 +24135,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1909</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23811,7 +24143,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1910</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23819,7 +24151,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1911</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24080,7 +24412,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1912</v>
+        <v>1934</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -24531,12 +24863,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1913</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -24544,7 +24876,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -24552,7 +24884,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -24560,7 +24892,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -24568,7 +24900,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -24576,7 +24908,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -24584,7 +24916,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -24592,7 +24924,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -24600,7 +24932,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -24608,7 +24940,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -24616,7 +24948,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -24651,7 +24983,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1909</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24659,7 +24991,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1910</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24667,7 +24999,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1915</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24928,7 +25260,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1912</v>
+        <v>1934</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -25379,12 +25711,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1913</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -25392,7 +25724,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -25400,7 +25732,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -25408,7 +25740,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -25416,7 +25748,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -25424,7 +25756,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -25432,7 +25764,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -25440,7 +25772,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -25448,7 +25780,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -25456,7 +25788,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -25464,7 +25796,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -25472,7 +25804,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -25480,7 +25812,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -25488,7 +25820,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -25496,7 +25828,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -25504,7 +25836,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -25512,15 +25844,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1916</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -25531,7 +25863,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -25542,7 +25874,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -25553,7 +25885,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -25564,7 +25896,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -25575,7 +25907,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -25586,7 +25918,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -25597,7 +25929,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -25608,7 +25940,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -25619,7 +25951,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -25630,7 +25962,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -25641,7 +25973,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -25652,7 +25984,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -25663,7 +25995,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -25674,7 +26006,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -25685,7 +26017,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -25696,7 +26028,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -25707,7 +26039,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -25718,7 +26050,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -25729,7 +26061,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -25740,7 +26072,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -25751,7 +26083,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
@@ -25762,7 +26094,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -25773,7 +26105,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -25784,7 +26116,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -25795,7 +26127,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -25806,7 +26138,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -25817,7 +26149,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -25828,7 +26160,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -25839,7 +26171,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -25850,7 +26182,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -25861,7 +26193,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -25872,7 +26204,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -25883,7 +26215,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -25894,7 +26226,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -25905,29 +26237,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1917</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1918</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -25938,7 +26270,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -25949,7 +26281,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -25960,7 +26292,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -25971,7 +26303,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -25982,7 +26314,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -25993,7 +26325,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -26004,7 +26336,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -26015,7 +26347,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -26026,7 +26358,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -26037,7 +26369,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -26048,7 +26380,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -26059,7 +26391,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -26070,7 +26402,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -26081,7 +26413,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -26092,7 +26424,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -26103,7 +26435,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -26114,7 +26446,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -26125,7 +26457,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -26136,10 +26468,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1919</v>
+        <v>1941</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -26147,7 +26479,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>1914</v>
+        <v>1936</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -26161,7 +26493,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1913</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26169,7 +26501,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1920</v>
+        <v>1942</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -26180,7 +26512,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1920</v>
+        <v>1942</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -26354,7 +26686,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1921</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26378,7 +26710,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1922</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26501,7 +26833,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1923</v>
+        <v>1945</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>394</v>
@@ -26633,7 +26965,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1924</v>
+        <v>1946</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -26644,7 +26976,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1925</v>
+        <v>1947</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -26655,7 +26987,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1926</v>
+        <v>1948</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -27043,7 +27375,7 @@
         <v>447</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1927</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27084,7 +27416,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1928</v>
+        <v>1950</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>451</v>
@@ -27095,7 +27427,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1929</v>
+        <v>1951</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>453</v>
@@ -27557,7 +27889,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1930</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27565,7 +27897,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1931</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27581,7 +27913,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>1932</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27691,7 +28023,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>1933</v>
+        <v>1955</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>498</v>
@@ -27734,7 +28066,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>1934</v>
+        <v>1956</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>511</v>
@@ -27742,7 +28074,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>1935</v>
+        <v>1957</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>511</v>
@@ -27815,7 +28147,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>511</v>
@@ -27939,7 +28271,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>1937</v>
+        <v>1959</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>541</v>
@@ -28117,7 +28449,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>1938</v>
+        <v>1960</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>562</v>
@@ -28262,7 +28594,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1934</v>
+        <v>1956</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>580</v>
@@ -28289,7 +28621,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>580</v>
@@ -28357,7 +28689,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>1939</v>
+        <v>1961</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>590</v>
@@ -28416,7 +28748,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>1940</v>
+        <v>1962</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>580</v>
@@ -28435,7 +28767,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>1934</v>
+        <v>1956</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>599</v>
@@ -28473,7 +28805,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>1934</v>
+        <v>1956</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>604</v>
@@ -28547,7 +28879,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>1941</v>
+        <v>1963</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -28647,7 +28979,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>624</v>
@@ -29119,7 +29451,7 @@
         <v>670</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1943</v>
+        <v>1965</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>686</v>
@@ -29130,7 +29462,7 @@
         <v>670</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1943</v>
+        <v>1965</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>691</v>
@@ -30416,7 +30748,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>604</v>
@@ -30556,7 +30888,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>1934</v>
+        <v>1956</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>938</v>
@@ -30610,7 +30942,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>949</v>
@@ -30632,7 +30964,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>1944</v>
+        <v>1966</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>952</v>
@@ -30755,7 +31087,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>975</v>
@@ -30840,7 +31172,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>987</v>
@@ -31092,7 +31424,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>1946</v>
+        <v>1968</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1022</v>
@@ -31425,7 +31757,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>1947</v>
+        <v>1969</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1086</v>
@@ -31568,7 +31900,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1107</v>
@@ -31576,7 +31908,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>893</v>
@@ -31587,7 +31919,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1109</v>
@@ -31598,7 +31930,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>1948</v>
+        <v>1970</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1111</v>
@@ -31609,7 +31941,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1113</v>
@@ -31631,7 +31963,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1117</v>
@@ -31642,7 +31974,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1118</v>
@@ -31653,7 +31985,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1118</v>
@@ -31664,7 +31996,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1121</v>
@@ -31730,7 +32062,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1133</v>
@@ -31793,7 +32125,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>1949</v>
+        <v>1971</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1144</v>
@@ -31842,7 +32174,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>1941</v>
+        <v>1963</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1154</v>
@@ -32090,7 +32422,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1198</v>
@@ -32521,7 +32853,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1265</v>
@@ -32551,7 +32883,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>1936</v>
+        <v>1958</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1198</v>
@@ -32732,7 +33064,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>1950</v>
+        <v>1972</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1280</v>
@@ -32743,7 +33075,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>1941</v>
+        <v>1963</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1281</v>
@@ -33200,7 +33532,7 @@
         <v>1057</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>1951</v>
+        <v>1973</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1326</v>
@@ -33548,7 +33880,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>1952</v>
+        <v>1974</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1380</v>
@@ -33567,7 +33899,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>1953</v>
+        <v>1975</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1383</v>
@@ -33765,7 +34097,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1948</v>
+        <v>1970</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1125</v>
@@ -33776,7 +34108,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>1948</v>
+        <v>1970</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1414</v>
@@ -33880,7 +34212,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1934</v>
+        <v>1956</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1431</v>
@@ -33891,7 +34223,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="s">
-        <v>1432</v>
+        <v>1976</v>
       </c>
       <c r="C1174" s="4" t="s">
         <v>320</v>
@@ -34008,7 +34340,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>1954</v>
+        <v>1977</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -34057,7 +34389,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>1947</v>
+        <v>1969</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1453</v>
@@ -40818,7 +41150,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>1432</v>
+        <v>1976</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>1433</v>
@@ -40994,7 +41326,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1954</v>
+        <v>1977</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -41485,7 +41817,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1955</v>
+        <v>1978</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1505</v>
@@ -44264,7 +44596,7 @@
         <v>1683</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1956</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45750,7 +46082,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>1954</v>
+        <v>1977</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1713</v>
@@ -46002,7 +46334,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>1954</v>
+        <v>1977</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1744</v>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11307" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11508" uniqueCount="2125">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -2142,7 +2142,7 @@
     <t xml:space="preserve">Dhp37</t>
   </si>
   <si>
-    <t xml:space="preserve">simile of pot</t>
+    <t xml:space="preserve">like a pot</t>
   </si>
   <si>
     <t xml:space="preserve">Dhp40</t>
@@ -5998,6 +5998,195 @@
     <t xml:space="preserve">Vv6.3</t>
   </si>
   <si>
+    <t xml:space="preserve">Uttara, servant of Pāyāsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a deva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv6.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getting a bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingenuity while making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanthaka deva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodhisatta’s horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great renunciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worshiping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maṭṭakuṇḍalī</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overcoming grief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pāyāsi king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reborn as Serissaka deva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vv7.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit, sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref departed relatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reborn as ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useless of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immediate effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returning as ghosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharing merit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref merit sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like rain reaching the oceans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a source of merit itself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false oath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abortion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causing someone elses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">child eating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dressed in hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with hammers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not making good use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wise response to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a snake’s skin shed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a difference between</t>
   </si>
   <si>
@@ -6028,6 +6217,9 @@
     <t xml:space="preserve">should “dependent origination, varriations on” be a thing? Or should that be causality?</t>
   </si>
   <si>
+    <t xml:space="preserve">fix grief/grieving issue</t>
+  </si>
+  <si>
     <t xml:space="preserve">pomodoros</t>
   </si>
   <si>
@@ -6179,6 +6371,9 @@
   </si>
   <si>
     <t xml:space="preserve">see fear in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simile of pot</t>
   </si>
   <si>
     <t xml:space="preserve">hunger </t>
@@ -6429,10 +6624,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1592"/>
+  <dimension ref="A1:C1661"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1577" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1593" activeCellId="0" sqref="A1593"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1653" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1661" activeCellId="0" sqref="C1661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22920,6 +23115,744 @@
       </c>
       <c r="C1592" s="0" t="s">
         <v>1984</v>
+      </c>
+    </row>
+    <row r="1593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1593" s="0" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1593" s="0" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1593" s="0" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1594" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1594" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1594" s="0" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1595" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1595" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1595" s="0" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1596" s="0" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1596" s="0" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C1596" s="0" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1597" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1597" s="0" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C1597" s="0" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1598" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1598" s="0" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C1598" s="0" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1599" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1599" s="0" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1599" s="0" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1600" s="0" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1600" s="0" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1600" s="0" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1601" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1601" s="0" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C1601" s="0" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1602" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1602" s="0" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C1602" s="0" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1603" s="0" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1603" s="0" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1603" s="0" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1604" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1604" s="0" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1604" s="0" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1605" s="0" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1605" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1605" s="0" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1606" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1606" s="0" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1606" s="0" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1607" s="0" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C1607" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1608" s="0" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1608" s="0" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1608" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1609" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1609" s="0" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1609" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1610" s="0" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1610" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C1610" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1611" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1611" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1611" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1612" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1612" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1612" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1613" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1613" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1613" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1614" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1614" s="0" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1614" s="0" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1615" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1615" s="0" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1615" s="0" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1616" s="0" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1616" s="0" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1617" s="0" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1617" s="0" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1617" s="0" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1618" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1618" s="0" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C1618" s="0" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1619" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1619" s="0" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1619" s="0" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1620" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1620" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1620" s="0" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1621" s="0" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1621" s="0" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1622" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1622" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1622" s="0" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1623" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1623" s="0" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1624" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1624" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1624" s="0" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1625" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1625" s="0" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C1625" s="0" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1626" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1626" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1626" s="0" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1627" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1627" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1627" s="0" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1628" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1628" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1628" s="0" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1629" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1629" s="0" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1629" s="0" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1630" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1630" s="0" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1630" s="0" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1631" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1631" s="0" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1631" s="0" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1632" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1632" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1632" s="0" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1633" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1633" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1633" s="0" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1634" s="0" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C1634" s="0" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1635" s="0" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1635" s="0" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1635" s="0" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1636" s="0" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1636" s="0" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1636" s="0" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1637" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1637" s="0" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1638" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1638" s="0" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1638" s="0" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1639" s="0" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1639" s="0" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C1639" s="0" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1640" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1640" s="0" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1640" s="0" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1641" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1641" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1641" s="0" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1642" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1642" s="0" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1642" s="0" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1643" s="0" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1643" s="0" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C1643" s="0" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1644" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1644" s="0" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1644" s="0" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1645" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1645" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1645" s="0" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1646" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1646" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C1646" s="0" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1647" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1647" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1647" s="0" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1648" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1648" s="0" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1648" s="0" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1649" s="0" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1649" s="0" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1650" s="0" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1650" s="0" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1651" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1651" s="0" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="0" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1652" s="0" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1652" s="0" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1653" s="0" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1653" s="0" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1654" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1654" s="0" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1655" s="0" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1655" s="0" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1656" s="0" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1656" s="0" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1657" s="0" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1657" s="0" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1658" s="0" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1658" s="0" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1659" s="0" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1659" s="0" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1660" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1660" s="0" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1661" s="0" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -22939,7 +23872,7 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
@@ -22949,17 +23882,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1985</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1986</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1987</v>
+        <v>2050</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1742</v>
@@ -22967,37 +23900,42 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1988</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1989</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1990</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1991</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1992</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1993</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1994</v>
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>2058</v>
       </c>
     </row>
   </sheetData>
@@ -23019,7 +23957,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -23035,16 +23973,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1995</v>
+        <v>2059</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1996</v>
+        <v>2060</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1997</v>
+        <v>2061</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1998</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23071,7 +24009,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1999</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23082,7 +24020,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>2000</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23147,6 +24085,9 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>44814</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>1930</v>
@@ -23231,13 +24172,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2001</v>
+        <v>2065</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2002</v>
+        <v>2066</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2003</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23246,7 +24187,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2004</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23255,7 +24196,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>2005</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23595,7 +24536,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>2006</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23604,7 +24545,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>2007</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23613,7 +24554,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>2005</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23907,7 +24848,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>46</v>
@@ -23918,7 +24859,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>87</v>
@@ -23929,7 +24870,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>88</v>
@@ -23940,7 +24881,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>89</v>
@@ -23951,7 +24892,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>90</v>
@@ -24886,7 +25827,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2009</v>
+        <v>2073</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>81</v>
@@ -24897,7 +25838,7 @@
         <v>45</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2009</v>
+        <v>2073</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>108</v>
@@ -24908,7 +25849,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2009</v>
+        <v>2073</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>104</v>
@@ -25157,7 +26098,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>2010</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25165,7 +26106,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>2011</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25173,7 +26114,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>2012</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25434,7 +26375,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>2013</v>
+        <v>2077</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -25885,12 +26826,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>2014</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -25898,7 +26839,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -25906,7 +26847,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -25914,7 +26855,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -25922,7 +26863,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -25930,7 +26871,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -25938,7 +26879,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -25946,7 +26887,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -25954,7 +26895,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -25962,7 +26903,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -25970,7 +26911,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -26005,7 +26946,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>2010</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26013,7 +26954,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>2011</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26021,7 +26962,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>2016</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26282,7 +27223,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>2013</v>
+        <v>2077</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -26733,12 +27674,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>2014</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -26746,7 +27687,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -26754,7 +27695,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -26762,7 +27703,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -26770,7 +27711,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -26778,7 +27719,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -26786,7 +27727,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -26794,7 +27735,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -26802,7 +27743,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -26810,7 +27751,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -26818,7 +27759,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -26826,7 +27767,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -26834,7 +27775,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -26842,7 +27783,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -26850,7 +27791,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -26858,7 +27799,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -26866,15 +27807,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>2017</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -26885,7 +27826,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -26896,7 +27837,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -26907,7 +27848,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -26918,7 +27859,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -26929,7 +27870,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -26940,7 +27881,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -26951,7 +27892,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -26962,7 +27903,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -26973,7 +27914,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -26984,7 +27925,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -26995,7 +27936,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -27006,7 +27947,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -27017,7 +27958,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -27028,7 +27969,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -27039,7 +27980,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -27050,7 +27991,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -27061,7 +28002,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -27072,7 +28013,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -27083,7 +28024,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -27094,7 +28035,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -27105,7 +28046,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
@@ -27116,7 +28057,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -27127,7 +28068,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -27138,7 +28079,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -27149,7 +28090,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -27160,7 +28101,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -27171,7 +28112,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -27182,7 +28123,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -27193,7 +28134,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -27204,7 +28145,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -27215,7 +28156,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -27226,7 +28167,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -27237,7 +28178,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -27248,7 +28189,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -27259,29 +28200,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>2018</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>2019</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -27292,7 +28233,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -27303,7 +28244,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -27314,7 +28255,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -27325,7 +28266,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -27336,7 +28277,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -27347,7 +28288,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -27358,7 +28299,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -27369,7 +28310,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -27380,7 +28321,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -27391,7 +28332,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -27402,7 +28343,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -27413,7 +28354,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -27424,7 +28365,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -27435,7 +28376,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -27446,7 +28387,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -27457,7 +28398,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -27468,7 +28409,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -27479,7 +28420,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -27490,10 +28431,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>2020</v>
+        <v>2084</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -27501,7 +28442,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>2015</v>
+        <v>2079</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -27515,7 +28456,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>2014</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27523,7 +28464,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>2021</v>
+        <v>2085</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -27534,7 +28475,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>2021</v>
+        <v>2085</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -27708,7 +28649,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>2022</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27732,7 +28673,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>2023</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27855,7 +28796,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2024</v>
+        <v>2088</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>394</v>
@@ -27987,7 +28928,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2025</v>
+        <v>2089</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -27998,7 +28939,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2026</v>
+        <v>2090</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -28009,7 +28950,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>2027</v>
+        <v>2091</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -28397,7 +29338,7 @@
         <v>447</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>2028</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28438,7 +29379,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>2029</v>
+        <v>2093</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>451</v>
@@ -28449,7 +29390,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2030</v>
+        <v>2094</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>453</v>
@@ -28911,7 +29852,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>2031</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28919,7 +29860,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>2032</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28935,7 +29876,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>2033</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28951,7 +29892,7 @@
         <v>1104</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>2034</v>
+        <v>2098</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>492</v>
@@ -29045,7 +29986,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>2035</v>
+        <v>2099</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>496</v>
@@ -29088,7 +30029,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>2036</v>
+        <v>2100</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>509</v>
@@ -29096,7 +30037,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>2037</v>
+        <v>2101</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>509</v>
@@ -29169,7 +30110,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>2038</v>
+        <v>2102</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>509</v>
@@ -29293,7 +30234,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>2039</v>
+        <v>2103</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>539</v>
@@ -29460,7 +30401,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>2040</v>
+        <v>2104</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>558</v>
@@ -29471,7 +30412,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>2041</v>
+        <v>2105</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>560</v>
@@ -29616,7 +30557,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>2036</v>
+        <v>2100</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>578</v>
@@ -29643,7 +30584,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>2038</v>
+        <v>2102</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>578</v>
@@ -29770,7 +30711,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>2042</v>
+        <v>2106</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>578</v>
@@ -29789,7 +30730,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>2036</v>
+        <v>2100</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>597</v>
@@ -29827,7 +30768,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>2036</v>
+        <v>2100</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>602</v>
@@ -29901,7 +30842,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>2043</v>
+        <v>2107</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -30001,7 +30942,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>2044</v>
+        <v>2108</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>621</v>
@@ -30473,7 +31414,7 @@
         <v>667</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2045</v>
+        <v>2109</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>683</v>
@@ -30484,7 +31425,7 @@
         <v>667</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2045</v>
+        <v>2109</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>688</v>
@@ -30580,7 +31521,7 @@
         <v>493</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>705</v>
+        <v>2110</v>
       </c>
       <c r="C711" s="4" t="s">
         <v>706</v>
@@ -31770,7 +32711,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>2038</v>
+        <v>2102</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>602</v>
@@ -31781,7 +32722,7 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
-        <v>2040</v>
+        <v>2104</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>914</v>
@@ -31910,7 +32851,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>2036</v>
+        <v>2100</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>935</v>
@@ -31964,7 +32905,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>2044</v>
+        <v>2108</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>946</v>
@@ -31986,7 +32927,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>2046</v>
+        <v>2111</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>949</v>
@@ -32109,7 +33050,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>972</v>
@@ -32194,7 +33135,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>2038</v>
+        <v>2102</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>984</v>
@@ -32446,7 +33387,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>2048</v>
+        <v>2113</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1019</v>
@@ -32779,7 +33720,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>2049</v>
+        <v>2114</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1083</v>
@@ -32922,7 +33863,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1105</v>
@@ -32930,7 +33871,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>890</v>
@@ -32941,7 +33882,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1107</v>
@@ -32952,7 +33893,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>2050</v>
+        <v>2115</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1109</v>
@@ -32963,7 +33904,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1111</v>
@@ -32985,7 +33926,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1115</v>
@@ -32996,7 +33937,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1116</v>
@@ -33007,7 +33948,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1116</v>
@@ -33018,7 +33959,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1119</v>
@@ -33084,7 +34025,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>2047</v>
+        <v>2112</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1131</v>
@@ -33147,7 +34088,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2051</v>
+        <v>2116</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1142</v>
@@ -33196,7 +34137,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>2043</v>
+        <v>2107</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1152</v>
@@ -33444,7 +34385,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>2038</v>
+        <v>2102</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1196</v>
@@ -33875,7 +34816,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>2038</v>
+        <v>2102</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1263</v>
@@ -33905,7 +34846,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>2038</v>
+        <v>2102</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1196</v>
@@ -34086,7 +35027,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>2052</v>
+        <v>2117</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1278</v>
@@ -34097,7 +35038,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>2043</v>
+        <v>2107</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1279</v>
@@ -34554,7 +35495,7 @@
         <v>1054</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>2053</v>
+        <v>2118</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1324</v>
@@ -34902,7 +35843,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>2054</v>
+        <v>2119</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1378</v>
@@ -34921,7 +35862,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>2055</v>
+        <v>2120</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1381</v>
@@ -35119,7 +36060,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>2050</v>
+        <v>2115</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1123</v>
@@ -35130,7 +36071,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>2050</v>
+        <v>2115</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1412</v>
@@ -35234,7 +36175,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>2036</v>
+        <v>2100</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1429</v>
@@ -35245,7 +36186,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="s">
-        <v>2056</v>
+        <v>2121</v>
       </c>
       <c r="C1174" s="4" t="s">
         <v>320</v>
@@ -35362,7 +36303,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>2057</v>
+        <v>2122</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -35411,7 +36352,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>2049</v>
+        <v>2114</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1451</v>
@@ -36297,7 +37238,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2009</v>
+        <v>2073</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>108</v>
@@ -36588,7 +37529,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>87</v>
@@ -36610,7 +37551,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
@@ -36632,7 +37573,7 @@
         <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>89</v>
@@ -37255,7 +38196,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>90</v>
@@ -39039,7 +39980,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>2040</v>
+        <v>2104</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>914</v>
@@ -40941,7 +41882,7 @@
         <v>493</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>705</v>
+        <v>2110</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>706</v>
@@ -42172,7 +43113,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>2056</v>
+        <v>2121</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>1431</v>
@@ -42318,7 +43259,7 @@
         <v>45</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>2009</v>
+        <v>2073</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>104</v>
@@ -42348,7 +43289,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>2057</v>
+        <v>2122</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -42839,7 +43780,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>2058</v>
+        <v>2123</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1503</v>
@@ -43525,7 +44466,7 @@
         <v>1104</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2034</v>
+        <v>2098</v>
       </c>
       <c r="C729" s="4" t="s">
         <v>492</v>
@@ -44120,7 +45061,7 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
-        <v>2040</v>
+        <v>2104</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>558</v>
@@ -45124,7 +46065,7 @@
         <v>45</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>2009</v>
+        <v>2073</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>81</v>
@@ -45209,7 +46150,7 @@
         <v>45</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>2008</v>
+        <v>2072</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>46</v>
@@ -45618,7 +46559,7 @@
         <v>1681</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>2059</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47104,7 +48045,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>2057</v>
+        <v>2122</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1711</v>
@@ -47356,7 +48297,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>2057</v>
+        <v>2122</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1742</v>
@@ -47543,7 +48484,7 @@
         <v>493</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>705</v>
+        <v>2110</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>220</v>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11588" uniqueCount="2152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11861" uniqueCount="2258">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -6090,7 +6090,7 @@
     <t xml:space="preserve">Pv1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">reborn as ghost</t>
+    <t xml:space="preserve">reborn as ghosts</t>
   </si>
   <si>
     <t xml:space="preserve">Pv1.3</t>
@@ -6234,6 +6234,324 @@
     <t xml:space="preserve">to ordinary people less fruitful than gifts to Saṅgha</t>
   </si>
   <si>
+    <t xml:space="preserve">Pv2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot take things directly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansion (petavimāna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passage of time in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eaten by dogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receiver of gifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advice from ghosts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greediness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abandoned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to noble disciples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limiting actions to limit results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back-biting, results of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulting relic puja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixing, result of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treating them badly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between human and ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leading to ghost world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref wrong views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving up like vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrogance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xref bad friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref monastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excellence is like fire blazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">army of pushed away like flood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as pleasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days pass peacefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fondness for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perception of skeleton (aṭṭhisaññāya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no fear of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waking up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peacocks causing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mindfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mindfulness and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref sickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enduring like elephant at head of battle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">towards all as a mother towards child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wholesomeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xref skillfulness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoiding women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like ones head on fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mistakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recovering like thoroughbred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a difference between</t>
   </si>
   <si>
@@ -6270,7 +6588,7 @@
     <t xml:space="preserve">Duplicate later</t>
   </si>
   <si>
-    <t xml:space="preserve">tunsutra, Mattakundali</t>
+    <t xml:space="preserve">tunsutra, Mattakundali, Serissaka, Vv5.2 Revati sutta</t>
   </si>
   <si>
     <t xml:space="preserve">pomodoros</t>
@@ -6684,13 +7002,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1689"/>
+  <dimension ref="A1:C1784"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B144" activeCellId="0" sqref="B144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1774" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1785" activeCellId="0" sqref="A1785"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
@@ -23534,7 +23852,7 @@
     </row>
     <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1628" s="0" t="s">
-        <v>1153</v>
+        <v>1207</v>
       </c>
       <c r="B1628" s="0" t="s">
         <v>2021</v>
@@ -24203,6 +24521,1012 @@
       </c>
       <c r="C1689" s="0" t="s">
         <v>2063</v>
+      </c>
+    </row>
+    <row r="1690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1690" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1690" s="0" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1690" s="0" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1691" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1691" s="0" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1691" s="0" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1692" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1692" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1692" s="0" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1693" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1693" s="0" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1693" s="0" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1694" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1694" s="0" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1694" s="0" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1695" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1695" s="0" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1695" s="0" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1696" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1696" s="0" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1696" s="0" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1697" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1697" s="0" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1698" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1698" s="0" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C1698" s="0" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1699" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1699" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1699" s="0" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1700" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1700" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1700" s="0" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1701" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1701" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1701" s="0" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1702" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1702" s="0" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1702" s="0" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1703" s="0" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1703" s="0" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1703" s="0" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1704" s="0" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1704" s="0" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1704" s="0" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1705" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1705" s="0" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1705" s="0" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1706" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1706" s="0" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C1706" s="0" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1707" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1707" s="0" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1707" s="0" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1708" s="0" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1708" s="0" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1708" s="0" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1709" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1709" s="0" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1709" s="0" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1710" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1710" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C1710" s="0" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1711" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1711" s="0" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1711" s="0" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1712" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1712" s="0" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1712" s="0" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1713" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1713" s="0" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C1713" s="0" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1714" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1714" s="0" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1714" s="0" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1715" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1715" s="0" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1715" s="0" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1716" s="0" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1716" s="0" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1716" s="0" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1717" s="0" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1717" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1717" s="0" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1718" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1718" s="0" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1718" s="0" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1719" s="0" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1719" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1719" s="0" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1720" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1720" s="0" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1720" s="0" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1721" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1721" s="0" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1721" s="0" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1722" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1722" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1722" s="0" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1723" s="0" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1723" s="0" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C1723" s="0" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1724" s="0" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1724" s="0" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1724" s="0" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1725" s="0" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1725" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1725" s="0" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1726" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1726" s="0" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1726" s="0" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1727" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1727" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C1727" s="0" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1728" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1728" s="0" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C1728" s="0" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1729" s="0" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1729" s="0" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C1729" s="0" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1730" s="0" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1730" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1730" s="0" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1731" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1731" s="0" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1732" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1732" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1732" s="0" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1733" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1733" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1733" s="0" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1734" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1734" s="0" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C1734" s="0" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1735" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1735" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1735" s="0" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1736" s="0" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1736" s="0" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1736" s="0" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1737" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1737" s="0" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1737" s="0" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1738" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1738" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1738" s="0" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1739" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1739" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1739" s="0" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1740" s="0" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1740" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1740" s="0" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1741" s="0" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1741" s="0" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1742" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1742" s="0" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1743" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1743" s="0" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C1743" s="0" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1744" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1744" s="0" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1745" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1745" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1745" s="0" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1746" s="0" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1746" s="0" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1747" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1747" s="0" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C1747" s="0" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1748" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1748" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1748" s="0" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1749" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1749" s="0" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1749" s="0" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1750" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1750" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1750" s="0" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1751" s="0" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1751" s="0" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1752" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1752" s="0" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1752" s="0" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1753" s="0" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1753" s="0" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1753" s="0" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1754" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1754" s="0" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1754" s="0" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1755" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1755" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1755" s="0" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1756" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1756" s="0" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C1756" s="0" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1757" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1757" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1757" s="0" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1758" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1758" s="0" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1758" s="0" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1759" s="0" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1759" s="0" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C1759" s="0" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1760" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1760" s="0" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1760" s="0" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1761" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1761" s="0" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1761" s="0" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1762" s="0" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1762" s="0" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1763" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1763" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C1763" s="0" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1764" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1764" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1764" s="0" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1765" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1765" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1765" s="0" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1766" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1766" s="0" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C1766" s="0" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1767" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1767" s="0" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C1767" s="0" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1768" s="0" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1768" s="0" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1768" s="0" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1769" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1769" s="0" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1769" s="0" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1770" s="0" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1770" s="0" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1770" s="0" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1771" s="0" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1771" s="0" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1772" s="0" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1772" s="0" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1772" s="0" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1773" s="0" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1773" s="0" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1773" s="0" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1774" s="0" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1774" s="0" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1775" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1775" s="0" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1775" s="0" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1776" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1776" s="0" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1776" s="0" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1777" s="0" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1777" s="0" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1778" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1778" s="0" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1779" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1779" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1779" s="0" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1780" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C1780" s="0" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1781" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1781" s="0" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1781" s="0" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1782" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1782" s="0" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1782" s="0" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1783" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1783" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1783" s="0" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1784" s="0" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1784" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C1784" s="0" t="s">
+        <v>2174</v>
       </c>
     </row>
   </sheetData>
@@ -24225,24 +25549,24 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2069</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>2070</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>2071</v>
+        <v>2177</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1745</v>
@@ -24250,50 +25574,50 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2072</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2073</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2074</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>2075</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>2076</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>2077</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>2078</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>2079</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>2080</v>
+        <v>2186</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2081</v>
+        <v>2187</v>
       </c>
     </row>
   </sheetData>
@@ -24316,7 +25640,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24331,16 +25655,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>2082</v>
+        <v>2188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2083</v>
+        <v>2189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2084</v>
+        <v>2190</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2085</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24367,7 +25691,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2086</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24378,7 +25702,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>2087</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24460,6 +25784,18 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>44815</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1689</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24530,13 +25866,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2088</v>
+        <v>2194</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2089</v>
+        <v>2195</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2090</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24545,7 +25881,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2091</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24554,7 +25890,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>2092</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24894,7 +26230,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>2093</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24903,7 +26239,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>2094</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24912,7 +26248,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>2092</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25206,7 +26542,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>46</v>
@@ -25217,7 +26553,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>87</v>
@@ -25228,7 +26564,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>88</v>
@@ -25239,7 +26575,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>89</v>
@@ -25250,7 +26586,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>90</v>
@@ -26009,7 +27345,7 @@
         <v>45</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>128</v>
@@ -26020,7 +27356,7 @@
         <v>45</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>147</v>
@@ -26031,7 +27367,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>130</v>
@@ -26042,7 +27378,7 @@
         <v>45</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>131</v>
@@ -26053,7 +27389,7 @@
         <v>45</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>68</v>
@@ -26064,7 +27400,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>110</v>
@@ -26075,7 +27411,7 @@
         <v>45</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>148</v>
@@ -26086,7 +27422,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>111</v>
@@ -26097,7 +27433,7 @@
         <v>45</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>149</v>
@@ -26108,7 +27444,7 @@
         <v>45</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>121</v>
@@ -26185,7 +27521,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2097</v>
+        <v>2203</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>81</v>
@@ -26196,7 +27532,7 @@
         <v>45</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2097</v>
+        <v>2203</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>108</v>
@@ -26207,7 +27543,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2097</v>
+        <v>2203</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>104</v>
@@ -26456,7 +27792,7 @@
         <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>2098</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26464,7 +27800,7 @@
         <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>2099</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26472,7 +27808,7 @@
         <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>2100</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26733,7 +28069,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>2101</v>
+        <v>2207</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -27184,12 +28520,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>2102</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -27197,7 +28533,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -27205,7 +28541,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -27213,7 +28549,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -27221,7 +28557,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -27229,7 +28565,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -27237,7 +28573,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -27245,7 +28581,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -27253,7 +28589,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -27261,7 +28597,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -27269,7 +28605,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -27304,7 +28640,7 @@
         <v>169</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>2098</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27312,7 +28648,7 @@
         <v>169</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>2099</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27320,7 +28656,7 @@
         <v>169</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>2104</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27581,7 +28917,7 @@
         <v>169</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>2101</v>
+        <v>2207</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -28032,12 +29368,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>2102</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -28045,7 +29381,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -28053,7 +29389,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -28061,7 +29397,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -28069,7 +29405,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -28077,7 +29413,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -28085,7 +29421,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -28093,7 +29429,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -28101,7 +29437,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -28109,7 +29445,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -28117,7 +29453,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -28125,7 +29461,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -28133,7 +29469,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -28141,7 +29477,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -28149,7 +29485,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -28157,7 +29493,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -28165,15 +29501,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>2105</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -28184,7 +29520,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -28195,7 +29531,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -28206,7 +29542,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -28217,7 +29553,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -28228,7 +29564,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -28239,7 +29575,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -28250,7 +29586,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -28261,7 +29597,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -28272,7 +29608,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -28283,7 +29619,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -28294,7 +29630,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -28305,7 +29641,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -28316,7 +29652,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -28327,7 +29663,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -28338,7 +29674,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -28349,7 +29685,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -28360,7 +29696,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -28371,7 +29707,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -28382,7 +29718,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -28393,7 +29729,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -28404,18 +29740,18 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>2106</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -28426,7 +29762,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -28437,7 +29773,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -28448,7 +29784,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -28459,7 +29795,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -28470,7 +29806,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -28481,7 +29817,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -28492,7 +29828,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -28503,7 +29839,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -28514,7 +29850,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -28525,7 +29861,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -28536,7 +29872,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -28547,7 +29883,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -28558,29 +29894,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>2107</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>2108</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -28591,7 +29927,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -28602,7 +29938,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -28613,7 +29949,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -28624,7 +29960,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -28635,7 +29971,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -28646,7 +29982,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -28657,7 +29993,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -28668,7 +30004,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -28679,7 +30015,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -28690,7 +30026,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -28701,7 +30037,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -28712,7 +30048,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -28723,7 +30059,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -28734,7 +30070,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -28745,7 +30081,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -28756,7 +30092,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -28767,7 +30103,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -28778,7 +30114,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -28789,10 +30125,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>2109</v>
+        <v>2215</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -28800,7 +30136,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>2103</v>
+        <v>2209</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -28814,7 +30150,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>2102</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28822,7 +30158,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>2110</v>
+        <v>2216</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -28833,7 +30169,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>2110</v>
+        <v>2216</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -29007,7 +30343,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>2111</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29031,7 +30367,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>2112</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29154,7 +30490,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2113</v>
+        <v>2219</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>395</v>
@@ -29264,7 +30600,7 @@
         <v>377</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2114</v>
+        <v>2220</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>412</v>
@@ -29275,7 +30611,7 @@
         <v>377</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>2114</v>
+        <v>2220</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>413</v>
@@ -29286,7 +30622,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2115</v>
+        <v>2221</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -29297,7 +30633,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2116</v>
+        <v>2222</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>144</v>
@@ -29308,7 +30644,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>2117</v>
+        <v>2223</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -29696,7 +31032,7 @@
         <v>451</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>2118</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29737,7 +31073,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>2119</v>
+        <v>2225</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>455</v>
@@ -29748,7 +31084,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2120</v>
+        <v>2226</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>457</v>
@@ -30210,7 +31546,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>2121</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30218,7 +31554,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>2122</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30234,7 +31570,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="7" t="s">
-        <v>2123</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30250,7 +31586,7 @@
         <v>1108</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>2124</v>
+        <v>2230</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>496</v>
@@ -30344,7 +31680,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>2125</v>
+        <v>2231</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>500</v>
@@ -30387,7 +31723,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>2126</v>
+        <v>2232</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>513</v>
@@ -30395,7 +31731,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>2127</v>
+        <v>2233</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>513</v>
@@ -30468,7 +31804,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>2128</v>
+        <v>2234</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>513</v>
@@ -30592,7 +31928,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>2129</v>
+        <v>2235</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>543</v>
@@ -30759,7 +32095,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>2130</v>
+        <v>2236</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>562</v>
@@ -30770,7 +32106,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>2131</v>
+        <v>2237</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>564</v>
@@ -30915,7 +32251,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>2126</v>
+        <v>2232</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>582</v>
@@ -30942,7 +32278,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>2128</v>
+        <v>2234</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>582</v>
@@ -31010,7 +32346,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>2132</v>
+        <v>2238</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>592</v>
@@ -31069,7 +32405,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>2133</v>
+        <v>2239</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>582</v>
@@ -31088,7 +32424,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>2126</v>
+        <v>2232</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>601</v>
@@ -31126,7 +32462,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>2126</v>
+        <v>2232</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>606</v>
@@ -31200,7 +32536,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>2134</v>
+        <v>2240</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -31300,7 +32636,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>2135</v>
+        <v>2241</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>625</v>
@@ -31772,7 +33108,7 @@
         <v>671</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2136</v>
+        <v>2242</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>687</v>
@@ -31783,7 +33119,7 @@
         <v>671</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2136</v>
+        <v>2242</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>692</v>
@@ -31879,7 +33215,7 @@
         <v>497</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2137</v>
+        <v>2243</v>
       </c>
       <c r="C711" s="4" t="s">
         <v>710</v>
@@ -33069,7 +34405,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>2128</v>
+        <v>2234</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>606</v>
@@ -33080,7 +34416,7 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
-        <v>2130</v>
+        <v>2236</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>918</v>
@@ -33209,7 +34545,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>2126</v>
+        <v>2232</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>939</v>
@@ -33263,7 +34599,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>2135</v>
+        <v>2241</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>950</v>
@@ -33285,7 +34621,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>2138</v>
+        <v>2244</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>953</v>
@@ -33408,7 +34744,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>976</v>
@@ -33493,7 +34829,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>2128</v>
+        <v>2234</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>988</v>
@@ -33745,7 +35081,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>2140</v>
+        <v>2246</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1023</v>
@@ -34078,7 +35414,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>2141</v>
+        <v>2247</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1087</v>
@@ -34221,7 +35557,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1109</v>
@@ -34229,7 +35565,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>894</v>
@@ -34240,7 +35576,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1111</v>
@@ -34251,7 +35587,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>2142</v>
+        <v>2248</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1113</v>
@@ -34262,7 +35598,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1115</v>
@@ -34284,7 +35620,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1119</v>
@@ -34295,7 +35631,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1120</v>
@@ -34306,7 +35642,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1120</v>
@@ -34317,7 +35653,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1123</v>
@@ -34383,7 +35719,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>2139</v>
+        <v>2245</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1135</v>
@@ -34446,7 +35782,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2143</v>
+        <v>2249</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1146</v>
@@ -34495,7 +35831,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>2134</v>
+        <v>2240</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1156</v>
@@ -34743,7 +36079,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>2128</v>
+        <v>2234</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1200</v>
@@ -35174,7 +36510,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>2128</v>
+        <v>2234</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1267</v>
@@ -35204,7 +36540,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>2128</v>
+        <v>2234</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1200</v>
@@ -35385,7 +36721,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>2144</v>
+        <v>2250</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1282</v>
@@ -35396,7 +36732,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>2134</v>
+        <v>2240</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1283</v>
@@ -35853,7 +37189,7 @@
         <v>1058</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>2145</v>
+        <v>2251</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1328</v>
@@ -36201,7 +37537,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>2146</v>
+        <v>2252</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1381</v>
@@ -36220,7 +37556,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>2147</v>
+        <v>2253</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1384</v>
@@ -36418,7 +37754,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>2142</v>
+        <v>2248</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1127</v>
@@ -36429,7 +37765,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>2142</v>
+        <v>2248</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1415</v>
@@ -36533,7 +37869,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>2126</v>
+        <v>2232</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1432</v>
@@ -36544,7 +37880,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="s">
-        <v>2148</v>
+        <v>2254</v>
       </c>
       <c r="C1174" s="4" t="s">
         <v>320</v>
@@ -36661,7 +37997,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>2149</v>
+        <v>2255</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -36710,7 +38046,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>2141</v>
+        <v>2247</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1454</v>
@@ -37201,7 +38537,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -37596,7 +38932,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2097</v>
+        <v>2203</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>108</v>
@@ -37843,7 +39179,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>128</v>
@@ -37887,7 +39223,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>87</v>
@@ -37909,7 +39245,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
@@ -37931,7 +39267,7 @@
         <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>89</v>
@@ -37942,7 +39278,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>147</v>
@@ -38488,7 +39824,7 @@
         <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>130</v>
@@ -38554,7 +39890,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>90</v>
@@ -38862,7 +40198,7 @@
         <v>45</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>131</v>
@@ -38950,7 +40286,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>68</v>
@@ -39049,7 +40385,7 @@
         <v>45</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>110</v>
@@ -39302,7 +40638,7 @@
         <v>45</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>148</v>
@@ -39368,7 +40704,7 @@
         <v>45</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>111</v>
@@ -40338,7 +41674,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>2130</v>
+        <v>2236</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>918</v>
@@ -42240,7 +43576,7 @@
         <v>497</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>2137</v>
+        <v>2243</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>710</v>
@@ -43471,7 +44807,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>2148</v>
+        <v>2254</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>1434</v>
@@ -43617,7 +44953,7 @@
         <v>45</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>2097</v>
+        <v>2203</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>104</v>
@@ -43647,7 +44983,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>2149</v>
+        <v>2255</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -44138,7 +45474,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>2150</v>
+        <v>2256</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1506</v>
@@ -44824,7 +46160,7 @@
         <v>1108</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2124</v>
+        <v>2230</v>
       </c>
       <c r="C729" s="4" t="s">
         <v>496</v>
@@ -45419,7 +46755,7 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
-        <v>2130</v>
+        <v>2236</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>562</v>
@@ -46082,7 +47418,7 @@
         <v>45</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>121</v>
@@ -46423,7 +47759,7 @@
         <v>45</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>2097</v>
+        <v>2203</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>81</v>
@@ -46508,7 +47844,7 @@
         <v>45</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>2095</v>
+        <v>2201</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>46</v>
@@ -46650,7 +47986,7 @@
         <v>45</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>2096</v>
+        <v>2202</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>149</v>
@@ -46793,7 +48129,7 @@
         <v>377</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>2114</v>
+        <v>2220</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>412</v>
@@ -46917,7 +48253,7 @@
         <v>1684</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>2151</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47216,7 +48552,7 @@
         <v>377</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>2114</v>
+        <v>2220</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>413</v>
@@ -48403,7 +49739,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>2149</v>
+        <v>2255</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1714</v>
@@ -48655,7 +49991,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>2149</v>
+        <v>2255</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1745</v>
@@ -48842,7 +50178,7 @@
         <v>497</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>2137</v>
+        <v>2243</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>220</v>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -6381,7 +6381,7 @@
     <t xml:space="preserve">Pv4.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Xref bad friends</t>
+    <t xml:space="preserve">xref bad friends</t>
   </si>
   <si>
     <t xml:space="preserve">xref monastics</t>
@@ -7004,8 +7004,8 @@
   </sheetPr>
   <dimension ref="A1:C1784"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1774" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1785" activeCellId="0" sqref="A1785"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1742" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1748" activeCellId="0" sqref="B1748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -7199,8 +7199,8 @@
   </sheetPr>
   <dimension ref="A1:C1820"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1812" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1821" activeCellId="0" sqref="A1821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11962" uniqueCount="2337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12063" uniqueCount="2395">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -6693,23 +6693,184 @@
     <t xml:space="preserve">Thag1.91</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xref </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gifts, specific types of</t>
-    </r>
+    <t xml:space="preserve">attachment to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suffering in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small amount gives big results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaving one not good for practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">becoming while a lay person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag1.118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtle dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn’t lead to peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaking little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like poorly/well roofed house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danger for monks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eagerness to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living with the Saṅgha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortness of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with fools like floating on a small log at sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">few posessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source of jealousy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrongly directed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past lives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recollection of past lives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enlightenment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while head being shaved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thag2.25</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a difference between</t>
@@ -7010,9 +7171,6 @@
   </si>
   <si>
     <t xml:space="preserve">perception of ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulty of</t>
   </si>
   <si>
     <t xml:space="preserve">and wrong views</t>
@@ -7063,7 +7221,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7084,11 +7242,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7149,7 +7302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7174,15 +7327,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7264,13 +7413,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1821"/>
+  <dimension ref="A1:C1856"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1817" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1822" activeCellId="0" sqref="B1822"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1842" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1857" activeCellId="0" sqref="A1857"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
@@ -26167,9 +26316,382 @@
       <c r="A1821" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B1821" s="6"/>
+      <c r="B1821" s="1"/>
       <c r="C1821" s="0" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1822" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1822" s="0" t="s">
         <v>2222</v>
+      </c>
+      <c r="C1822" s="0" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1823" s="0" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1823" s="0" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1823" s="0" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1824" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1824" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1824" s="0" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="1825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1825" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1825" s="0" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C1825" s="0" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1826" s="0" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1826" s="0" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1827" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1827" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1827" s="0" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1828" s="0" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1828" s="0" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1828" s="0" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1829" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1829" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1829" s="0" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1830" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1830" s="0" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1830" s="0" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1831" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1831" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1831" s="0" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1832" s="0" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1832" s="0" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1832" s="0" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1833" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1833" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1833" s="0" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1834" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B1834" s="0" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1834" s="0" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1835" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1835" s="0" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1835" s="0" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1836" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1836" s="0" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1836" s="0" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1837" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1837" s="0" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1837" s="0" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1838" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1838" s="0" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1838" s="0" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1839" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1839" s="0" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1839" s="0" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1840" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1840" s="0" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1840" s="0" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1841" s="0" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1841" s="0" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1841" s="0" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1842" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1842" s="0" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1843" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1843" s="0" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1843" s="0" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1844" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1844" s="0" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1844" s="0" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1845" s="0" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1845" s="0" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1845" s="0" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1846" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1846" s="0" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1846" s="0" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1847" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1847" s="0" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1847" s="0" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1848" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1848" s="0" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1848" s="0" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1849" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1849" s="0" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1850" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1850" s="0" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1850" s="0" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1851" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1851" s="0" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1851" s="0" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1852" s="0" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C1852" s="0" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1853" s="0" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1853" s="0" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1853" s="0" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1854" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1854" s="0" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1854" s="0" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1855" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1855" s="0" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1855" s="0" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1856" s="0" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1856" s="0" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1856" s="0" t="s">
+        <v>2281</v>
       </c>
     </row>
   </sheetData>
@@ -26195,21 +26717,21 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2223</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>2224</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>2225</v>
+        <v>2284</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1757</v>
@@ -26217,50 +26739,50 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2226</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2227</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2228</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>2229</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>2230</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>2231</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>2232</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>2233</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>2234</v>
+        <v>2293</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2235</v>
+        <v>2294</v>
       </c>
     </row>
   </sheetData>
@@ -26288,7 +26810,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.95"/>
@@ -26298,20 +26820,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>2236</v>
+        <v>2295</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2237</v>
+        <v>2296</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2238</v>
+        <v>2297</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2239</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="6" t="n">
         <v>44806</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -26319,7 +26841,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="6" t="n">
         <v>44807</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -26327,29 +26849,29 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="6" t="n">
         <v>44808</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2240</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="6" t="n">
         <v>44809</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>2241</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="6" t="n">
         <v>44810</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -26363,7 +26885,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="6" t="n">
         <v>44811</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -26377,7 +26899,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="6" t="n">
         <v>44812</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -26391,7 +26913,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="6" t="n">
         <v>44813</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -26408,7 +26930,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="6" t="n">
         <v>44814</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -26425,7 +26947,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="6" t="n">
         <v>44815</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -26442,37 +26964,37 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="6" t="n">
         <v>44816</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="6" t="n">
         <v>44817</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="6" t="n">
         <v>44818</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="6" t="n">
         <v>44819</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="6" t="n">
         <v>44820</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="6" t="n">
         <v>44821</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="6" t="n">
         <v>44822</v>
       </c>
     </row>
@@ -26509,13 +27031,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2242</v>
+        <v>2301</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2243</v>
+        <v>2302</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2244</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26524,7 +27046,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2245</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26533,7 +27055,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>2246</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26873,7 +27395,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>2247</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26882,7 +27404,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>2248</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26891,7 +27413,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>2246</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27130,7 +27652,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>81</v>
@@ -27141,7 +27663,7 @@
         <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>82</v>
@@ -27152,7 +27674,7 @@
         <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>83</v>
@@ -27163,7 +27685,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>37</v>
@@ -27185,7 +27707,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>46</v>
@@ -27196,7 +27718,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>87</v>
@@ -27207,7 +27729,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>88</v>
@@ -27218,7 +27740,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>89</v>
@@ -27229,7 +27751,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>90</v>
@@ -27551,7 +28073,7 @@
         <v>114</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2251</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27988,7 +28510,7 @@
         <v>45</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>129</v>
@@ -27999,7 +28521,7 @@
         <v>45</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>148</v>
@@ -28010,7 +28532,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>131</v>
@@ -28021,7 +28543,7 @@
         <v>45</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>132</v>
@@ -28032,7 +28554,7 @@
         <v>45</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>68</v>
@@ -28043,7 +28565,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>110</v>
@@ -28054,7 +28576,7 @@
         <v>45</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>149</v>
@@ -28065,7 +28587,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>111</v>
@@ -28076,7 +28598,7 @@
         <v>45</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>150</v>
@@ -28087,7 +28609,7 @@
         <v>45</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>122</v>
@@ -28164,7 +28686,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2253</v>
+        <v>2312</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>81</v>
@@ -28175,7 +28697,7 @@
         <v>45</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2253</v>
+        <v>2312</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>108</v>
@@ -28186,7 +28708,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2253</v>
+        <v>2312</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>104</v>
@@ -28435,7 +28957,7 @@
         <v>170</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>2254</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28443,7 +28965,7 @@
         <v>170</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>2255</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28451,7 +28973,7 @@
         <v>170</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>2256</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28712,7 +29234,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>2257</v>
+        <v>2316</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>209</v>
@@ -29163,12 +29685,12 @@
         <v>261</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>2258</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>264</v>
@@ -29176,7 +29698,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>265</v>
@@ -29184,7 +29706,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>266</v>
@@ -29192,7 +29714,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>267</v>
@@ -29200,7 +29722,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>268</v>
@@ -29208,7 +29730,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>269</v>
@@ -29216,7 +29738,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>270</v>
@@ -29224,7 +29746,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>271</v>
@@ -29232,7 +29754,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>272</v>
@@ -29240,7 +29762,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>273</v>
@@ -29248,7 +29770,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>274</v>
@@ -29283,7 +29805,7 @@
         <v>170</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>2254</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29291,7 +29813,7 @@
         <v>170</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>2255</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29299,7 +29821,7 @@
         <v>170</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>2260</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29560,7 +30082,7 @@
         <v>170</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>2257</v>
+        <v>2316</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>209</v>
@@ -30011,12 +30533,12 @@
         <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>2258</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>264</v>
@@ -30024,7 +30546,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>265</v>
@@ -30032,7 +30554,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>266</v>
@@ -30040,7 +30562,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>267</v>
@@ -30048,7 +30570,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>268</v>
@@ -30056,7 +30578,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>269</v>
@@ -30064,7 +30586,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -30072,7 +30594,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>271</v>
@@ -30080,7 +30602,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>272</v>
@@ -30088,7 +30610,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>273</v>
@@ -30096,7 +30618,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>274</v>
@@ -30104,7 +30626,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>275</v>
@@ -30112,7 +30634,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>276</v>
@@ -30120,7 +30642,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>277</v>
@@ -30128,7 +30650,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>278</v>
@@ -30136,7 +30658,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>279</v>
@@ -30144,15 +30666,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>2261</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>281</v>
@@ -30163,7 +30685,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>283</v>
@@ -30174,7 +30696,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>285</v>
@@ -30185,7 +30707,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>285</v>
@@ -30196,7 +30718,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>285</v>
@@ -30207,7 +30729,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>285</v>
@@ -30218,7 +30740,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>285</v>
@@ -30229,7 +30751,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>291</v>
@@ -30240,7 +30762,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>293</v>
@@ -30251,7 +30773,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>293</v>
@@ -30262,7 +30784,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>296</v>
@@ -30273,7 +30795,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>298</v>
@@ -30284,7 +30806,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>298</v>
@@ -30295,7 +30817,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -30306,7 +30828,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>298</v>
@@ -30317,7 +30839,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>298</v>
@@ -30328,7 +30850,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>304</v>
@@ -30339,7 +30861,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>306</v>
@@ -30350,7 +30872,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>306</v>
@@ -30361,7 +30883,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>309</v>
@@ -30372,7 +30894,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>311</v>
@@ -30383,18 +30905,18 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>2262</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>314</v>
@@ -30405,7 +30927,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>314</v>
@@ -30416,7 +30938,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>314</v>
@@ -30427,7 +30949,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>318</v>
@@ -30438,7 +30960,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>21</v>
@@ -30449,7 +30971,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>21</v>
@@ -30460,7 +30982,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>322</v>
@@ -30471,7 +30993,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>322</v>
@@ -30482,7 +31004,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>325</v>
@@ -30493,7 +31015,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>325</v>
@@ -30504,7 +31026,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>325</v>
@@ -30515,7 +31037,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>325</v>
@@ -30526,7 +31048,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>325</v>
@@ -30537,29 +31059,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>2263</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>2264</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>325</v>
@@ -30570,7 +31092,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>325</v>
@@ -30581,7 +31103,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>325</v>
@@ -30592,7 +31114,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>332</v>
@@ -30603,7 +31125,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>332</v>
@@ -30614,7 +31136,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>334</v>
@@ -30625,7 +31147,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>336</v>
@@ -30636,7 +31158,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>337</v>
@@ -30647,7 +31169,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>337</v>
@@ -30658,7 +31180,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>337</v>
@@ -30669,7 +31191,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>337</v>
@@ -30680,7 +31202,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>337</v>
@@ -30691,7 +31213,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>337</v>
@@ -30702,7 +31224,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>342</v>
@@ -30713,7 +31235,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>342</v>
@@ -30724,7 +31246,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>342</v>
@@ -30735,7 +31257,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>345</v>
@@ -30746,7 +31268,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>345</v>
@@ -30757,7 +31279,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>345</v>
@@ -30768,10 +31290,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>2265</v>
+        <v>2324</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>348</v>
@@ -30779,7 +31301,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>2259</v>
+        <v>2318</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>349</v>
@@ -30793,7 +31315,7 @@
         <v>239</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>2258</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30801,7 +31323,7 @@
         <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>2266</v>
+        <v>2325</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>351</v>
@@ -30812,7 +31334,7 @@
         <v>350</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>2266</v>
+        <v>2325</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>58</v>
@@ -30986,7 +31508,7 @@
         <v>370</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>2267</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31010,7 +31532,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>2268</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31067,7 +31589,7 @@
         <v>377</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>2269</v>
+        <v>2328</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>384</v>
@@ -31133,7 +31655,7 @@
         <v>377</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2270</v>
+        <v>2329</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>395</v>
@@ -31180,7 +31702,7 @@
         <v>401</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>2271</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31243,7 +31765,7 @@
         <v>377</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>2272</v>
+        <v>2331</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>413</v>
@@ -31254,7 +31776,7 @@
         <v>377</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>2272</v>
+        <v>2331</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>414</v>
@@ -31265,7 +31787,7 @@
         <v>377</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>2273</v>
+        <v>2332</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>365</v>
@@ -31276,7 +31798,7 @@
         <v>377</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>2274</v>
+        <v>2333</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>145</v>
@@ -31287,7 +31809,7 @@
         <v>377</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>2275</v>
+        <v>2334</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>354</v>
@@ -31301,7 +31823,7 @@
         <v>417</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>2276</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31389,7 +31911,7 @@
         <v>429</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>2277</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31675,7 +32197,7 @@
         <v>453</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>2278</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31716,7 +32238,7 @@
         <v>377</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>2279</v>
+        <v>2338</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>457</v>
@@ -31727,7 +32249,7 @@
         <v>377</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>2280</v>
+        <v>2339</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>459</v>
@@ -32189,7 +32711,7 @@
         <v>377</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>2281</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32197,7 +32719,7 @@
         <v>377</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>2282</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32208,12 +32730,12 @@
         <v>494</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>2277</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="8" t="s">
-        <v>2283</v>
+      <c r="A538" s="7" t="s">
+        <v>2342</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32229,7 +32751,7 @@
         <v>1120</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>2284</v>
+        <v>2343</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>498</v>
@@ -32323,7 +32845,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>2285</v>
+        <v>2344</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>502</v>
@@ -32366,7 +32888,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>2286</v>
+        <v>2345</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>515</v>
@@ -32374,7 +32896,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>2287</v>
+        <v>2346</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>515</v>
@@ -32447,7 +32969,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>2288</v>
+        <v>2347</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>515</v>
@@ -32571,7 +33093,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>2289</v>
+        <v>2348</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>545</v>
@@ -32738,7 +33260,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>2290</v>
+        <v>2349</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>564</v>
@@ -32749,7 +33271,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>2291</v>
+        <v>2350</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>566</v>
@@ -32894,7 +33416,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>2286</v>
+        <v>2345</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>584</v>
@@ -32921,7 +33443,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>2288</v>
+        <v>2347</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>584</v>
@@ -32989,7 +33511,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>2292</v>
+        <v>2351</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>594</v>
@@ -33048,7 +33570,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>2293</v>
+        <v>2352</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>584</v>
@@ -33067,7 +33589,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>2286</v>
+        <v>2345</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>603</v>
@@ -33105,7 +33627,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>2286</v>
+        <v>2345</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>608</v>
@@ -33179,7 +33701,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>269</v>
@@ -33228,7 +33750,7 @@
         <v>533</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2295</v>
+        <v>2354</v>
       </c>
       <c r="C648" s="4" t="s">
         <v>619</v>
@@ -33247,7 +33769,7 @@
         <v>533</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2295</v>
+        <v>2354</v>
       </c>
       <c r="C650" s="4" t="s">
         <v>621</v>
@@ -33279,7 +33801,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>2296</v>
+        <v>2355</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>627</v>
@@ -33751,7 +34273,7 @@
         <v>673</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>2297</v>
+        <v>2356</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>689</v>
@@ -33762,7 +34284,7 @@
         <v>673</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2297</v>
+        <v>2356</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>694</v>
@@ -33795,7 +34317,7 @@
         <v>699</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>2298</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33858,7 +34380,7 @@
         <v>499</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>2299</v>
+        <v>2358</v>
       </c>
       <c r="C711" s="4" t="s">
         <v>711</v>
@@ -34009,7 +34531,7 @@
         <v>738</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>2300</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34102,7 +34624,7 @@
         <v>545</v>
       </c>
       <c r="C734" s="4" t="s">
-        <v>2301</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34154,7 +34676,7 @@
         <v>771</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>2302</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34315,7 +34837,7 @@
         <v>799</v>
       </c>
       <c r="C755" s="4" t="s">
-        <v>2303</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34345,10 +34867,10 @@
         <v>805</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2304</v>
+        <v>2363</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>2305</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34378,7 +34900,7 @@
         <v>805</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>2306</v>
+        <v>2365</v>
       </c>
       <c r="C761" s="4" t="s">
         <v>813</v>
@@ -34389,7 +34911,7 @@
         <v>805</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>2307</v>
+        <v>2366</v>
       </c>
       <c r="C762" s="4" t="s">
         <v>813</v>
@@ -34403,7 +34925,7 @@
         <v>816</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>2308</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34414,7 +34936,7 @@
         <v>819</v>
       </c>
       <c r="C764" s="4" t="s">
-        <v>2309</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34606,7 +35128,7 @@
         <v>852</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>2310</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34628,7 +35150,7 @@
         <v>856</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>2310</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34639,7 +35161,7 @@
         <v>139</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>2311</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35048,7 +35570,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>2288</v>
+        <v>2347</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>608</v>
@@ -35059,7 +35581,7 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
-        <v>2290</v>
+        <v>2349</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>930</v>
@@ -35188,7 +35710,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>2286</v>
+        <v>2345</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>951</v>
@@ -35242,7 +35764,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>2296</v>
+        <v>2355</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>962</v>
@@ -35264,7 +35786,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>2312</v>
+        <v>2371</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>965</v>
@@ -35387,7 +35909,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>988</v>
@@ -35472,7 +35994,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>2288</v>
+        <v>2347</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>1000</v>
@@ -35618,7 +36140,7 @@
         <v>1024</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>2314</v>
+        <v>2373</v>
       </c>
       <c r="C881" s="4" t="s">
         <v>1026</v>
@@ -35724,7 +36246,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>2315</v>
+        <v>2374</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1035</v>
@@ -35800,7 +36322,7 @@
         <v>615</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>2316</v>
+        <v>2375</v>
       </c>
       <c r="C900" s="4" t="s">
         <v>1053</v>
@@ -35811,7 +36333,7 @@
         <v>1054</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2317</v>
+        <v>2376</v>
       </c>
       <c r="C901" s="4" t="s">
         <v>1053</v>
@@ -36057,7 +36579,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>2318</v>
+        <v>2377</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>1099</v>
@@ -36200,7 +36722,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>1121</v>
@@ -36208,7 +36730,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>906</v>
@@ -36219,7 +36741,7 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>1123</v>
@@ -36230,7 +36752,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>2319</v>
+        <v>2378</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>1125</v>
@@ -36241,7 +36763,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>1127</v>
@@ -36263,7 +36785,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>1131</v>
@@ -36274,7 +36796,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B948" s="3" t="s">
         <v>1132</v>
@@ -36285,7 +36807,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>1132</v>
@@ -36296,7 +36818,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>1135</v>
@@ -36362,7 +36884,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>2313</v>
+        <v>2372</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1147</v>
@@ -36425,7 +36947,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2320</v>
+        <v>2379</v>
       </c>
       <c r="C962" s="4" t="s">
         <v>1158</v>
@@ -36474,7 +36996,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="C967" s="4" t="s">
         <v>1168</v>
@@ -36496,7 +37018,7 @@
         <v>1054</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>2321</v>
+        <v>2380</v>
       </c>
       <c r="C969" s="4" t="s">
         <v>1173</v>
@@ -36507,7 +37029,7 @@
         <v>558</v>
       </c>
       <c r="B970" s="3" t="s">
-        <v>2316</v>
+        <v>2375</v>
       </c>
       <c r="C970" s="4" t="s">
         <v>1173</v>
@@ -36722,7 +37244,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>2288</v>
+        <v>2347</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>1212</v>
@@ -37153,7 +37675,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>2288</v>
+        <v>2347</v>
       </c>
       <c r="C1038" s="4" t="s">
         <v>1279</v>
@@ -37183,7 +37705,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>2288</v>
+        <v>2347</v>
       </c>
       <c r="B1041" s="3" t="s">
         <v>1212</v>
@@ -37364,7 +37886,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="1" t="s">
-        <v>2322</v>
+        <v>2381</v>
       </c>
       <c r="B1058" s="3" t="s">
         <v>1294</v>
@@ -37375,7 +37897,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="1" t="s">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="B1059" s="3" t="s">
         <v>1295</v>
@@ -37832,7 +38354,7 @@
         <v>1070</v>
       </c>
       <c r="B1103" s="3" t="s">
-        <v>2323</v>
+        <v>2236</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>1340</v>
@@ -38071,7 +38593,7 @@
         <v>1375</v>
       </c>
       <c r="B1128" s="3" t="s">
-        <v>2324</v>
+        <v>2382</v>
       </c>
       <c r="C1128" s="4" t="s">
         <v>1376</v>
@@ -38180,7 +38702,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>2325</v>
+        <v>2383</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>1392</v>
@@ -38199,7 +38721,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>2326</v>
+        <v>2384</v>
       </c>
       <c r="C1141" s="4" t="s">
         <v>1395</v>
@@ -38397,7 +38919,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>2319</v>
+        <v>2378</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>1139</v>
@@ -38408,7 +38930,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
-        <v>2319</v>
+        <v>2378</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>1426</v>
@@ -38512,7 +39034,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>2286</v>
+        <v>2345</v>
       </c>
       <c r="B1173" s="3" t="s">
         <v>1443</v>
@@ -38523,7 +39045,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="s">
-        <v>2327</v>
+        <v>2385</v>
       </c>
       <c r="C1174" s="4" t="s">
         <v>320</v>
@@ -38588,7 +39110,7 @@
         <v>1450</v>
       </c>
       <c r="B1181" s="3" t="s">
-        <v>2328</v>
+        <v>2386</v>
       </c>
       <c r="C1181" s="4" t="s">
         <v>1452</v>
@@ -38610,7 +39132,7 @@
         <v>374</v>
       </c>
       <c r="B1183" s="3" t="s">
-        <v>2329</v>
+        <v>2387</v>
       </c>
       <c r="C1183" s="4" t="s">
         <v>369</v>
@@ -38640,7 +39162,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>2330</v>
+        <v>2388</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>321</v>
@@ -38689,7 +39211,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
-        <v>2318</v>
+        <v>2377</v>
       </c>
       <c r="B1191" s="3" t="s">
         <v>1465</v>
@@ -39156,7 +39678,7 @@
       <c r="A860" s="5"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="8"/>
+      <c r="A992" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -39180,7 +39702,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -39201,7 +39723,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2251</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39274,7 +39796,7 @@
         <v>377</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>2269</v>
+        <v>2328</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>384</v>
@@ -39520,7 +40042,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>37</v>
@@ -39575,7 +40097,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2253</v>
+        <v>2312</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>108</v>
@@ -39759,7 +40281,7 @@
         <v>401</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>2271</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39770,7 +40292,7 @@
         <v>494</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>2277</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39781,7 +40303,7 @@
         <v>429</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>2277</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39822,7 +40344,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>129</v>
@@ -39866,7 +40388,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>87</v>
@@ -39888,7 +40410,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
@@ -39910,7 +40432,7 @@
         <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>89</v>
@@ -39921,7 +40443,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>148</v>
@@ -40034,7 +40556,7 @@
         <v>417</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>2276</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40467,7 +40989,7 @@
         <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>131</v>
@@ -40533,7 +41055,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>90</v>
@@ -40841,7 +41363,7 @@
         <v>45</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>132</v>
@@ -40929,7 +41451,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>68</v>
@@ -41028,7 +41550,7 @@
         <v>45</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>110</v>
@@ -41281,7 +41803,7 @@
         <v>45</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>149</v>
@@ -41347,7 +41869,7 @@
         <v>45</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>111</v>
@@ -41487,7 +42009,7 @@
         <v>533</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>2295</v>
+        <v>2354</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>619</v>
@@ -41521,7 +42043,7 @@
         <v>819</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>2309</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41764,7 +42286,7 @@
         <v>856</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>2310</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41773,7 +42295,7 @@
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="4" t="s">
-        <v>2310</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41806,7 +42328,7 @@
         <v>139</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>2311</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42317,7 +42839,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>2290</v>
+        <v>2349</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>930</v>
@@ -42514,7 +43036,7 @@
         <v>533</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>2295</v>
+        <v>2354</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>621</v>
@@ -42985,7 +43507,7 @@
         <v>1024</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>2314</v>
+        <v>2373</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>1026</v>
@@ -43209,7 +43731,7 @@
         <v>615</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>2316</v>
+        <v>2375</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>1053</v>
@@ -43220,7 +43742,7 @@
         <v>1054</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>2317</v>
+        <v>2376</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>1053</v>
@@ -43659,7 +44181,7 @@
         <v>699</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>2298</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44067,7 +44589,7 @@
         <v>558</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>2316</v>
+        <v>2375</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>1173</v>
@@ -44078,7 +44600,7 @@
         <v>1054</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>2321</v>
+        <v>2380</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>1173</v>
@@ -44219,7 +44741,7 @@
         <v>499</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>2299</v>
+        <v>2358</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>711</v>
@@ -44428,7 +44950,7 @@
         <v>738</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>2300</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44523,7 +45045,7 @@
         <v>545</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>2301</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44629,7 +45151,7 @@
         <v>771</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>2302</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44837,7 +45359,7 @@
       </c>
       <c r="B538" s="3"/>
       <c r="C538" s="4" t="s">
-        <v>2303</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44878,10 +45400,10 @@
         <v>805</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>2304</v>
+        <v>2363</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>2305</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44900,7 +45422,7 @@
         <v>805</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>2306</v>
+        <v>2365</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>813</v>
@@ -44922,7 +45444,7 @@
         <v>805</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>2307</v>
+        <v>2366</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>813</v>
@@ -44936,7 +45458,7 @@
         <v>816</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>2308</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45282,7 +45804,7 @@
         <v>556</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>2331</v>
+        <v>2389</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>1645</v>
@@ -45450,7 +45972,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>2327</v>
+        <v>2385</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>1445</v>
@@ -45533,7 +46055,7 @@
         <v>1450</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>2328</v>
+        <v>2386</v>
       </c>
       <c r="C604" s="4" t="s">
         <v>1452</v>
@@ -45563,7 +46085,7 @@
         <v>374</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>2329</v>
+        <v>2387</v>
       </c>
       <c r="C607" s="4" t="s">
         <v>369</v>
@@ -45596,7 +46118,7 @@
         <v>45</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>2253</v>
+        <v>2312</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>104</v>
@@ -45626,7 +46148,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>2330</v>
+        <v>2388</v>
       </c>
       <c r="B613" s="3"/>
       <c r="C613" s="4" t="s">
@@ -46117,7 +46639,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>2332</v>
+        <v>2390</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1517</v>
@@ -46803,7 +47325,7 @@
         <v>1120</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>2284</v>
+        <v>2343</v>
       </c>
       <c r="C729" s="4" t="s">
         <v>498</v>
@@ -47398,7 +47920,7 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
-        <v>2290</v>
+        <v>2349</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>564</v>
@@ -48061,7 +48583,7 @@
         <v>45</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>122</v>
@@ -48391,7 +48913,7 @@
         <v>45</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>81</v>
@@ -48402,7 +48924,7 @@
         <v>45</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>2253</v>
+        <v>2312</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>81</v>
@@ -48487,7 +49009,7 @@
         <v>45</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>46</v>
@@ -48517,7 +49039,7 @@
         <v>45</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>82</v>
@@ -48629,7 +49151,7 @@
         <v>45</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>2252</v>
+        <v>2311</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>150</v>
@@ -48717,7 +49239,7 @@
         <v>45</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>2249</v>
+        <v>2308</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>83</v>
@@ -48772,7 +49294,7 @@
         <v>377</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>2272</v>
+        <v>2331</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>413</v>
@@ -48896,7 +49418,7 @@
         <v>1695</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>2333</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49195,7 +49717,7 @@
         <v>377</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>2272</v>
+        <v>2331</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>414</v>
@@ -49619,7 +50141,7 @@
         <v>556</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>2334</v>
+        <v>2392</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>1661</v>
@@ -50382,7 +50904,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>2330</v>
+        <v>2388</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1726</v>
@@ -50634,7 +51156,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>2330</v>
+        <v>2388</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1757</v>
@@ -50744,7 +51266,7 @@
         <v>556</v>
       </c>
       <c r="B1116" s="0" t="s">
-        <v>2335</v>
+        <v>2393</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>1765</v>
@@ -50821,7 +51343,7 @@
         <v>499</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>2299</v>
+        <v>2358</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>220</v>
@@ -52476,7 +52998,7 @@
         <v>1375</v>
       </c>
       <c r="B1281" s="3" t="s">
-        <v>2324</v>
+        <v>2382</v>
       </c>
       <c r="C1281" s="4" t="s">
         <v>1376</v>
@@ -52958,7 +53480,7 @@
         <v>170</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>2336</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
@@ -7335,23 +7335,7 @@
     <t xml:space="preserve">kamma</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xref </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">actions (kamma)</t>
-    </r>
+    <t xml:space="preserve">xref actions (kamma)</t>
   </si>
   <si>
     <t xml:space="preserve">as relative (kammabandhū)</t>
@@ -7390,23 +7374,7 @@
     <t xml:space="preserve">Mahā Māyā, queen</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Xref </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Māyā, queen Mahā</t>
-    </r>
+    <t xml:space="preserve">xref Māyā, queen Mahā</t>
   </si>
   <si>
     <t xml:space="preserve">Thag10.3</t>
@@ -7800,7 +7768,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7821,11 +7789,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -7929,15 +7892,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8021,11 +7984,11 @@
   </sheetPr>
   <dimension ref="A1:C1985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1973" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1986" activeCellId="0" sqref="A1986"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1969" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1978" activeCellId="0" sqref="C1978"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.09"/>
@@ -28601,7 +28564,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -28696,7 +28659,7 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -41617,7 +41580,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13507" uniqueCount="3070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13557" uniqueCount="3093">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">AN7.52</t>
   </si>
   <si>
-    <t xml:space="preserve">faith and</t>
+    <t xml:space="preserve">faith and giving</t>
   </si>
   <si>
     <t xml:space="preserve">SN1.33</t>
@@ -4303,7 +4303,7 @@
     <t xml:space="preserve">Iti6</t>
   </si>
   <si>
-    <t xml:space="preserve">“all”, the</t>
+    <t xml:space="preserve">“all”, the (sabba)</t>
   </si>
   <si>
     <t xml:space="preserve">Iti7</t>
@@ -8846,6 +8846,75 @@
   </si>
   <si>
     <t xml:space="preserve">guarding ones behaviour for fear of mind readers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with virtuous people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people of faith like to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motivation for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conversation flows when people understand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommended by the wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caring for recommended by the wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by supporting mendicants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characteristics (lakkhaṇa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of conditioned phenomena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arising, vanishing, and change (uppādo, vayo, aññathatta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditioned (saṅkhatata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unconditioned (asaṅkhata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sal tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supported by Himalayas like family supported by head with faith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grows in faith, virtue, and wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enduring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to prevent bad, develop good, and endure pain</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a difference between</t>
@@ -9557,10 +9626,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2389"/>
+  <dimension ref="A1:C2406"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2377" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2366" activeCellId="0" sqref="C2366:C2389"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2401" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2406" activeCellId="0" sqref="C2390:C2406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34202,6 +34271,190 @@
       </c>
       <c r="C2389" s="2" t="s">
         <v>2920</v>
+      </c>
+    </row>
+    <row r="2390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2390" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2390" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2390" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2391" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2391" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C2391" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2392" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2392" s="0" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C2392" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2393" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2393" s="0" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C2393" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2394" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2394" s="0" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C2394" s="2" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2395" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2395" s="0" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C2395" s="2" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2396" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B2396" s="0" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2396" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2397" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2397" s="0" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2397" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2398" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2398" s="0" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C2398" s="2" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2399" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B2399" s="0" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C2399" s="2" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2400" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2400" s="2" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2401" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B2401" s="0" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C2401" s="2" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2402" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B2402" s="0" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C2402" s="2" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2403" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B2403" s="0" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2403" s="2" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2404" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B2404" s="0" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2404" s="2" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2405" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B2405" s="0" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C2405" s="2" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2406" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B2406" s="0" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2406" s="2" t="s">
+        <v>2945</v>
       </c>
     </row>
   </sheetData>
@@ -34224,89 +34477,89 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="C2366:C2389 F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="C2390:C2406 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2924</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>2925</v>
+        <v>2948</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>2926</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>2927</v>
+        <v>2950</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>2928</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2929</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2930</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2931</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>2932</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>2933</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>2934</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>2935</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>2936</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>2937</v>
+        <v>2960</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2938</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>2939</v>
+        <v>2962</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>2940</v>
+        <v>2963</v>
       </c>
     </row>
   </sheetData>
@@ -34329,14 +34582,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2366:C2389 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2390:C2406 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2941</v>
+        <v>2964</v>
       </c>
     </row>
   </sheetData>
@@ -34359,7 +34612,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C2366:C2389 B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C2390:C2406 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34374,21 +34627,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>2942</v>
+        <v>2965</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2943</v>
+        <v>2966</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>2944</v>
+        <v>2967</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2945</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>2946</v>
+        <v>2969</v>
       </c>
       <c r="B2" s="16" t="n">
         <f aca="false">SUM(B3:B220)</f>
@@ -34421,7 +34674,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>2947</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34432,7 +34685,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>2948</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34502,7 +34755,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>2949</v>
+        <v>2972</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>445</v>
@@ -34519,7 +34772,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>2950</v>
+        <v>2973</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>469</v>
@@ -34629,7 +34882,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1186" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1199" activeCellId="1" sqref="C2366:C2389 A1199"/>
+      <selection pane="topLeft" activeCell="A1199" activeCellId="1" sqref="C2390:C2406 A1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34642,13 +34895,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>2951</v>
+        <v>2974</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>2952</v>
+        <v>2975</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>2953</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34657,7 +34910,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>2954</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34666,7 +34919,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>2955</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35006,7 +35259,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>2956</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35015,7 +35268,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>2957</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35024,7 +35277,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>2955</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35263,7 +35516,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>81</v>
@@ -35274,7 +35527,7 @@
         <v>45</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>82</v>
@@ -35285,7 +35538,7 @@
         <v>45</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>83</v>
@@ -35296,7 +35549,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>37</v>
@@ -35318,7 +35571,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>46</v>
@@ -35329,7 +35582,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>87</v>
@@ -35340,7 +35593,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>88</v>
@@ -35351,7 +35604,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>89</v>
@@ -35362,7 +35615,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>90</v>
@@ -35684,7 +35937,7 @@
         <v>114</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>2960</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36121,7 +36374,7 @@
         <v>45</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>129</v>
@@ -36132,7 +36385,7 @@
         <v>45</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>148</v>
@@ -36143,7 +36396,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>131</v>
@@ -36154,7 +36407,7 @@
         <v>45</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>132</v>
@@ -36165,7 +36418,7 @@
         <v>45</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>68</v>
@@ -36176,7 +36429,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>110</v>
@@ -36187,7 +36440,7 @@
         <v>45</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>149</v>
@@ -36198,7 +36451,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>111</v>
@@ -36209,7 +36462,7 @@
         <v>45</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>150</v>
@@ -36220,7 +36473,7 @@
         <v>45</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>122</v>
@@ -36297,7 +36550,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>81</v>
@@ -36308,7 +36561,7 @@
         <v>45</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>108</v>
@@ -36319,7 +36572,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>104</v>
@@ -36568,7 +36821,7 @@
         <v>170</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>2963</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36576,7 +36829,7 @@
         <v>170</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>2964</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36584,7 +36837,7 @@
         <v>170</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>2965</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36845,7 +37098,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>2966</v>
+        <v>2989</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>208</v>
@@ -37296,12 +37549,12 @@
         <v>260</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>2967</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>263</v>
@@ -37309,7 +37562,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>264</v>
@@ -37317,7 +37570,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>265</v>
@@ -37325,7 +37578,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>266</v>
@@ -37333,7 +37586,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>267</v>
@@ -37341,7 +37594,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>268</v>
@@ -37349,7 +37602,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>269</v>
@@ -37357,7 +37610,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>270</v>
@@ -37365,7 +37618,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>271</v>
@@ -37373,7 +37626,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>272</v>
@@ -37381,7 +37634,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C257" s="17" t="s">
         <v>273</v>
@@ -37416,7 +37669,7 @@
         <v>170</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>2963</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37424,7 +37677,7 @@
         <v>170</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>2964</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37432,7 +37685,7 @@
         <v>170</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>2969</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37693,7 +37946,7 @@
         <v>170</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>2966</v>
+        <v>2989</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>208</v>
@@ -38144,12 +38397,12 @@
         <v>260</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>2967</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C329" s="17" t="s">
         <v>263</v>
@@ -38157,7 +38410,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C330" s="17" t="s">
         <v>264</v>
@@ -38165,7 +38418,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C331" s="17" t="s">
         <v>265</v>
@@ -38173,7 +38426,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C332" s="17" t="s">
         <v>266</v>
@@ -38181,7 +38434,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C333" s="17" t="s">
         <v>267</v>
@@ -38189,7 +38442,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C334" s="17" t="s">
         <v>268</v>
@@ -38197,7 +38450,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C335" s="17" t="s">
         <v>269</v>
@@ -38205,7 +38458,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C336" s="17" t="s">
         <v>270</v>
@@ -38213,7 +38466,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C337" s="17" t="s">
         <v>271</v>
@@ -38221,7 +38474,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C338" s="17" t="s">
         <v>272</v>
@@ -38229,7 +38482,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C339" s="17" t="s">
         <v>273</v>
@@ -38237,7 +38490,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C340" s="17" t="s">
         <v>274</v>
@@ -38245,7 +38498,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C341" s="17" t="s">
         <v>275</v>
@@ -38253,7 +38506,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C342" s="17" t="s">
         <v>276</v>
@@ -38261,7 +38514,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C343" s="17" t="s">
         <v>277</v>
@@ -38269,7 +38522,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C344" s="17" t="s">
         <v>278</v>
@@ -38277,15 +38530,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>2970</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>280</v>
@@ -38296,7 +38549,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>282</v>
@@ -38307,7 +38560,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>284</v>
@@ -38318,7 +38571,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>284</v>
@@ -38329,7 +38582,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>284</v>
@@ -38340,7 +38593,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>284</v>
@@ -38351,7 +38604,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>284</v>
@@ -38362,7 +38615,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>290</v>
@@ -38373,7 +38626,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>292</v>
@@ -38384,7 +38637,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>292</v>
@@ -38395,7 +38648,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>295</v>
@@ -38406,7 +38659,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>297</v>
@@ -38417,7 +38670,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>297</v>
@@ -38428,7 +38681,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>297</v>
@@ -38439,7 +38692,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>297</v>
@@ -38450,7 +38703,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>297</v>
@@ -38461,7 +38714,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>303</v>
@@ -38472,7 +38725,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>305</v>
@@ -38483,7 +38736,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>305</v>
@@ -38494,7 +38747,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>308</v>
@@ -38505,7 +38758,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>310</v>
@@ -38516,18 +38769,18 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>2971</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>313</v>
@@ -38538,7 +38791,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>313</v>
@@ -38549,7 +38802,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>313</v>
@@ -38560,7 +38813,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>317</v>
@@ -38571,7 +38824,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>21</v>
@@ -38582,7 +38835,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>21</v>
@@ -38593,7 +38846,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>321</v>
@@ -38604,7 +38857,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>321</v>
@@ -38615,7 +38868,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>324</v>
@@ -38626,7 +38879,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>324</v>
@@ -38637,7 +38890,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>324</v>
@@ -38648,7 +38901,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>324</v>
@@ -38659,7 +38912,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>324</v>
@@ -38670,29 +38923,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>2972</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>2973</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>324</v>
@@ -38703,7 +38956,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>324</v>
@@ -38714,7 +38967,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>324</v>
@@ -38725,7 +38978,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>331</v>
@@ -38736,7 +38989,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>331</v>
@@ -38747,7 +39000,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>333</v>
@@ -38758,7 +39011,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>335</v>
@@ -38769,7 +39022,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>336</v>
@@ -38780,7 +39033,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>336</v>
@@ -38791,7 +39044,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>336</v>
@@ -38802,7 +39055,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>336</v>
@@ -38813,7 +39066,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>336</v>
@@ -38824,7 +39077,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>336</v>
@@ -38835,7 +39088,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>341</v>
@@ -38846,7 +39099,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>341</v>
@@ -38857,7 +39110,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>341</v>
@@ -38868,7 +39121,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>344</v>
@@ -38879,7 +39132,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>344</v>
@@ -38890,7 +39143,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>344</v>
@@ -38901,10 +39154,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>2974</v>
+        <v>2997</v>
       </c>
       <c r="C402" s="17" t="s">
         <v>347</v>
@@ -38912,7 +39165,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="8" t="s">
-        <v>2968</v>
+        <v>2991</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>348</v>
@@ -38926,7 +39179,7 @@
         <v>238</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>2967</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38934,7 +39187,7 @@
         <v>349</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>2975</v>
+        <v>2998</v>
       </c>
       <c r="C405" s="17" t="s">
         <v>350</v>
@@ -38945,7 +39198,7 @@
         <v>349</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>2975</v>
+        <v>2998</v>
       </c>
       <c r="C406" s="17" t="s">
         <v>58</v>
@@ -39119,7 +39372,7 @@
         <v>369</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>2976</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39143,7 +39396,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="17" t="s">
-        <v>2977</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39200,7 +39453,7 @@
         <v>378</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>2978</v>
+        <v>3001</v>
       </c>
       <c r="C433" s="17" t="s">
         <v>385</v>
@@ -39266,7 +39519,7 @@
         <v>378</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>2979</v>
+        <v>3002</v>
       </c>
       <c r="C439" s="17" t="s">
         <v>396</v>
@@ -39313,7 +39566,7 @@
         <v>402</v>
       </c>
       <c r="C443" s="17" t="s">
-        <v>2980</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39376,7 +39629,7 @@
         <v>378</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>2981</v>
+        <v>3004</v>
       </c>
       <c r="C449" s="17" t="s">
         <v>414</v>
@@ -39387,7 +39640,7 @@
         <v>378</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>2981</v>
+        <v>3004</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>415</v>
@@ -39398,7 +39651,7 @@
         <v>378</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>2982</v>
+        <v>3005</v>
       </c>
       <c r="C451" s="17" t="s">
         <v>364</v>
@@ -39409,7 +39662,7 @@
         <v>378</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>2983</v>
+        <v>3006</v>
       </c>
       <c r="C452" s="17" t="s">
         <v>145</v>
@@ -39420,7 +39673,7 @@
         <v>378</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>2984</v>
+        <v>3007</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>353</v>
@@ -39434,7 +39687,7 @@
         <v>418</v>
       </c>
       <c r="C454" s="17" t="s">
-        <v>2985</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39522,7 +39775,7 @@
         <v>430</v>
       </c>
       <c r="C462" s="17" t="s">
-        <v>2986</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39772,7 +40025,7 @@
         <v>378</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C485" s="17" t="s">
         <v>455</v>
@@ -39783,7 +40036,7 @@
         <v>378</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C486" s="17" t="s">
         <v>421</v>
@@ -39794,7 +40047,7 @@
         <v>378</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C487" s="17" t="s">
         <v>455</v>
@@ -39805,10 +40058,10 @@
         <v>378</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>2988</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39816,7 +40069,7 @@
         <v>378</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C489" s="17" t="s">
         <v>456</v>
@@ -39827,7 +40080,7 @@
         <v>378</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C490" s="17" t="s">
         <v>457</v>
@@ -39838,7 +40091,7 @@
         <v>378</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C491" s="17" t="s">
         <v>206</v>
@@ -39849,7 +40102,7 @@
         <v>378</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>2989</v>
+        <v>3012</v>
       </c>
       <c r="C492" s="17" t="s">
         <v>457</v>
@@ -39860,7 +40113,7 @@
         <v>378</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>2990</v>
+        <v>3013</v>
       </c>
       <c r="C493" s="17" t="s">
         <v>459</v>
@@ -39904,7 +40157,7 @@
         <v>378</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>2991</v>
+        <v>3014</v>
       </c>
       <c r="C497" s="17" t="s">
         <v>371</v>
@@ -39915,7 +40168,7 @@
         <v>378</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>2992</v>
+        <v>3015</v>
       </c>
       <c r="C498" s="17" t="s">
         <v>371</v>
@@ -39926,7 +40179,7 @@
         <v>378</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>2993</v>
+        <v>3016</v>
       </c>
       <c r="C499" s="17" t="s">
         <v>371</v>
@@ -40267,7 +40520,7 @@
         <v>378</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C530" s="17" t="s">
         <v>455</v>
@@ -40278,7 +40531,7 @@
         <v>378</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C531" s="17" t="s">
         <v>421</v>
@@ -40289,7 +40542,7 @@
         <v>378</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C532" s="17" t="s">
         <v>455</v>
@@ -40300,7 +40553,7 @@
         <v>378</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C533" s="17" t="s">
         <v>456</v>
@@ -40311,7 +40564,7 @@
         <v>378</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C534" s="17" t="s">
         <v>457</v>
@@ -40322,7 +40575,7 @@
         <v>378</v>
       </c>
       <c r="C535" s="17" t="s">
-        <v>2995</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40330,7 +40583,7 @@
         <v>378</v>
       </c>
       <c r="C536" s="17" t="s">
-        <v>2996</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40341,12 +40594,12 @@
         <v>494</v>
       </c>
       <c r="C537" s="17" t="s">
-        <v>2986</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="18" t="s">
-        <v>2997</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40362,7 +40615,7 @@
         <v>1124</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>2998</v>
+        <v>3021</v>
       </c>
       <c r="C540" s="17" t="s">
         <v>498</v>
@@ -40456,7 +40709,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="8" t="s">
-        <v>2999</v>
+        <v>3022</v>
       </c>
       <c r="C551" s="17" t="s">
         <v>502</v>
@@ -40499,7 +40752,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="8" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
       <c r="C556" s="17" t="s">
         <v>515</v>
@@ -40507,7 +40760,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="8" t="s">
-        <v>3001</v>
+        <v>3024</v>
       </c>
       <c r="C557" s="17" t="s">
         <v>515</v>
@@ -40580,7 +40833,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="8" t="s">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="C565" s="17" t="s">
         <v>515</v>
@@ -40704,7 +40957,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="8" t="s">
-        <v>3003</v>
+        <v>3026</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>545</v>
@@ -40871,7 +41124,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="8" t="s">
-        <v>3004</v>
+        <v>3027</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>564</v>
@@ -40882,7 +41135,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="8" t="s">
-        <v>3005</v>
+        <v>3028</v>
       </c>
       <c r="B599" s="6" t="s">
         <v>566</v>
@@ -40893,7 +41146,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="8" t="s">
-        <v>3006</v>
+        <v>3029</v>
       </c>
       <c r="C600" s="17" t="s">
         <v>554</v>
@@ -41027,7 +41280,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
       <c r="C613" s="17" t="s">
         <v>584</v>
@@ -41054,7 +41307,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="8" t="s">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="C616" s="17" t="s">
         <v>584</v>
@@ -41122,7 +41375,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="8" t="s">
-        <v>3007</v>
+        <v>3030</v>
       </c>
       <c r="B623" s="6" t="s">
         <v>594</v>
@@ -41181,7 +41434,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="8" t="s">
-        <v>3008</v>
+        <v>3031</v>
       </c>
       <c r="C630" s="17" t="s">
         <v>584</v>
@@ -41200,7 +41453,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="8" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
       <c r="B632" s="6" t="s">
         <v>604</v>
@@ -41238,7 +41491,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="8" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
       <c r="B636" s="6" t="s">
         <v>608</v>
@@ -41312,7 +41565,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="8" t="s">
-        <v>3009</v>
+        <v>3032</v>
       </c>
       <c r="C643" s="17" t="s">
         <v>268</v>
@@ -41361,7 +41614,7 @@
         <v>533</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>3010</v>
+        <v>3033</v>
       </c>
       <c r="C648" s="17" t="s">
         <v>619</v>
@@ -41380,7 +41633,7 @@
         <v>533</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>3010</v>
+        <v>3033</v>
       </c>
       <c r="C650" s="17" t="s">
         <v>622</v>
@@ -41412,7 +41665,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="8" t="s">
-        <v>3011</v>
+        <v>3034</v>
       </c>
       <c r="C654" s="17" t="s">
         <v>628</v>
@@ -41884,7 +42137,7 @@
         <v>674</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>3012</v>
+        <v>3035</v>
       </c>
       <c r="C701" s="17" t="s">
         <v>690</v>
@@ -41895,7 +42148,7 @@
         <v>674</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>3012</v>
+        <v>3035</v>
       </c>
       <c r="C702" s="17" t="s">
         <v>695</v>
@@ -41928,7 +42181,7 @@
         <v>700</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3013</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41991,7 +42244,7 @@
         <v>499</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>3014</v>
+        <v>3037</v>
       </c>
       <c r="C711" s="17" t="s">
         <v>712</v>
@@ -42002,7 +42255,7 @@
         <v>696</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>3015</v>
+        <v>3038</v>
       </c>
       <c r="C712" s="17" t="s">
         <v>712</v>
@@ -42095,7 +42348,7 @@
         <v>729</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>3016</v>
+        <v>3039</v>
       </c>
       <c r="C721" s="17" t="s">
         <v>731</v>
@@ -42106,7 +42359,7 @@
         <v>732</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>3017</v>
+        <v>3040</v>
       </c>
       <c r="C722" s="17" t="s">
         <v>734</v>
@@ -42142,7 +42395,7 @@
         <v>739</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3018</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42235,7 +42488,7 @@
         <v>545</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3019</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42287,7 +42540,7 @@
         <v>772</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>3020</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42448,7 +42701,7 @@
         <v>800</v>
       </c>
       <c r="C755" s="17" t="s">
-        <v>3021</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42478,10 +42731,10 @@
         <v>806</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>3022</v>
+        <v>3045</v>
       </c>
       <c r="C758" s="17" t="s">
-        <v>3023</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42511,7 +42764,7 @@
         <v>806</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>3024</v>
+        <v>3047</v>
       </c>
       <c r="C761" s="17" t="s">
         <v>814</v>
@@ -42522,7 +42775,7 @@
         <v>806</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>3025</v>
+        <v>3048</v>
       </c>
       <c r="C762" s="17" t="s">
         <v>814</v>
@@ -42536,7 +42789,7 @@
         <v>817</v>
       </c>
       <c r="C763" s="17" t="s">
-        <v>3026</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42547,7 +42800,7 @@
         <v>820</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>3027</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42739,7 +42992,7 @@
         <v>853</v>
       </c>
       <c r="C782" s="17" t="s">
-        <v>3028</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42761,7 +43014,7 @@
         <v>857</v>
       </c>
       <c r="C784" s="17" t="s">
-        <v>3028</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42772,7 +43025,7 @@
         <v>139</v>
       </c>
       <c r="C785" s="17" t="s">
-        <v>3029</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43181,7 +43434,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="8" t="s">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="B826" s="6" t="s">
         <v>608</v>
@@ -43192,7 +43445,7 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="8" t="s">
-        <v>3004</v>
+        <v>3027</v>
       </c>
       <c r="B827" s="6" t="s">
         <v>931</v>
@@ -43321,7 +43574,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="8" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
       <c r="B839" s="6" t="s">
         <v>952</v>
@@ -43375,7 +43628,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="8" t="s">
-        <v>3011</v>
+        <v>3034</v>
       </c>
       <c r="B845" s="6" t="s">
         <v>963</v>
@@ -43397,7 +43650,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="8" t="s">
-        <v>3030</v>
+        <v>3053</v>
       </c>
       <c r="B847" s="6" t="s">
         <v>966</v>
@@ -43520,7 +43773,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B859" s="6" t="s">
         <v>989</v>
@@ -43605,7 +43858,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="8" t="s">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="B867" s="6" t="s">
         <v>1001</v>
@@ -43748,10 +44001,10 @@
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="8" t="s">
-        <v>3032</v>
+        <v>3055</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>3033</v>
+        <v>3056</v>
       </c>
       <c r="C881" s="17" t="s">
         <v>1027</v>
@@ -43857,7 +44110,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="8" t="s">
-        <v>3034</v>
+        <v>3057</v>
       </c>
       <c r="B892" s="6" t="s">
         <v>1036</v>
@@ -43933,7 +44186,7 @@
         <v>615</v>
       </c>
       <c r="B900" s="6" t="s">
-        <v>3035</v>
+        <v>3058</v>
       </c>
       <c r="C900" s="17" t="s">
         <v>1054</v>
@@ -43944,7 +44197,7 @@
         <v>1055</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>3036</v>
+        <v>3059</v>
       </c>
       <c r="C901" s="17" t="s">
         <v>1054</v>
@@ -44089,7 +44342,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="8" t="s">
-        <v>3037</v>
+        <v>3060</v>
       </c>
       <c r="C915" s="17" t="s">
         <v>1082</v>
@@ -44166,7 +44419,7 @@
         <v>1094</v>
       </c>
       <c r="B922" s="6" t="s">
-        <v>3015</v>
+        <v>3038</v>
       </c>
       <c r="C922" s="17" t="s">
         <v>1096</v>
@@ -44190,7 +44443,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="8" t="s">
-        <v>3038</v>
+        <v>3061</v>
       </c>
       <c r="C925" s="17" t="s">
         <v>1102</v>
@@ -44333,7 +44586,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="C941" s="17" t="s">
         <v>1125</v>
@@ -44341,7 +44594,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B942" s="6" t="s">
         <v>907</v>
@@ -44352,10 +44605,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>3039</v>
+        <v>3062</v>
       </c>
       <c r="C943" s="17" t="s">
         <v>1126</v>
@@ -44363,7 +44616,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="8" t="s">
-        <v>3040</v>
+        <v>3063</v>
       </c>
       <c r="B944" s="6" t="s">
         <v>1129</v>
@@ -44374,7 +44627,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B945" s="6" t="s">
         <v>1131</v>
@@ -44396,7 +44649,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B947" s="6" t="s">
         <v>1135</v>
@@ -44407,7 +44660,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B948" s="6" t="s">
         <v>1136</v>
@@ -44418,7 +44671,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B949" s="6" t="s">
         <v>1136</v>
@@ -44429,7 +44682,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B950" s="6" t="s">
         <v>1139</v>
@@ -44495,7 +44748,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="8" t="s">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="B956" s="6" t="s">
         <v>1151</v>
@@ -44558,7 +44811,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="6" t="s">
-        <v>3041</v>
+        <v>3064</v>
       </c>
       <c r="C962" s="17" t="s">
         <v>1162</v>
@@ -44607,7 +44860,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="8" t="s">
-        <v>3009</v>
+        <v>3032</v>
       </c>
       <c r="C967" s="17" t="s">
         <v>1172</v>
@@ -44629,7 +44882,7 @@
         <v>1055</v>
       </c>
       <c r="B969" s="6" t="s">
-        <v>3042</v>
+        <v>3065</v>
       </c>
       <c r="C969" s="17" t="s">
         <v>1177</v>
@@ -44640,7 +44893,7 @@
         <v>558</v>
       </c>
       <c r="B970" s="6" t="s">
-        <v>3035</v>
+        <v>3058</v>
       </c>
       <c r="C970" s="17" t="s">
         <v>1177</v>
@@ -44855,7 +45108,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="8" t="s">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="B995" s="6" t="s">
         <v>1216</v>
@@ -45286,7 +45539,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="8" t="s">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="C1038" s="17" t="s">
         <v>1282</v>
@@ -45316,7 +45569,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="8" t="s">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="B1041" s="6" t="s">
         <v>1216</v>
@@ -45497,7 +45750,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="8" t="s">
-        <v>3043</v>
+        <v>3066</v>
       </c>
       <c r="B1058" s="6" t="s">
         <v>1297</v>
@@ -45508,7 +45761,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="8" t="s">
-        <v>3009</v>
+        <v>3032</v>
       </c>
       <c r="B1059" s="6" t="s">
         <v>1298</v>
@@ -46204,7 +46457,7 @@
         <v>1378</v>
       </c>
       <c r="B1128" s="6" t="s">
-        <v>3044</v>
+        <v>3067</v>
       </c>
       <c r="C1128" s="17" t="s">
         <v>1379</v>
@@ -46313,7 +46566,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="8" t="s">
-        <v>3045</v>
+        <v>3068</v>
       </c>
       <c r="B1139" s="6" t="s">
         <v>1397</v>
@@ -46332,7 +46585,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="8" t="s">
-        <v>3046</v>
+        <v>3069</v>
       </c>
       <c r="C1141" s="17" t="s">
         <v>1400</v>
@@ -46503,7 +46756,7 @@
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="8" t="s">
-        <v>3047</v>
+        <v>3070</v>
       </c>
       <c r="C1159" s="17" t="s">
         <v>1426</v>
@@ -46530,7 +46783,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="8" t="s">
-        <v>3040</v>
+        <v>3063</v>
       </c>
       <c r="B1162" s="6" t="s">
         <v>1143</v>
@@ -46541,7 +46794,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="8" t="s">
-        <v>3040</v>
+        <v>3063</v>
       </c>
       <c r="B1163" s="6" t="s">
         <v>1431</v>
@@ -46645,7 +46898,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="8" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
       <c r="B1173" s="6" t="s">
         <v>1448</v>
@@ -46656,7 +46909,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="8" t="s">
-        <v>3048</v>
+        <v>3071</v>
       </c>
       <c r="C1174" s="17" t="s">
         <v>319</v>
@@ -46721,7 +46974,7 @@
         <v>1455</v>
       </c>
       <c r="B1181" s="6" t="s">
-        <v>3049</v>
+        <v>3072</v>
       </c>
       <c r="C1181" s="17" t="s">
         <v>1457</v>
@@ -46743,7 +46996,7 @@
         <v>374</v>
       </c>
       <c r="B1183" s="6" t="s">
-        <v>3050</v>
+        <v>3073</v>
       </c>
       <c r="C1183" s="17" t="s">
         <v>368</v>
@@ -46773,7 +47026,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="8" t="s">
-        <v>3051</v>
+        <v>3074</v>
       </c>
       <c r="C1186" s="17" t="s">
         <v>320</v>
@@ -46822,7 +47075,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="8" t="s">
-        <v>3038</v>
+        <v>3061</v>
       </c>
       <c r="B1191" s="6" t="s">
         <v>1470</v>
@@ -46892,7 +47145,7 @@
   <dimension ref="A308:C992"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A777" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C858" activeCellId="1" sqref="C2366:C2389 C858"/>
+      <selection pane="topLeft" activeCell="C858" activeCellId="1" sqref="C2390:C2406 C858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47310,7 +47563,7 @@
   <dimension ref="A1:C1350"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="C2366:C2389 B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="C2390:C2406 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47334,12 +47587,12 @@
         <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2960</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>455</v>
@@ -47358,7 +47611,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>455</v>
@@ -47377,7 +47630,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>421</v>
@@ -47396,7 +47649,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>421</v>
@@ -47407,7 +47660,7 @@
         <v>378</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>2978</v>
+        <v>3001</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>385</v>
@@ -47598,7 +47851,7 @@
         <v>378</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>2991</v>
+        <v>3014</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>371</v>
@@ -47609,7 +47862,7 @@
         <v>378</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>2992</v>
+        <v>3015</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>371</v>
@@ -47620,7 +47873,7 @@
         <v>378</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>2993</v>
+        <v>3016</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>371</v>
@@ -47653,7 +47906,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>37</v>
@@ -47708,7 +47961,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>108</v>
@@ -47892,7 +48145,7 @@
         <v>402</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>2980</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47903,7 +48156,7 @@
         <v>494</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>2986</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47914,7 +48167,7 @@
         <v>430</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>2986</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47955,7 +48208,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>129</v>
@@ -47999,7 +48252,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>87</v>
@@ -48021,7 +48274,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
@@ -48043,7 +48296,7 @@
         <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>89</v>
@@ -48054,7 +48307,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>148</v>
@@ -48167,7 +48420,7 @@
         <v>418</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>2985</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48600,7 +48853,7 @@
         <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>131</v>
@@ -48666,7 +48919,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>90</v>
@@ -48974,7 +49227,7 @@
         <v>45</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>132</v>
@@ -49062,7 +49315,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>68</v>
@@ -49161,7 +49414,7 @@
         <v>45</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>110</v>
@@ -49414,7 +49667,7 @@
         <v>45</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>149</v>
@@ -49480,7 +49733,7 @@
         <v>45</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>111</v>
@@ -49561,7 +49814,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="s">
-        <v>3037</v>
+        <v>3060</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="17" t="s">
@@ -49620,7 +49873,7 @@
         <v>533</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>3010</v>
+        <v>3033</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>619</v>
@@ -49654,7 +49907,7 @@
         <v>820</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>3027</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49897,7 +50150,7 @@
         <v>857</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>3028</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49906,7 +50159,7 @@
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="17" t="s">
-        <v>3028</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49939,7 +50192,7 @@
         <v>139</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>3029</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50450,7 +50703,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="8" t="s">
-        <v>3004</v>
+        <v>3027</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>931</v>
@@ -50549,7 +50802,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="8" t="s">
-        <v>3052</v>
+        <v>3075</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>945</v>
@@ -50647,7 +50900,7 @@
         <v>533</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>3010</v>
+        <v>3033</v>
       </c>
       <c r="C314" s="17" t="s">
         <v>622</v>
@@ -51115,10 +51368,10 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>3032</v>
+        <v>3055</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>3033</v>
+        <v>3056</v>
       </c>
       <c r="C359" s="17" t="s">
         <v>1027</v>
@@ -51342,7 +51595,7 @@
         <v>615</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>3035</v>
+        <v>3058</v>
       </c>
       <c r="C381" s="17" t="s">
         <v>1054</v>
@@ -51353,7 +51606,7 @@
         <v>1055</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>3036</v>
+        <v>3059</v>
       </c>
       <c r="C382" s="17" t="s">
         <v>1054</v>
@@ -51640,7 +51893,7 @@
         <v>1094</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>3015</v>
+        <v>3038</v>
       </c>
       <c r="C409" s="17" t="s">
         <v>1096</v>
@@ -51792,7 +52045,7 @@
         <v>700</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>3013</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51858,7 +52111,7 @@
         <v>991</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>3039</v>
+        <v>3062</v>
       </c>
       <c r="C431" s="17" t="s">
         <v>1126</v>
@@ -52200,7 +52453,7 @@
         <v>558</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>3035</v>
+        <v>3058</v>
       </c>
       <c r="C463" s="17" t="s">
         <v>1177</v>
@@ -52211,7 +52464,7 @@
         <v>1055</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>3042</v>
+        <v>3065</v>
       </c>
       <c r="C464" s="17" t="s">
         <v>1177</v>
@@ -52352,7 +52605,7 @@
         <v>499</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>3014</v>
+        <v>3037</v>
       </c>
       <c r="C479" s="17" t="s">
         <v>712</v>
@@ -52363,7 +52616,7 @@
         <v>696</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>3015</v>
+        <v>3038</v>
       </c>
       <c r="C480" s="17" t="s">
         <v>712</v>
@@ -52514,7 +52767,7 @@
         <v>729</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>3016</v>
+        <v>3039</v>
       </c>
       <c r="C495" s="17" t="s">
         <v>731</v>
@@ -52525,7 +52778,7 @@
         <v>732</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>3017</v>
+        <v>3040</v>
       </c>
       <c r="C496" s="17" t="s">
         <v>734</v>
@@ -52561,7 +52814,7 @@
         <v>739</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>3018</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52656,7 +52909,7 @@
         <v>545</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>3019</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52762,7 +53015,7 @@
         <v>772</v>
       </c>
       <c r="C518" s="17" t="s">
-        <v>3020</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52970,7 +53223,7 @@
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="17" t="s">
-        <v>3021</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53011,10 +53264,10 @@
         <v>806</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>3022</v>
+        <v>3045</v>
       </c>
       <c r="C542" s="17" t="s">
-        <v>3023</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53033,7 +53286,7 @@
         <v>806</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>3024</v>
+        <v>3047</v>
       </c>
       <c r="C544" s="17" t="s">
         <v>814</v>
@@ -53055,7 +53308,7 @@
         <v>806</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>3025</v>
+        <v>3048</v>
       </c>
       <c r="C546" s="17" t="s">
         <v>814</v>
@@ -53069,7 +53322,7 @@
         <v>817</v>
       </c>
       <c r="C547" s="17" t="s">
-        <v>3026</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53390,7 +53643,7 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>3053</v>
+        <v>3076</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>1647</v>
@@ -53415,7 +53668,7 @@
         <v>556</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>3054</v>
+        <v>3077</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>1648</v>
@@ -53583,7 +53836,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="8" t="s">
-        <v>3048</v>
+        <v>3071</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>1450</v>
@@ -53666,7 +53919,7 @@
         <v>1455</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>3049</v>
+        <v>3072</v>
       </c>
       <c r="C604" s="17" t="s">
         <v>1457</v>
@@ -53696,7 +53949,7 @@
         <v>374</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>3050</v>
+        <v>3073</v>
       </c>
       <c r="C607" s="17" t="s">
         <v>368</v>
@@ -53729,7 +53982,7 @@
         <v>45</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>104</v>
@@ -53759,7 +54012,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3051</v>
+        <v>3074</v>
       </c>
       <c r="B613" s="6"/>
       <c r="C613" s="17" t="s">
@@ -53956,7 +54209,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>3055</v>
+        <v>3078</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>1494</v>
@@ -54250,7 +54503,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>3056</v>
+        <v>3079</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1522</v>
@@ -54280,7 +54533,7 @@
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="8" t="s">
-        <v>3047</v>
+        <v>3070</v>
       </c>
       <c r="B665" s="6"/>
       <c r="C665" s="17" t="s">
@@ -54635,7 +54888,7 @@
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>3057</v>
+        <v>3080</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>1575</v>
@@ -54673,7 +54926,7 @@
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>3058</v>
+        <v>3081</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>1582</v>
@@ -54936,7 +55189,7 @@
         <v>1124</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>2998</v>
+        <v>3021</v>
       </c>
       <c r="C729" s="17" t="s">
         <v>498</v>
@@ -55319,7 +55572,7 @@
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="8" t="s">
-        <v>3059</v>
+        <v>3082</v>
       </c>
       <c r="B769" s="6"/>
       <c r="C769" s="17" t="s">
@@ -55522,7 +55775,7 @@
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="8" t="s">
-        <v>3006</v>
+        <v>3029</v>
       </c>
       <c r="B790" s="6"/>
       <c r="C790" s="17" t="s">
@@ -55531,7 +55784,7 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="8" t="s">
-        <v>3004</v>
+        <v>3027</v>
       </c>
       <c r="B791" s="6" t="s">
         <v>564</v>
@@ -56027,7 +56280,7 @@
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="8" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="B840" s="0" t="s">
         <v>458</v>
@@ -56038,7 +56291,7 @@
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>457</v>
@@ -56046,7 +56299,7 @@
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>457</v>
@@ -56161,7 +56414,7 @@
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>206</v>
@@ -56194,7 +56447,7 @@
         <v>45</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>122</v>
@@ -56347,7 +56600,7 @@
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>456</v>
@@ -56355,7 +56608,7 @@
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>456</v>
@@ -56524,7 +56777,7 @@
         <v>45</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>81</v>
@@ -56535,7 +56788,7 @@
         <v>45</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>81</v>
@@ -56620,7 +56873,7 @@
         <v>45</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>2959</v>
+        <v>2982</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>46</v>
@@ -56650,7 +56903,7 @@
         <v>45</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>82</v>
@@ -56762,7 +57015,7 @@
         <v>45</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>2961</v>
+        <v>2984</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>150</v>
@@ -56850,7 +57103,7 @@
         <v>45</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>2958</v>
+        <v>2981</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>83</v>
@@ -56905,7 +57158,7 @@
         <v>378</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>2981</v>
+        <v>3004</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>414</v>
@@ -57029,7 +57282,7 @@
         <v>1697</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>3060</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57182,7 +57435,7 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="8" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="B951" s="0" t="s">
         <v>352</v>
@@ -57328,7 +57581,7 @@
         <v>378</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>2981</v>
+        <v>3004</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>415</v>
@@ -57476,7 +57729,7 @@
         <v>1770</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>3061</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57558,7 +57811,7 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>3062</v>
+        <v>3085</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>1656</v>
@@ -57752,7 +58005,7 @@
         <v>556</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>3063</v>
+        <v>3086</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>1663</v>
@@ -58452,7 +58705,7 @@
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>3058</v>
+        <v>3081</v>
       </c>
       <c r="C1076" s="0" t="s">
         <v>1723</v>
@@ -58515,7 +58768,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>3051</v>
+        <v>3074</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1728</v>
@@ -58767,7 +59020,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>3051</v>
+        <v>3074</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1759</v>
@@ -58877,7 +59130,7 @@
         <v>556</v>
       </c>
       <c r="B1116" s="0" t="s">
-        <v>3064</v>
+        <v>3087</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>1767</v>
@@ -58954,7 +59207,7 @@
         <v>499</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>3014</v>
+        <v>3037</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>219</v>
@@ -60609,7 +60862,7 @@
         <v>1378</v>
       </c>
       <c r="B1281" s="6" t="s">
-        <v>3044</v>
+        <v>3067</v>
       </c>
       <c r="C1281" s="17" t="s">
         <v>1379</v>
@@ -60870,7 +61123,7 @@
         <v>170</v>
       </c>
       <c r="C1306" s="0" t="s">
-        <v>3065</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61080,10 +61333,10 @@
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="0" t="s">
-        <v>2987</v>
+        <v>3010</v>
       </c>
       <c r="C1332" s="0" t="s">
-        <v>3066</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61091,7 +61344,7 @@
         <v>170</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>3067</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61167,7 +61420,7 @@
         <v>378</v>
       </c>
       <c r="C1342" s="0" t="s">
-        <v>3068</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61217,7 +61470,7 @@
         <v>378</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>3069</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13859" uniqueCount="3217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13916" uniqueCount="3246">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -9274,6 +9274,87 @@
     <t xml:space="preserve">observing the uposatha</t>
   </si>
   <si>
+    <t xml:space="preserve">of the cowherd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thinking of tomorrow’s meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the Nigaṇṭhas’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in a limited way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the noble ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on uposatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recollection of virtue (sīlānussati)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrupted cleansed by effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recollection of deities (devata ānussati)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precepts, eight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kept by noble disciples as a recollection on uposatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results in heavenly rebirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifespans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unwholesome roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble eightfold path removes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaching for giving up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahānāma the Sakyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concentration and wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble disciple (ariya sāvaka)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtue, concentration and wisdom of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trainee (sekha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigaṇṭha Nāṭaputta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teachings of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence (aveccappasāda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble disciple with will not change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will not be reborn in lower worlds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a difference between</t>
   </si>
   <si>
@@ -9343,9 +9424,18 @@
     <t xml:space="preserve">pg</t>
   </si>
   <si>
+    <t xml:space="preserve">so far</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
     <t xml:space="preserve">end chapter</t>
   </si>
   <si>
+    <t xml:space="preserve">total pg in chapter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -9689,9 +9779,6 @@
   </si>
   <si>
     <t xml:space="preserve">meditation on ugliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unwholesome roots</t>
   </si>
   <si>
     <t xml:space="preserve">resolution/determination</t>
@@ -10004,10 +10091,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2512"/>
+  <dimension ref="A1:C2539"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2488" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2502" activeCellId="0" sqref="C2502"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2531" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2540" activeCellId="0" sqref="A2540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35943,6 +36030,303 @@
       </c>
       <c r="C2512" s="2" t="s">
         <v>3063</v>
+      </c>
+    </row>
+    <row r="2513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2513" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2513" s="0" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C2513" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2514" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2514" s="0" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C2514" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2515" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2515" s="0" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C2515" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2516" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2516" s="0" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C2516" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2517" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2517" s="0" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C2517" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2518" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B2518" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C2518" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2519" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B2519" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C2519" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2520" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B2520" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C2520" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2521" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B2521" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C2521" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2522" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B2522" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C2522" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2523" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2523" s="0" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C2523" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2524" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B2524" s="0" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C2524" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2525" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B2525" s="0" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C2525" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2526" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2526" s="0" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C2526" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2527" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B2527" s="0" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C2527" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2528" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B2528" s="0" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C2528" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2529" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B2529" s="0" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C2529" s="2" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2530" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B2530" s="0" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C2530" s="2" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2531" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B2531" s="0" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C2531" s="2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2532" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2532" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C2532" s="2" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2533" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B2533" s="0" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C2533" s="2" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2534" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B2534" s="0" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2534" s="2" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2535" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B2535" s="0" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2535" s="2" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2536" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B2536" s="0" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C2536" s="2" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2537" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B2537" s="0" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C2537" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2538" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B2538" s="0" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C2538" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2539" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2539" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2539" s="2" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -35972,82 +36356,82 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>3066</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>3067</v>
+        <v>3094</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>3068</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>3069</v>
+        <v>3096</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>3070</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3071</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3072</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>3073</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>3074</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>3075</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>3076</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3077</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>3078</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>3079</v>
+        <v>3106</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3080</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>3081</v>
+        <v>3108</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3082</v>
+        <v>3109</v>
       </c>
     </row>
   </sheetData>
@@ -36077,7 +36461,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>3083</v>
+        <v>3110</v>
       </c>
     </row>
   </sheetData>
@@ -36097,12 +36481,12 @@
     <tabColor rgb="FF800000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36114,32 +36498,44 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>3084</v>
+        <v>3111</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>3085</v>
+        <v>3112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3086</v>
+        <v>3113</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3087</v>
+        <v>3114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3088</v>
+        <v>3115</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3089</v>
+        <v>3116</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>3118</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>3119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>3090</v>
+        <v>3120</v>
       </c>
       <c r="B2" s="16" t="n">
         <f aca="false">SUM(B3:B220)</f>
@@ -36172,7 +36568,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>3091</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36183,7 +36579,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3092</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36253,7 +36649,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3093</v>
+        <v>3123</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>445</v>
@@ -36270,7 +36666,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3094</v>
+        <v>3124</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>469</v>
@@ -36364,10 +36760,17 @@
         <v>248</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>376</v>
+        <v>294</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">G17-F17</f>
+        <v>46</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">I17-F17</f>
         <v>128</v>
       </c>
     </row>
@@ -36414,13 +36817,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>3095</v>
+        <v>3125</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>3096</v>
+        <v>3126</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3097</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36429,7 +36832,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>3098</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36438,7 +36841,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>3099</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36778,7 +37181,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>3100</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36787,7 +37190,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>3101</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36796,7 +37199,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>3099</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37035,7 +37438,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>81</v>
@@ -37046,7 +37449,7 @@
         <v>45</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>82</v>
@@ -37057,7 +37460,7 @@
         <v>45</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>83</v>
@@ -37068,7 +37471,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>37</v>
@@ -37090,7 +37493,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>46</v>
@@ -37101,7 +37504,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>87</v>
@@ -37112,7 +37515,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>88</v>
@@ -37123,7 +37526,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>89</v>
@@ -37134,7 +37537,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>90</v>
@@ -37456,7 +37859,7 @@
         <v>114</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>3104</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37893,7 +38296,7 @@
         <v>45</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>129</v>
@@ -37904,7 +38307,7 @@
         <v>45</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>148</v>
@@ -37915,7 +38318,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>131</v>
@@ -37926,7 +38329,7 @@
         <v>45</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>132</v>
@@ -37937,7 +38340,7 @@
         <v>45</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>68</v>
@@ -37948,7 +38351,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>110</v>
@@ -37959,7 +38362,7 @@
         <v>45</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>149</v>
@@ -37970,7 +38373,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>111</v>
@@ -37981,7 +38384,7 @@
         <v>45</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>150</v>
@@ -37992,7 +38395,7 @@
         <v>45</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>122</v>
@@ -38069,7 +38472,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>3106</v>
+        <v>3136</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>81</v>
@@ -38080,7 +38483,7 @@
         <v>45</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>3106</v>
+        <v>3136</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>108</v>
@@ -38091,7 +38494,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>3106</v>
+        <v>3136</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>104</v>
@@ -38340,7 +38743,7 @@
         <v>170</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>3107</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38348,7 +38751,7 @@
         <v>170</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>3108</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38356,7 +38759,7 @@
         <v>170</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>3109</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38617,7 +39020,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>3110</v>
+        <v>3140</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>208</v>
@@ -39068,12 +39471,12 @@
         <v>260</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>3111</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>263</v>
@@ -39081,7 +39484,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>264</v>
@@ -39089,7 +39492,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>265</v>
@@ -39097,7 +39500,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>266</v>
@@ -39105,7 +39508,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>267</v>
@@ -39113,7 +39516,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>268</v>
@@ -39121,7 +39524,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>269</v>
@@ -39129,7 +39532,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>270</v>
@@ -39137,7 +39540,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>271</v>
@@ -39145,7 +39548,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>272</v>
@@ -39153,7 +39556,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C257" s="17" t="s">
         <v>273</v>
@@ -39188,7 +39591,7 @@
         <v>170</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>3107</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39196,7 +39599,7 @@
         <v>170</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>3108</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39204,7 +39607,7 @@
         <v>170</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>3113</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39465,7 +39868,7 @@
         <v>170</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>3110</v>
+        <v>3140</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>208</v>
@@ -39916,12 +40319,12 @@
         <v>260</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>3111</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C329" s="17" t="s">
         <v>263</v>
@@ -39929,7 +40332,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C330" s="17" t="s">
         <v>264</v>
@@ -39937,7 +40340,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C331" s="17" t="s">
         <v>265</v>
@@ -39945,7 +40348,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C332" s="17" t="s">
         <v>266</v>
@@ -39953,7 +40356,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C333" s="17" t="s">
         <v>267</v>
@@ -39961,7 +40364,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C334" s="17" t="s">
         <v>268</v>
@@ -39969,7 +40372,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C335" s="17" t="s">
         <v>269</v>
@@ -39977,7 +40380,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C336" s="17" t="s">
         <v>270</v>
@@ -39985,7 +40388,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C337" s="17" t="s">
         <v>271</v>
@@ -39993,7 +40396,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C338" s="17" t="s">
         <v>272</v>
@@ -40001,7 +40404,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C339" s="17" t="s">
         <v>273</v>
@@ -40009,7 +40412,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C340" s="17" t="s">
         <v>274</v>
@@ -40017,7 +40420,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C341" s="17" t="s">
         <v>275</v>
@@ -40025,7 +40428,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C342" s="17" t="s">
         <v>276</v>
@@ -40033,7 +40436,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C343" s="17" t="s">
         <v>277</v>
@@ -40041,7 +40444,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C344" s="17" t="s">
         <v>278</v>
@@ -40049,15 +40452,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>3114</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>280</v>
@@ -40068,7 +40471,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>282</v>
@@ -40079,7 +40482,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>284</v>
@@ -40090,7 +40493,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>284</v>
@@ -40101,7 +40504,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>284</v>
@@ -40112,7 +40515,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>284</v>
@@ -40123,7 +40526,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>284</v>
@@ -40134,7 +40537,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>290</v>
@@ -40145,7 +40548,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>292</v>
@@ -40156,7 +40559,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>292</v>
@@ -40167,7 +40570,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>295</v>
@@ -40178,7 +40581,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>297</v>
@@ -40189,7 +40592,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>297</v>
@@ -40200,7 +40603,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>297</v>
@@ -40211,7 +40614,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>297</v>
@@ -40222,7 +40625,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>297</v>
@@ -40233,7 +40636,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>303</v>
@@ -40244,7 +40647,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>305</v>
@@ -40255,7 +40658,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>305</v>
@@ -40266,7 +40669,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>308</v>
@@ -40277,7 +40680,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>310</v>
@@ -40288,18 +40691,18 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>3115</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>313</v>
@@ -40310,7 +40713,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>313</v>
@@ -40321,7 +40724,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>313</v>
@@ -40332,7 +40735,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>317</v>
@@ -40343,7 +40746,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>21</v>
@@ -40354,7 +40757,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>21</v>
@@ -40365,7 +40768,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>321</v>
@@ -40376,7 +40779,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>321</v>
@@ -40387,7 +40790,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>324</v>
@@ -40398,7 +40801,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>324</v>
@@ -40409,7 +40812,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>324</v>
@@ -40420,7 +40823,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>324</v>
@@ -40431,7 +40834,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>324</v>
@@ -40442,29 +40845,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>3116</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>3117</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>324</v>
@@ -40475,7 +40878,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>324</v>
@@ -40486,7 +40889,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>324</v>
@@ -40497,7 +40900,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>331</v>
@@ -40508,7 +40911,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>331</v>
@@ -40519,7 +40922,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>333</v>
@@ -40530,7 +40933,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>335</v>
@@ -40541,7 +40944,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>336</v>
@@ -40552,7 +40955,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>336</v>
@@ -40563,7 +40966,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>336</v>
@@ -40574,7 +40977,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>336</v>
@@ -40585,7 +40988,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>336</v>
@@ -40596,7 +40999,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>336</v>
@@ -40607,7 +41010,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>341</v>
@@ -40618,7 +41021,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>341</v>
@@ -40629,7 +41032,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>341</v>
@@ -40640,7 +41043,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>344</v>
@@ -40651,7 +41054,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>344</v>
@@ -40662,7 +41065,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>344</v>
@@ -40673,10 +41076,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>3118</v>
+        <v>3148</v>
       </c>
       <c r="C402" s="17" t="s">
         <v>347</v>
@@ -40684,7 +41087,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="8" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>348</v>
@@ -40698,7 +41101,7 @@
         <v>238</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>3111</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40706,7 +41109,7 @@
         <v>349</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>3119</v>
+        <v>3149</v>
       </c>
       <c r="C405" s="17" t="s">
         <v>350</v>
@@ -40717,7 +41120,7 @@
         <v>349</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>3119</v>
+        <v>3149</v>
       </c>
       <c r="C406" s="17" t="s">
         <v>58</v>
@@ -40891,7 +41294,7 @@
         <v>369</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>3120</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40915,7 +41318,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="17" t="s">
-        <v>3121</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40972,7 +41375,7 @@
         <v>378</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>3122</v>
+        <v>3152</v>
       </c>
       <c r="C433" s="17" t="s">
         <v>385</v>
@@ -41038,7 +41441,7 @@
         <v>378</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>3123</v>
+        <v>3153</v>
       </c>
       <c r="C439" s="17" t="s">
         <v>396</v>
@@ -41085,7 +41488,7 @@
         <v>402</v>
       </c>
       <c r="C443" s="17" t="s">
-        <v>3124</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41148,7 +41551,7 @@
         <v>378</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>3125</v>
+        <v>3155</v>
       </c>
       <c r="C449" s="17" t="s">
         <v>414</v>
@@ -41159,7 +41562,7 @@
         <v>378</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>3125</v>
+        <v>3155</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>415</v>
@@ -41170,7 +41573,7 @@
         <v>378</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>3126</v>
+        <v>3156</v>
       </c>
       <c r="C451" s="17" t="s">
         <v>364</v>
@@ -41181,7 +41584,7 @@
         <v>378</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>3127</v>
+        <v>3157</v>
       </c>
       <c r="C452" s="17" t="s">
         <v>145</v>
@@ -41192,7 +41595,7 @@
         <v>378</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>3128</v>
+        <v>3158</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>353</v>
@@ -41206,7 +41609,7 @@
         <v>418</v>
       </c>
       <c r="C454" s="17" t="s">
-        <v>3129</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41294,7 +41697,7 @@
         <v>430</v>
       </c>
       <c r="C462" s="17" t="s">
-        <v>3130</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41544,7 +41947,7 @@
         <v>378</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C485" s="17" t="s">
         <v>455</v>
@@ -41555,7 +41958,7 @@
         <v>378</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C486" s="17" t="s">
         <v>421</v>
@@ -41566,7 +41969,7 @@
         <v>378</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C487" s="17" t="s">
         <v>455</v>
@@ -41577,10 +41980,10 @@
         <v>378</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>3132</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41588,7 +41991,7 @@
         <v>378</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C489" s="17" t="s">
         <v>456</v>
@@ -41599,7 +42002,7 @@
         <v>378</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C490" s="17" t="s">
         <v>457</v>
@@ -41610,7 +42013,7 @@
         <v>378</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C491" s="17" t="s">
         <v>206</v>
@@ -41621,7 +42024,7 @@
         <v>378</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>3133</v>
+        <v>3163</v>
       </c>
       <c r="C492" s="17" t="s">
         <v>457</v>
@@ -41632,7 +42035,7 @@
         <v>378</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>3134</v>
+        <v>3164</v>
       </c>
       <c r="C493" s="17" t="s">
         <v>459</v>
@@ -41676,7 +42079,7 @@
         <v>378</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>3135</v>
+        <v>3165</v>
       </c>
       <c r="C497" s="17" t="s">
         <v>371</v>
@@ -41687,7 +42090,7 @@
         <v>378</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>3136</v>
+        <v>3166</v>
       </c>
       <c r="C498" s="17" t="s">
         <v>371</v>
@@ -41698,7 +42101,7 @@
         <v>378</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>3137</v>
+        <v>3167</v>
       </c>
       <c r="C499" s="17" t="s">
         <v>371</v>
@@ -42039,7 +42442,7 @@
         <v>378</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C530" s="17" t="s">
         <v>455</v>
@@ -42050,7 +42453,7 @@
         <v>378</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C531" s="17" t="s">
         <v>421</v>
@@ -42061,7 +42464,7 @@
         <v>378</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C532" s="17" t="s">
         <v>455</v>
@@ -42072,7 +42475,7 @@
         <v>378</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C533" s="17" t="s">
         <v>456</v>
@@ -42083,7 +42486,7 @@
         <v>378</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C534" s="17" t="s">
         <v>457</v>
@@ -42094,7 +42497,7 @@
         <v>378</v>
       </c>
       <c r="C535" s="17" t="s">
-        <v>3139</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42102,7 +42505,7 @@
         <v>378</v>
       </c>
       <c r="C536" s="17" t="s">
-        <v>3140</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42113,12 +42516,12 @@
         <v>494</v>
       </c>
       <c r="C537" s="17" t="s">
-        <v>3130</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="18" t="s">
-        <v>3141</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42134,7 +42537,7 @@
         <v>1123</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>3142</v>
+        <v>3172</v>
       </c>
       <c r="C540" s="17" t="s">
         <v>498</v>
@@ -42228,7 +42631,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="8" t="s">
-        <v>3143</v>
+        <v>3173</v>
       </c>
       <c r="C551" s="17" t="s">
         <v>502</v>
@@ -42271,7 +42674,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="8" t="s">
-        <v>3144</v>
+        <v>3174</v>
       </c>
       <c r="C556" s="17" t="s">
         <v>515</v>
@@ -42279,7 +42682,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="8" t="s">
-        <v>3145</v>
+        <v>3175</v>
       </c>
       <c r="C557" s="17" t="s">
         <v>515</v>
@@ -42352,7 +42755,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="8" t="s">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="C565" s="17" t="s">
         <v>515</v>
@@ -42476,7 +42879,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="8" t="s">
-        <v>3147</v>
+        <v>3177</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>545</v>
@@ -42643,7 +43046,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="8" t="s">
-        <v>3148</v>
+        <v>3178</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>564</v>
@@ -42654,7 +43057,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="8" t="s">
-        <v>3149</v>
+        <v>3179</v>
       </c>
       <c r="B599" s="6" t="s">
         <v>566</v>
@@ -42665,7 +43068,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="8" t="s">
-        <v>3150</v>
+        <v>3180</v>
       </c>
       <c r="C600" s="17" t="s">
         <v>554</v>
@@ -42799,7 +43202,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3144</v>
+        <v>3174</v>
       </c>
       <c r="C613" s="17" t="s">
         <v>584</v>
@@ -42826,7 +43229,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="8" t="s">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="C616" s="17" t="s">
         <v>584</v>
@@ -42894,7 +43297,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="8" t="s">
-        <v>3151</v>
+        <v>3181</v>
       </c>
       <c r="B623" s="6" t="s">
         <v>594</v>
@@ -42953,7 +43356,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="8" t="s">
-        <v>3152</v>
+        <v>3182</v>
       </c>
       <c r="C630" s="17" t="s">
         <v>584</v>
@@ -42972,7 +43375,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="8" t="s">
-        <v>3144</v>
+        <v>3174</v>
       </c>
       <c r="B632" s="6" t="s">
         <v>604</v>
@@ -43010,7 +43413,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="8" t="s">
-        <v>3144</v>
+        <v>3174</v>
       </c>
       <c r="B636" s="6" t="s">
         <v>608</v>
@@ -43084,7 +43487,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="8" t="s">
-        <v>3153</v>
+        <v>3183</v>
       </c>
       <c r="C643" s="17" t="s">
         <v>268</v>
@@ -43133,7 +43536,7 @@
         <v>533</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>3154</v>
+        <v>3184</v>
       </c>
       <c r="C648" s="17" t="s">
         <v>619</v>
@@ -43152,7 +43555,7 @@
         <v>533</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>3154</v>
+        <v>3184</v>
       </c>
       <c r="C650" s="17" t="s">
         <v>622</v>
@@ -43168,7 +43571,7 @@
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="8" t="s">
-        <v>3155</v>
+        <v>3185</v>
       </c>
       <c r="C652" s="17" t="s">
         <v>624</v>
@@ -43184,7 +43587,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="8" t="s">
-        <v>3156</v>
+        <v>3186</v>
       </c>
       <c r="C654" s="17" t="s">
         <v>628</v>
@@ -43249,10 +43652,10 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="8" t="s">
-        <v>3157</v>
+        <v>3187</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>3158</v>
+        <v>3188</v>
       </c>
       <c r="C661" s="17" t="s">
         <v>634</v>
@@ -43656,7 +44059,7 @@
         <v>673</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>3159</v>
+        <v>3189</v>
       </c>
       <c r="C701" s="17" t="s">
         <v>689</v>
@@ -43667,7 +44070,7 @@
         <v>673</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>3159</v>
+        <v>3189</v>
       </c>
       <c r="C702" s="17" t="s">
         <v>694</v>
@@ -43700,7 +44103,7 @@
         <v>699</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3160</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43763,7 +44166,7 @@
         <v>499</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>3161</v>
+        <v>3191</v>
       </c>
       <c r="C711" s="17" t="s">
         <v>711</v>
@@ -43774,7 +44177,7 @@
         <v>695</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>3162</v>
+        <v>3192</v>
       </c>
       <c r="C712" s="17" t="s">
         <v>711</v>
@@ -43867,7 +44270,7 @@
         <v>728</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>3163</v>
+        <v>3193</v>
       </c>
       <c r="C721" s="17" t="s">
         <v>730</v>
@@ -43878,7 +44281,7 @@
         <v>731</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>3164</v>
+        <v>3194</v>
       </c>
       <c r="C722" s="17" t="s">
         <v>733</v>
@@ -43914,7 +44317,7 @@
         <v>738</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3165</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44007,7 +44410,7 @@
         <v>545</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3166</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44059,7 +44462,7 @@
         <v>771</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>3167</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44220,7 +44623,7 @@
         <v>799</v>
       </c>
       <c r="C755" s="17" t="s">
-        <v>3168</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44250,10 +44653,10 @@
         <v>805</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>3169</v>
+        <v>3199</v>
       </c>
       <c r="C758" s="17" t="s">
-        <v>3170</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44283,7 +44686,7 @@
         <v>805</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>3171</v>
+        <v>3201</v>
       </c>
       <c r="C761" s="17" t="s">
         <v>813</v>
@@ -44294,7 +44697,7 @@
         <v>805</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>3172</v>
+        <v>3202</v>
       </c>
       <c r="C762" s="17" t="s">
         <v>813</v>
@@ -44308,7 +44711,7 @@
         <v>816</v>
       </c>
       <c r="C763" s="17" t="s">
-        <v>3173</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44319,7 +44722,7 @@
         <v>819</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>3174</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44511,7 +44914,7 @@
         <v>852</v>
       </c>
       <c r="C782" s="17" t="s">
-        <v>3175</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44533,7 +44936,7 @@
         <v>856</v>
       </c>
       <c r="C784" s="17" t="s">
-        <v>3175</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44544,7 +44947,7 @@
         <v>139</v>
       </c>
       <c r="C785" s="17" t="s">
-        <v>3176</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44953,7 +45356,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="8" t="s">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="B826" s="6" t="s">
         <v>608</v>
@@ -44964,7 +45367,7 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="8" t="s">
-        <v>3148</v>
+        <v>3178</v>
       </c>
       <c r="B827" s="6" t="s">
         <v>930</v>
@@ -45093,7 +45496,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="8" t="s">
-        <v>3144</v>
+        <v>3174</v>
       </c>
       <c r="B839" s="6" t="s">
         <v>951</v>
@@ -45147,7 +45550,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="8" t="s">
-        <v>3156</v>
+        <v>3186</v>
       </c>
       <c r="B845" s="6" t="s">
         <v>962</v>
@@ -45169,7 +45572,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="8" t="s">
-        <v>3177</v>
+        <v>3207</v>
       </c>
       <c r="B847" s="6" t="s">
         <v>965</v>
@@ -45292,7 +45695,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B859" s="6" t="s">
         <v>988</v>
@@ -45377,7 +45780,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="8" t="s">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="B867" s="6" t="s">
         <v>1000</v>
@@ -45520,10 +45923,10 @@
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="8" t="s">
-        <v>3179</v>
+        <v>3209</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>3180</v>
+        <v>3210</v>
       </c>
       <c r="C881" s="17" t="s">
         <v>1026</v>
@@ -45629,7 +46032,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="8" t="s">
-        <v>3181</v>
+        <v>3211</v>
       </c>
       <c r="B892" s="6" t="s">
         <v>1035</v>
@@ -45705,7 +46108,7 @@
         <v>615</v>
       </c>
       <c r="B900" s="6" t="s">
-        <v>3182</v>
+        <v>3212</v>
       </c>
       <c r="C900" s="17" t="s">
         <v>1053</v>
@@ -45716,7 +46119,7 @@
         <v>1054</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>3183</v>
+        <v>3213</v>
       </c>
       <c r="C901" s="17" t="s">
         <v>1053</v>
@@ -45861,7 +46264,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="8" t="s">
-        <v>3184</v>
+        <v>3214</v>
       </c>
       <c r="C915" s="17" t="s">
         <v>1081</v>
@@ -45938,7 +46341,7 @@
         <v>1093</v>
       </c>
       <c r="B922" s="6" t="s">
-        <v>3162</v>
+        <v>3192</v>
       </c>
       <c r="C922" s="17" t="s">
         <v>1095</v>
@@ -45962,7 +46365,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="8" t="s">
-        <v>3185</v>
+        <v>3215</v>
       </c>
       <c r="C925" s="17" t="s">
         <v>1101</v>
@@ -46105,7 +46508,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="C941" s="17" t="s">
         <v>1124</v>
@@ -46113,7 +46516,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B942" s="6" t="s">
         <v>906</v>
@@ -46124,10 +46527,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>3186</v>
+        <v>3216</v>
       </c>
       <c r="C943" s="17" t="s">
         <v>1125</v>
@@ -46135,7 +46538,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="8" t="s">
-        <v>3187</v>
+        <v>3217</v>
       </c>
       <c r="B944" s="6" t="s">
         <v>1128</v>
@@ -46146,7 +46549,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B945" s="6" t="s">
         <v>1130</v>
@@ -46168,7 +46571,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B947" s="6" t="s">
         <v>1134</v>
@@ -46179,7 +46582,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B948" s="6" t="s">
         <v>1135</v>
@@ -46190,7 +46593,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B949" s="6" t="s">
         <v>1135</v>
@@ -46201,7 +46604,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B950" s="6" t="s">
         <v>1138</v>
@@ -46267,7 +46670,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="8" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B956" s="6" t="s">
         <v>1150</v>
@@ -46330,7 +46733,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="6" t="s">
-        <v>3188</v>
+        <v>3218</v>
       </c>
       <c r="C962" s="17" t="s">
         <v>1161</v>
@@ -46379,7 +46782,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="8" t="s">
-        <v>3153</v>
+        <v>3183</v>
       </c>
       <c r="C967" s="17" t="s">
         <v>1171</v>
@@ -46401,7 +46804,7 @@
         <v>1054</v>
       </c>
       <c r="B969" s="6" t="s">
-        <v>3189</v>
+        <v>3219</v>
       </c>
       <c r="C969" s="17" t="s">
         <v>1176</v>
@@ -46412,7 +46815,7 @@
         <v>558</v>
       </c>
       <c r="B970" s="6" t="s">
-        <v>3182</v>
+        <v>3212</v>
       </c>
       <c r="C970" s="17" t="s">
         <v>1176</v>
@@ -46627,7 +47030,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="8" t="s">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="B995" s="6" t="s">
         <v>1215</v>
@@ -47058,7 +47461,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="8" t="s">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="C1038" s="17" t="s">
         <v>1281</v>
@@ -47088,7 +47491,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="8" t="s">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="B1041" s="6" t="s">
         <v>1215</v>
@@ -47269,7 +47672,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="8" t="s">
-        <v>3190</v>
+        <v>3220</v>
       </c>
       <c r="B1058" s="6" t="s">
         <v>1296</v>
@@ -47280,7 +47683,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="8" t="s">
-        <v>3153</v>
+        <v>3183</v>
       </c>
       <c r="B1059" s="6" t="s">
         <v>1297</v>
@@ -47976,7 +48379,7 @@
         <v>1377</v>
       </c>
       <c r="B1128" s="6" t="s">
-        <v>3191</v>
+        <v>3221</v>
       </c>
       <c r="C1128" s="17" t="s">
         <v>1378</v>
@@ -48085,7 +48488,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="8" t="s">
-        <v>3192</v>
+        <v>3222</v>
       </c>
       <c r="B1139" s="6" t="s">
         <v>1396</v>
@@ -48104,7 +48507,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="8" t="s">
-        <v>3193</v>
+        <v>3223</v>
       </c>
       <c r="C1141" s="17" t="s">
         <v>1399</v>
@@ -48275,7 +48678,7 @@
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="8" t="s">
-        <v>3194</v>
+        <v>3224</v>
       </c>
       <c r="C1159" s="17" t="s">
         <v>1425</v>
@@ -48302,7 +48705,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="8" t="s">
-        <v>3187</v>
+        <v>3217</v>
       </c>
       <c r="B1162" s="6" t="s">
         <v>1142</v>
@@ -48313,7 +48716,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="8" t="s">
-        <v>3187</v>
+        <v>3217</v>
       </c>
       <c r="B1163" s="6" t="s">
         <v>1430</v>
@@ -48417,7 +48820,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="8" t="s">
-        <v>3144</v>
+        <v>3174</v>
       </c>
       <c r="B1173" s="6" t="s">
         <v>1447</v>
@@ -48428,7 +48831,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="8" t="s">
-        <v>3195</v>
+        <v>3225</v>
       </c>
       <c r="C1174" s="17" t="s">
         <v>319</v>
@@ -48493,7 +48896,7 @@
         <v>1454</v>
       </c>
       <c r="B1181" s="6" t="s">
-        <v>3196</v>
+        <v>3226</v>
       </c>
       <c r="C1181" s="17" t="s">
         <v>1456</v>
@@ -48515,7 +48918,7 @@
         <v>374</v>
       </c>
       <c r="B1183" s="6" t="s">
-        <v>3197</v>
+        <v>3227</v>
       </c>
       <c r="C1183" s="17" t="s">
         <v>368</v>
@@ -48545,7 +48948,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="8" t="s">
-        <v>3198</v>
+        <v>3228</v>
       </c>
       <c r="C1186" s="17" t="s">
         <v>320</v>
@@ -48594,7 +48997,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="8" t="s">
-        <v>3185</v>
+        <v>3215</v>
       </c>
       <c r="B1191" s="6" t="s">
         <v>1469</v>
@@ -49106,12 +49509,12 @@
         <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3104</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>455</v>
@@ -49130,7 +49533,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>455</v>
@@ -49149,7 +49552,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>421</v>
@@ -49168,7 +49571,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>421</v>
@@ -49179,7 +49582,7 @@
         <v>378</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3122</v>
+        <v>3152</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>385</v>
@@ -49370,7 +49773,7 @@
         <v>378</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>3135</v>
+        <v>3165</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>371</v>
@@ -49381,7 +49784,7 @@
         <v>378</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3136</v>
+        <v>3166</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>371</v>
@@ -49392,7 +49795,7 @@
         <v>378</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3137</v>
+        <v>3167</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>371</v>
@@ -49425,7 +49828,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>37</v>
@@ -49480,7 +49883,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3106</v>
+        <v>3136</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>108</v>
@@ -49664,7 +50067,7 @@
         <v>402</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>3124</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49675,7 +50078,7 @@
         <v>494</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>3130</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49686,7 +50089,7 @@
         <v>430</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>3130</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49727,7 +50130,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>129</v>
@@ -49771,7 +50174,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>87</v>
@@ -49793,7 +50196,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
@@ -49815,7 +50218,7 @@
         <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>89</v>
@@ -49826,7 +50229,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>148</v>
@@ -49939,7 +50342,7 @@
         <v>418</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>3129</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50372,7 +50775,7 @@
         <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>131</v>
@@ -50438,7 +50841,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>90</v>
@@ -50746,7 +51149,7 @@
         <v>45</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>132</v>
@@ -50834,7 +51237,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>68</v>
@@ -50933,7 +51336,7 @@
         <v>45</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>110</v>
@@ -51186,7 +51589,7 @@
         <v>45</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>149</v>
@@ -51252,7 +51655,7 @@
         <v>45</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>111</v>
@@ -51333,7 +51736,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="s">
-        <v>3184</v>
+        <v>3214</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="17" t="s">
@@ -51392,7 +51795,7 @@
         <v>533</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>3154</v>
+        <v>3184</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>619</v>
@@ -51426,7 +51829,7 @@
         <v>819</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>3174</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51669,7 +52072,7 @@
         <v>856</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>3175</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51678,7 +52081,7 @@
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="17" t="s">
-        <v>3175</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51711,7 +52114,7 @@
         <v>139</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>3176</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52222,7 +52625,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="8" t="s">
-        <v>3148</v>
+        <v>3178</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>930</v>
@@ -52321,7 +52724,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="8" t="s">
-        <v>3199</v>
+        <v>3229</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>944</v>
@@ -52419,7 +52822,7 @@
         <v>533</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>3154</v>
+        <v>3184</v>
       </c>
       <c r="C314" s="17" t="s">
         <v>622</v>
@@ -52887,10 +53290,10 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>3179</v>
+        <v>3209</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>3180</v>
+        <v>3210</v>
       </c>
       <c r="C359" s="17" t="s">
         <v>1026</v>
@@ -53114,7 +53517,7 @@
         <v>615</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>3182</v>
+        <v>3212</v>
       </c>
       <c r="C381" s="17" t="s">
         <v>1053</v>
@@ -53125,7 +53528,7 @@
         <v>1054</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>3183</v>
+        <v>3213</v>
       </c>
       <c r="C382" s="17" t="s">
         <v>1053</v>
@@ -53230,7 +53633,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>3155</v>
+        <v>3185</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="17" t="s">
@@ -53412,7 +53815,7 @@
         <v>1093</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>3162</v>
+        <v>3192</v>
       </c>
       <c r="C409" s="17" t="s">
         <v>1095</v>
@@ -53564,7 +53967,7 @@
         <v>699</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>3160</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53630,7 +54033,7 @@
         <v>990</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>3186</v>
+        <v>3216</v>
       </c>
       <c r="C431" s="17" t="s">
         <v>1125</v>
@@ -53972,7 +54375,7 @@
         <v>558</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>3182</v>
+        <v>3212</v>
       </c>
       <c r="C463" s="17" t="s">
         <v>1176</v>
@@ -53983,7 +54386,7 @@
         <v>1054</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>3189</v>
+        <v>3219</v>
       </c>
       <c r="C464" s="17" t="s">
         <v>1176</v>
@@ -54124,7 +54527,7 @@
         <v>499</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>3161</v>
+        <v>3191</v>
       </c>
       <c r="C479" s="17" t="s">
         <v>711</v>
@@ -54135,7 +54538,7 @@
         <v>695</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>3162</v>
+        <v>3192</v>
       </c>
       <c r="C480" s="17" t="s">
         <v>711</v>
@@ -54286,7 +54689,7 @@
         <v>728</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>3163</v>
+        <v>3193</v>
       </c>
       <c r="C495" s="17" t="s">
         <v>730</v>
@@ -54297,7 +54700,7 @@
         <v>731</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>3164</v>
+        <v>3194</v>
       </c>
       <c r="C496" s="17" t="s">
         <v>733</v>
@@ -54333,7 +54736,7 @@
         <v>738</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>3165</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54428,7 +54831,7 @@
         <v>545</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>3166</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54453,10 +54856,10 @@
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="8" t="s">
-        <v>3157</v>
+        <v>3187</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>3158</v>
+        <v>3188</v>
       </c>
       <c r="C511" s="17" t="s">
         <v>634</v>
@@ -54534,7 +54937,7 @@
         <v>771</v>
       </c>
       <c r="C518" s="17" t="s">
-        <v>3167</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54742,7 +55145,7 @@
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="17" t="s">
-        <v>3168</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54783,10 +55186,10 @@
         <v>805</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>3169</v>
+        <v>3199</v>
       </c>
       <c r="C542" s="17" t="s">
-        <v>3170</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54805,7 +55208,7 @@
         <v>805</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>3171</v>
+        <v>3201</v>
       </c>
       <c r="C544" s="17" t="s">
         <v>813</v>
@@ -54827,7 +55230,7 @@
         <v>805</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>3172</v>
+        <v>3202</v>
       </c>
       <c r="C546" s="17" t="s">
         <v>813</v>
@@ -54841,7 +55244,7 @@
         <v>816</v>
       </c>
       <c r="C547" s="17" t="s">
-        <v>3173</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55162,7 +55565,7 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>3200</v>
+        <v>3230</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>1646</v>
@@ -55187,7 +55590,7 @@
         <v>556</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>3201</v>
+        <v>3231</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>1647</v>
@@ -55355,7 +55758,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="8" t="s">
-        <v>3195</v>
+        <v>3225</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>1449</v>
@@ -55438,7 +55841,7 @@
         <v>1454</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>3196</v>
+        <v>3226</v>
       </c>
       <c r="C604" s="17" t="s">
         <v>1456</v>
@@ -55468,7 +55871,7 @@
         <v>374</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>3197</v>
+        <v>3227</v>
       </c>
       <c r="C607" s="17" t="s">
         <v>368</v>
@@ -55501,7 +55904,7 @@
         <v>45</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>3106</v>
+        <v>3136</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>104</v>
@@ -55531,7 +55934,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3198</v>
+        <v>3228</v>
       </c>
       <c r="B613" s="6"/>
       <c r="C613" s="17" t="s">
@@ -55728,7 +56131,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>3202</v>
+        <v>3232</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>1493</v>
@@ -56022,7 +56425,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>3203</v>
+        <v>3233</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1521</v>
@@ -56052,7 +56455,7 @@
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="8" t="s">
-        <v>3194</v>
+        <v>3224</v>
       </c>
       <c r="B665" s="6"/>
       <c r="C665" s="17" t="s">
@@ -56407,7 +56810,7 @@
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>3204</v>
+        <v>3234</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>1574</v>
@@ -56445,7 +56848,7 @@
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>3205</v>
+        <v>3080</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>1581</v>
@@ -56708,7 +57111,7 @@
         <v>1123</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>3142</v>
+        <v>3172</v>
       </c>
       <c r="C729" s="17" t="s">
         <v>498</v>
@@ -57091,7 +57494,7 @@
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="8" t="s">
-        <v>3206</v>
+        <v>3235</v>
       </c>
       <c r="B769" s="6"/>
       <c r="C769" s="17" t="s">
@@ -57294,7 +57697,7 @@
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="8" t="s">
-        <v>3150</v>
+        <v>3180</v>
       </c>
       <c r="B790" s="6"/>
       <c r="C790" s="17" t="s">
@@ -57303,7 +57706,7 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="8" t="s">
-        <v>3148</v>
+        <v>3178</v>
       </c>
       <c r="B791" s="6" t="s">
         <v>564</v>
@@ -57799,7 +58202,7 @@
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="8" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="B840" s="0" t="s">
         <v>458</v>
@@ -57810,7 +58213,7 @@
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>457</v>
@@ -57818,7 +58221,7 @@
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>457</v>
@@ -57933,7 +58336,7 @@
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>206</v>
@@ -57966,7 +58369,7 @@
         <v>45</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>122</v>
@@ -58119,7 +58522,7 @@
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>456</v>
@@ -58127,7 +58530,7 @@
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>3138</v>
+        <v>3168</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>456</v>
@@ -58296,7 +58699,7 @@
         <v>45</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>81</v>
@@ -58307,7 +58710,7 @@
         <v>45</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>3106</v>
+        <v>3136</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>81</v>
@@ -58392,7 +58795,7 @@
         <v>45</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>46</v>
@@ -58422,7 +58825,7 @@
         <v>45</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>82</v>
@@ -58534,7 +58937,7 @@
         <v>45</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>150</v>
@@ -58622,7 +59025,7 @@
         <v>45</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>83</v>
@@ -58677,7 +59080,7 @@
         <v>378</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>3125</v>
+        <v>3155</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>414</v>
@@ -58801,7 +59204,7 @@
         <v>1696</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>3207</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58954,7 +59357,7 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="8" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="B951" s="0" t="s">
         <v>352</v>
@@ -59100,7 +59503,7 @@
         <v>378</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>3125</v>
+        <v>3155</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>415</v>
@@ -59248,7 +59651,7 @@
         <v>1769</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>3208</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59330,7 +59733,7 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>3209</v>
+        <v>3238</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>1655</v>
@@ -59524,7 +59927,7 @@
         <v>556</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>3210</v>
+        <v>3239</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>1662</v>
@@ -60224,7 +60627,7 @@
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>3205</v>
+        <v>3080</v>
       </c>
       <c r="C1076" s="0" t="s">
         <v>1722</v>
@@ -60287,7 +60690,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>3198</v>
+        <v>3228</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1727</v>
@@ -60539,7 +60942,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>3198</v>
+        <v>3228</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1758</v>
@@ -60649,7 +61052,7 @@
         <v>556</v>
       </c>
       <c r="B1116" s="0" t="s">
-        <v>3211</v>
+        <v>3240</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>1766</v>
@@ -60726,7 +61129,7 @@
         <v>499</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>3161</v>
+        <v>3191</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>219</v>
@@ -62381,7 +62784,7 @@
         <v>1377</v>
       </c>
       <c r="B1281" s="6" t="s">
-        <v>3191</v>
+        <v>3221</v>
       </c>
       <c r="C1281" s="17" t="s">
         <v>1378</v>
@@ -62642,7 +63045,7 @@
         <v>170</v>
       </c>
       <c r="C1306" s="0" t="s">
-        <v>3212</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62852,10 +63255,10 @@
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="0" t="s">
-        <v>3131</v>
+        <v>3161</v>
       </c>
       <c r="C1332" s="0" t="s">
-        <v>3213</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62863,7 +63266,7 @@
         <v>170</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>3214</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62939,7 +63342,7 @@
         <v>378</v>
       </c>
       <c r="C1342" s="0" t="s">
-        <v>3215</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62989,7 +63392,7 @@
         <v>378</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>3216</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13916" uniqueCount="3246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13941" uniqueCount="3250">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -9182,9 +9182,6 @@
     <t xml:space="preserve">xref improper attention (ayoniso manasikara)</t>
   </si>
   <si>
-    <t xml:space="preserve">cause for delusion</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -9319,12 +9316,21 @@
     <t xml:space="preserve">unwholesome roots</t>
   </si>
   <si>
+    <t xml:space="preserve">AN3.71</t>
+  </si>
+  <si>
     <t xml:space="preserve">noble eightfold path removes</t>
   </si>
   <si>
     <t xml:space="preserve">teaching for giving up</t>
   </si>
   <si>
+    <t xml:space="preserve">AN3.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.73</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mahānāma the Sakyan</t>
   </si>
   <si>
@@ -9346,10 +9352,16 @@
     <t xml:space="preserve">teachings of</t>
   </si>
   <si>
+    <t xml:space="preserve">AN3.74</t>
+  </si>
+  <si>
     <t xml:space="preserve">confidence (aveccappasāda)</t>
   </si>
   <si>
     <t xml:space="preserve">noble disciple with will not change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.75</t>
   </si>
   <si>
     <t xml:space="preserve">will not be reborn in lower worlds</t>
@@ -10091,10 +10103,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2539"/>
+  <dimension ref="A1:C2538"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2531" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2540" activeCellId="0" sqref="A2540"/>
+      <selection pane="topLeft" activeCell="C2538" activeCellId="0" sqref="C2512:C2538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35858,6 +35870,9 @@
       </c>
     </row>
     <row r="2496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2496" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="B2496" s="0" t="s">
         <v>3046</v>
       </c>
@@ -35867,7 +35882,7 @@
     </row>
     <row r="2497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2497" s="1" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="B2497" s="0" t="s">
         <v>3047</v>
@@ -35878,7 +35893,7 @@
     </row>
     <row r="2498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2498" s="1" t="s">
-        <v>627</v>
+        <v>1418</v>
       </c>
       <c r="B2498" s="0" t="s">
         <v>3048</v>
@@ -35889,37 +35904,37 @@
     </row>
     <row r="2499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2499" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B2499" s="0" t="s">
-        <v>3049</v>
+        <v>1434</v>
       </c>
       <c r="C2499" s="2" t="s">
-        <v>286</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="2500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2500" s="1" t="s">
-        <v>1434</v>
+        <v>3049</v>
       </c>
       <c r="C2500" s="2" t="s">
-        <v>1435</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="2501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2501" s="1" t="s">
-        <v>3050</v>
+        <v>3051</v>
+      </c>
+      <c r="B2501" s="0" t="s">
+        <v>3052</v>
       </c>
       <c r="C2501" s="2" t="s">
-        <v>3051</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2502" s="1" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="B2502" s="0" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="C2502" s="2" t="s">
         <v>286</v>
@@ -35927,10 +35942,10 @@
     </row>
     <row r="2503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2503" s="1" t="s">
-        <v>3054</v>
+        <v>627</v>
       </c>
       <c r="B2503" s="0" t="s">
-        <v>3055</v>
+        <v>166</v>
       </c>
       <c r="C2503" s="2" t="s">
         <v>286</v>
@@ -35938,10 +35953,10 @@
     </row>
     <row r="2504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2504" s="1" t="s">
-        <v>627</v>
+        <v>1431</v>
       </c>
       <c r="B2504" s="0" t="s">
-        <v>166</v>
+        <v>3055</v>
       </c>
       <c r="C2504" s="2" t="s">
         <v>286</v>
@@ -35949,13 +35964,13 @@
     </row>
     <row r="2505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2505" s="1" t="s">
-        <v>1431</v>
+        <v>1580</v>
       </c>
       <c r="B2505" s="0" t="s">
         <v>3056</v>
       </c>
       <c r="C2505" s="2" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35971,7 +35986,7 @@
     </row>
     <row r="2507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2507" s="1" t="s">
-        <v>1580</v>
+        <v>2890</v>
       </c>
       <c r="B2507" s="0" t="s">
         <v>3058</v>
@@ -35982,7 +35997,7 @@
     </row>
     <row r="2508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2508" s="1" t="s">
-        <v>2890</v>
+        <v>625</v>
       </c>
       <c r="B2508" s="0" t="s">
         <v>3059</v>
@@ -35993,10 +36008,10 @@
     </row>
     <row r="2509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2509" s="1" t="s">
-        <v>625</v>
+        <v>3060</v>
       </c>
       <c r="B2509" s="0" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="C2509" s="2" t="s">
         <v>362</v>
@@ -36004,32 +36019,32 @@
     </row>
     <row r="2510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2510" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B2510" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C2510" s="2" t="s">
         <v>3062</v>
-      </c>
-      <c r="C2510" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2511" s="1" t="s">
-        <v>1325</v>
+        <v>3063</v>
+      </c>
+      <c r="B2511" s="0" t="s">
+        <v>3064</v>
       </c>
       <c r="C2511" s="2" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="2512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2512" s="1" t="s">
-        <v>3064</v>
+        <v>1325</v>
       </c>
       <c r="B2512" s="0" t="s">
         <v>3065</v>
       </c>
       <c r="C2512" s="2" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="2513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36039,8 +36054,8 @@
       <c r="B2513" s="0" t="s">
         <v>3066</v>
       </c>
-      <c r="C2513" s="2" t="n">
-        <v>70</v>
+      <c r="C2513" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36050,8 +36065,8 @@
       <c r="B2514" s="0" t="s">
         <v>3067</v>
       </c>
-      <c r="C2514" s="2" t="n">
-        <v>70</v>
+      <c r="C2514" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36061,8 +36076,8 @@
       <c r="B2515" s="0" t="s">
         <v>3068</v>
       </c>
-      <c r="C2515" s="2" t="n">
-        <v>70</v>
+      <c r="C2515" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36072,85 +36087,85 @@
       <c r="B2516" s="0" t="s">
         <v>3069</v>
       </c>
-      <c r="C2516" s="2" t="n">
-        <v>70</v>
+      <c r="C2516" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2517" s="1" t="s">
-        <v>1325</v>
+        <v>3005</v>
       </c>
       <c r="B2517" s="0" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C2517" s="2" t="n">
-        <v>70</v>
+        <v>1751</v>
+      </c>
+      <c r="C2517" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2518" s="1" t="s">
-        <v>3005</v>
+        <v>2365</v>
       </c>
       <c r="B2518" s="0" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C2518" s="2" t="n">
-        <v>70</v>
+        <v>3070</v>
+      </c>
+      <c r="C2518" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2519" s="1" t="s">
-        <v>2365</v>
+        <v>2380</v>
       </c>
       <c r="B2519" s="0" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C2519" s="2" t="n">
-        <v>70</v>
+        <v>3070</v>
+      </c>
+      <c r="C2519" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2520" s="1" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="B2520" s="0" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C2520" s="2" t="n">
-        <v>70</v>
+        <v>3070</v>
+      </c>
+      <c r="C2520" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2521" s="1" t="s">
-        <v>2381</v>
+        <v>3071</v>
       </c>
       <c r="B2521" s="0" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C2521" s="2" t="n">
-        <v>70</v>
+        <v>3070</v>
+      </c>
+      <c r="C2521" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2522" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2522" s="0" t="s">
         <v>3072</v>
       </c>
-      <c r="B2522" s="0" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C2522" s="2" t="n">
-        <v>70</v>
+      <c r="C2522" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2523" s="1" t="s">
-        <v>695</v>
+        <v>3073</v>
       </c>
       <c r="B2523" s="0" t="s">
-        <v>3073</v>
-      </c>
-      <c r="C2523" s="2" t="n">
-        <v>70</v>
+        <v>3070</v>
+      </c>
+      <c r="C2523" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36158,65 +36173,65 @@
         <v>3074</v>
       </c>
       <c r="B2524" s="0" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C2524" s="2" t="n">
-        <v>70</v>
+        <v>3075</v>
+      </c>
+      <c r="C2524" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2525" s="1" t="s">
-        <v>3075</v>
+        <v>1325</v>
       </c>
       <c r="B2525" s="0" t="s">
         <v>3076</v>
       </c>
-      <c r="C2525" s="2" t="n">
-        <v>70</v>
+      <c r="C2525" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2526" s="1" t="s">
-        <v>1325</v>
+        <v>2716</v>
       </c>
       <c r="B2526" s="0" t="s">
-        <v>3077</v>
-      </c>
-      <c r="C2526" s="2" t="n">
-        <v>70</v>
+        <v>1786</v>
+      </c>
+      <c r="C2526" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2527" s="1" t="s">
-        <v>2716</v>
+        <v>3077</v>
       </c>
       <c r="B2527" s="0" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C2527" s="2" t="n">
-        <v>70</v>
+        <v>3078</v>
+      </c>
+      <c r="C2527" s="2" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="2528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2528" s="1" t="s">
-        <v>3078</v>
+        <v>2884</v>
       </c>
       <c r="B2528" s="0" t="s">
         <v>3079</v>
       </c>
-      <c r="C2528" s="2" t="n">
-        <v>70</v>
+      <c r="C2528" s="2" t="s">
+        <v>3080</v>
       </c>
     </row>
     <row r="2529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2529" s="1" t="s">
-        <v>2884</v>
+        <v>2897</v>
       </c>
       <c r="B2529" s="0" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C2529" s="2" t="s">
         <v>3080</v>
-      </c>
-      <c r="C2529" s="2" t="n">
-        <v>71</v>
       </c>
     </row>
     <row r="2530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36224,109 +36239,98 @@
         <v>2897</v>
       </c>
       <c r="B2530" s="0" t="s">
-        <v>3081</v>
-      </c>
-      <c r="C2530" s="2" t="n">
-        <v>71</v>
+        <v>3082</v>
+      </c>
+      <c r="C2530" s="2" t="s">
+        <v>3083</v>
       </c>
     </row>
     <row r="2531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2531" s="1" t="s">
-        <v>2897</v>
+        <v>556</v>
       </c>
       <c r="B2531" s="0" t="s">
-        <v>3082</v>
-      </c>
-      <c r="C2531" s="2" t="n">
-        <v>72</v>
+        <v>1405</v>
+      </c>
+      <c r="C2531" s="2" t="s">
+        <v>3084</v>
       </c>
     </row>
     <row r="2532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2532" s="1" t="s">
-        <v>556</v>
+        <v>3085</v>
       </c>
       <c r="B2532" s="0" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C2532" s="2" t="n">
-        <v>73</v>
+        <v>3086</v>
+      </c>
+      <c r="C2532" s="2" t="s">
+        <v>3084</v>
       </c>
     </row>
     <row r="2533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2533" s="1" t="s">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="B2533" s="0" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C2533" s="2" t="s">
         <v>3084</v>
-      </c>
-      <c r="C2533" s="2" t="n">
-        <v>73</v>
       </c>
     </row>
     <row r="2534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2534" s="1" t="s">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="B2534" s="0" t="s">
-        <v>3086</v>
-      </c>
-      <c r="C2534" s="2" t="n">
-        <v>73</v>
+        <v>3088</v>
+      </c>
+      <c r="C2534" s="2" t="s">
+        <v>3084</v>
       </c>
     </row>
     <row r="2535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2535" s="1" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="B2535" s="0" t="s">
-        <v>3086</v>
-      </c>
-      <c r="C2535" s="2" t="n">
-        <v>73</v>
+        <v>3091</v>
+      </c>
+      <c r="C2535" s="2" t="s">
+        <v>3092</v>
       </c>
     </row>
     <row r="2536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2536" s="1" t="s">
-        <v>3088</v>
+        <v>3093</v>
       </c>
       <c r="B2536" s="0" t="s">
-        <v>3089</v>
-      </c>
-      <c r="C2536" s="2" t="n">
-        <v>74</v>
+        <v>3094</v>
+      </c>
+      <c r="C2536" s="2" t="s">
+        <v>3095</v>
       </c>
     </row>
     <row r="2537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2537" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="B2537" s="0" t="s">
-        <v>3091</v>
-      </c>
-      <c r="C2537" s="2" t="n">
-        <v>75</v>
+        <v>3096</v>
+      </c>
+      <c r="C2537" s="2" t="s">
+        <v>3095</v>
       </c>
     </row>
     <row r="2538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2538" s="1" t="s">
-        <v>3085</v>
+        <v>555</v>
       </c>
       <c r="B2538" s="0" t="s">
-        <v>3092</v>
-      </c>
-      <c r="C2538" s="2" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2539" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B2539" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="C2539" s="2" t="n">
-        <v>75</v>
+      <c r="C2538" s="2" t="s">
+        <v>3095</v>
       </c>
     </row>
   </sheetData>
@@ -36349,89 +36353,89 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="C2512:C2538 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>3093</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>3094</v>
+        <v>3098</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>3095</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>3096</v>
+        <v>3100</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>3097</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3098</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3099</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>3100</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>3101</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>3102</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>3103</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3104</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>3105</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>3106</v>
+        <v>3110</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3107</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3109</v>
+        <v>3113</v>
       </c>
     </row>
   </sheetData>
@@ -36454,14 +36458,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2512:C2538 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>3110</v>
+        <v>3114</v>
       </c>
     </row>
   </sheetData>
@@ -36483,10 +36487,10 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B18" activeCellId="1" sqref="C2512:C2538 B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36506,40 +36510,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3116</v>
+        <v>3120</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3119</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="B2" s="16" t="n">
         <f aca="false">SUM(B3:B220)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -36568,7 +36572,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>3121</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36579,7 +36583,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36649,7 +36653,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>445</v>
@@ -36666,7 +36670,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>469</v>
@@ -36747,6 +36751,9 @@
       <c r="A17" s="14" t="n">
         <v>44820</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="C17" s="0" t="s">
         <v>2950</v>
       </c>
@@ -36760,11 +36767,11 @@
         <v>248</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">G17-F17</f>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>376</v>
@@ -36804,7 +36811,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1186" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1199" activeCellId="0" sqref="A1199"/>
+      <selection pane="topLeft" activeCell="A1199" activeCellId="1" sqref="C2512:C2538 A1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36817,13 +36824,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36832,7 +36839,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>3128</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36841,7 +36848,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37181,7 +37188,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37190,7 +37197,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37199,7 +37206,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37438,7 +37445,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>81</v>
@@ -37449,7 +37456,7 @@
         <v>45</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>82</v>
@@ -37460,7 +37467,7 @@
         <v>45</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>83</v>
@@ -37471,7 +37478,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>37</v>
@@ -37493,7 +37500,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>46</v>
@@ -37504,7 +37511,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>87</v>
@@ -37515,7 +37522,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>88</v>
@@ -37526,7 +37533,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>89</v>
@@ -37537,7 +37544,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>90</v>
@@ -37859,7 +37866,7 @@
         <v>114</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>3134</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38296,7 +38303,7 @@
         <v>45</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>129</v>
@@ -38307,7 +38314,7 @@
         <v>45</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>148</v>
@@ -38318,7 +38325,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>131</v>
@@ -38329,7 +38336,7 @@
         <v>45</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>132</v>
@@ -38340,7 +38347,7 @@
         <v>45</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>68</v>
@@ -38351,7 +38358,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>110</v>
@@ -38362,7 +38369,7 @@
         <v>45</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>149</v>
@@ -38373,7 +38380,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>111</v>
@@ -38384,7 +38391,7 @@
         <v>45</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>150</v>
@@ -38395,7 +38402,7 @@
         <v>45</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>122</v>
@@ -38472,7 +38479,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>81</v>
@@ -38483,7 +38490,7 @@
         <v>45</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>108</v>
@@ -38494,7 +38501,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>104</v>
@@ -38743,7 +38750,7 @@
         <v>170</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38751,7 +38758,7 @@
         <v>170</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38759,7 +38766,7 @@
         <v>170</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39020,7 +39027,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>208</v>
@@ -39471,12 +39478,12 @@
         <v>260</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>263</v>
@@ -39484,7 +39491,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>264</v>
@@ -39492,7 +39499,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>265</v>
@@ -39500,7 +39507,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>266</v>
@@ -39508,7 +39515,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>267</v>
@@ -39516,7 +39523,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>268</v>
@@ -39524,7 +39531,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>269</v>
@@ -39532,7 +39539,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>270</v>
@@ -39540,7 +39547,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>271</v>
@@ -39548,7 +39555,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>272</v>
@@ -39556,7 +39563,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C257" s="17" t="s">
         <v>273</v>
@@ -39591,7 +39598,7 @@
         <v>170</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39599,7 +39606,7 @@
         <v>170</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39607,7 +39614,7 @@
         <v>170</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>3143</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39868,7 +39875,7 @@
         <v>170</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>208</v>
@@ -40319,12 +40326,12 @@
         <v>260</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C329" s="17" t="s">
         <v>263</v>
@@ -40332,7 +40339,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C330" s="17" t="s">
         <v>264</v>
@@ -40340,7 +40347,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C331" s="17" t="s">
         <v>265</v>
@@ -40348,7 +40355,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C332" s="17" t="s">
         <v>266</v>
@@ -40356,7 +40363,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C333" s="17" t="s">
         <v>267</v>
@@ -40364,7 +40371,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C334" s="17" t="s">
         <v>268</v>
@@ -40372,7 +40379,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C335" s="17" t="s">
         <v>269</v>
@@ -40380,7 +40387,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C336" s="17" t="s">
         <v>270</v>
@@ -40388,7 +40395,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C337" s="17" t="s">
         <v>271</v>
@@ -40396,7 +40403,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C338" s="17" t="s">
         <v>272</v>
@@ -40404,7 +40411,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C339" s="17" t="s">
         <v>273</v>
@@ -40412,7 +40419,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C340" s="17" t="s">
         <v>274</v>
@@ -40420,7 +40427,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C341" s="17" t="s">
         <v>275</v>
@@ -40428,7 +40435,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C342" s="17" t="s">
         <v>276</v>
@@ -40436,7 +40443,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C343" s="17" t="s">
         <v>277</v>
@@ -40444,7 +40451,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C344" s="17" t="s">
         <v>278</v>
@@ -40452,15 +40459,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>280</v>
@@ -40471,7 +40478,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>282</v>
@@ -40482,7 +40489,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>284</v>
@@ -40493,7 +40500,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>284</v>
@@ -40504,7 +40511,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>284</v>
@@ -40515,7 +40522,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>284</v>
@@ -40526,7 +40533,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>284</v>
@@ -40537,7 +40544,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>290</v>
@@ -40548,7 +40555,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>292</v>
@@ -40559,7 +40566,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>292</v>
@@ -40570,7 +40577,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>295</v>
@@ -40581,7 +40588,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>297</v>
@@ -40592,7 +40599,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>297</v>
@@ -40603,7 +40610,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>297</v>
@@ -40614,7 +40621,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>297</v>
@@ -40625,7 +40632,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>297</v>
@@ -40636,7 +40643,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>303</v>
@@ -40647,7 +40654,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>305</v>
@@ -40658,7 +40665,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>305</v>
@@ -40669,7 +40676,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>308</v>
@@ -40680,7 +40687,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>310</v>
@@ -40691,18 +40698,18 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>313</v>
@@ -40713,7 +40720,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>313</v>
@@ -40724,7 +40731,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>313</v>
@@ -40735,7 +40742,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>317</v>
@@ -40746,7 +40753,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>21</v>
@@ -40757,7 +40764,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>21</v>
@@ -40768,7 +40775,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>321</v>
@@ -40779,7 +40786,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>321</v>
@@ -40790,7 +40797,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>324</v>
@@ -40801,7 +40808,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>324</v>
@@ -40812,7 +40819,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>324</v>
@@ -40823,7 +40830,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>324</v>
@@ -40834,7 +40841,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>324</v>
@@ -40845,29 +40852,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>324</v>
@@ -40878,7 +40885,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>324</v>
@@ -40889,7 +40896,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>324</v>
@@ -40900,7 +40907,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>331</v>
@@ -40911,7 +40918,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>331</v>
@@ -40922,7 +40929,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>333</v>
@@ -40933,7 +40940,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>335</v>
@@ -40944,7 +40951,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>336</v>
@@ -40955,7 +40962,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>336</v>
@@ -40966,7 +40973,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>336</v>
@@ -40977,7 +40984,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>336</v>
@@ -40988,7 +40995,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>336</v>
@@ -40999,7 +41006,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>336</v>
@@ -41010,7 +41017,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>341</v>
@@ -41021,7 +41028,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>341</v>
@@ -41032,7 +41039,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>341</v>
@@ -41043,7 +41050,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>344</v>
@@ -41054,7 +41061,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>344</v>
@@ -41065,7 +41072,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>344</v>
@@ -41076,10 +41083,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="C402" s="17" t="s">
         <v>347</v>
@@ -41087,7 +41094,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="8" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>348</v>
@@ -41101,7 +41108,7 @@
         <v>238</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41109,7 +41116,7 @@
         <v>349</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="C405" s="17" t="s">
         <v>350</v>
@@ -41120,7 +41127,7 @@
         <v>349</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="C406" s="17" t="s">
         <v>58</v>
@@ -41294,7 +41301,7 @@
         <v>369</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41318,7 +41325,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="17" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41375,7 +41382,7 @@
         <v>378</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="C433" s="17" t="s">
         <v>385</v>
@@ -41441,7 +41448,7 @@
         <v>378</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="C439" s="17" t="s">
         <v>396</v>
@@ -41488,7 +41495,7 @@
         <v>402</v>
       </c>
       <c r="C443" s="17" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41551,7 +41558,7 @@
         <v>378</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="C449" s="17" t="s">
         <v>414</v>
@@ -41562,7 +41569,7 @@
         <v>378</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>415</v>
@@ -41573,7 +41580,7 @@
         <v>378</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="C451" s="17" t="s">
         <v>364</v>
@@ -41584,7 +41591,7 @@
         <v>378</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="C452" s="17" t="s">
         <v>145</v>
@@ -41595,7 +41602,7 @@
         <v>378</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>353</v>
@@ -41609,7 +41616,7 @@
         <v>418</v>
       </c>
       <c r="C454" s="17" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41697,7 +41704,7 @@
         <v>430</v>
       </c>
       <c r="C462" s="17" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41947,7 +41954,7 @@
         <v>378</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C485" s="17" t="s">
         <v>455</v>
@@ -41958,7 +41965,7 @@
         <v>378</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C486" s="17" t="s">
         <v>421</v>
@@ -41969,7 +41976,7 @@
         <v>378</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C487" s="17" t="s">
         <v>455</v>
@@ -41980,10 +41987,10 @@
         <v>378</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41991,7 +41998,7 @@
         <v>378</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C489" s="17" t="s">
         <v>456</v>
@@ -42002,7 +42009,7 @@
         <v>378</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C490" s="17" t="s">
         <v>457</v>
@@ -42013,7 +42020,7 @@
         <v>378</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C491" s="17" t="s">
         <v>206</v>
@@ -42024,7 +42031,7 @@
         <v>378</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="C492" s="17" t="s">
         <v>457</v>
@@ -42035,7 +42042,7 @@
         <v>378</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="C493" s="17" t="s">
         <v>459</v>
@@ -42079,7 +42086,7 @@
         <v>378</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="C497" s="17" t="s">
         <v>371</v>
@@ -42090,7 +42097,7 @@
         <v>378</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="C498" s="17" t="s">
         <v>371</v>
@@ -42101,7 +42108,7 @@
         <v>378</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="C499" s="17" t="s">
         <v>371</v>
@@ -42442,7 +42449,7 @@
         <v>378</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C530" s="17" t="s">
         <v>455</v>
@@ -42453,7 +42460,7 @@
         <v>378</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C531" s="17" t="s">
         <v>421</v>
@@ -42464,7 +42471,7 @@
         <v>378</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C532" s="17" t="s">
         <v>455</v>
@@ -42475,7 +42482,7 @@
         <v>378</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C533" s="17" t="s">
         <v>456</v>
@@ -42486,7 +42493,7 @@
         <v>378</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C534" s="17" t="s">
         <v>457</v>
@@ -42497,7 +42504,7 @@
         <v>378</v>
       </c>
       <c r="C535" s="17" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42505,7 +42512,7 @@
         <v>378</v>
       </c>
       <c r="C536" s="17" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42516,12 +42523,12 @@
         <v>494</v>
       </c>
       <c r="C537" s="17" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="18" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42537,7 +42544,7 @@
         <v>1123</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="C540" s="17" t="s">
         <v>498</v>
@@ -42631,7 +42638,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="8" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="C551" s="17" t="s">
         <v>502</v>
@@ -42674,7 +42681,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="8" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="C556" s="17" t="s">
         <v>515</v>
@@ -42682,7 +42689,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="8" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="C557" s="17" t="s">
         <v>515</v>
@@ -42755,7 +42762,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="8" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="C565" s="17" t="s">
         <v>515</v>
@@ -42879,7 +42886,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="8" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>545</v>
@@ -43046,7 +43053,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="8" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>564</v>
@@ -43057,7 +43064,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="8" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="B599" s="6" t="s">
         <v>566</v>
@@ -43068,7 +43075,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="8" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="C600" s="17" t="s">
         <v>554</v>
@@ -43202,7 +43209,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="C613" s="17" t="s">
         <v>584</v>
@@ -43229,7 +43236,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="8" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="C616" s="17" t="s">
         <v>584</v>
@@ -43297,7 +43304,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="8" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="B623" s="6" t="s">
         <v>594</v>
@@ -43356,7 +43363,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="8" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="C630" s="17" t="s">
         <v>584</v>
@@ -43375,7 +43382,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="8" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B632" s="6" t="s">
         <v>604</v>
@@ -43413,7 +43420,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="8" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B636" s="6" t="s">
         <v>608</v>
@@ -43487,7 +43494,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="8" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="C643" s="17" t="s">
         <v>268</v>
@@ -43536,7 +43543,7 @@
         <v>533</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="C648" s="17" t="s">
         <v>619</v>
@@ -43555,7 +43562,7 @@
         <v>533</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="C650" s="17" t="s">
         <v>622</v>
@@ -43571,7 +43578,7 @@
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="8" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="C652" s="17" t="s">
         <v>624</v>
@@ -43587,7 +43594,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="8" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="C654" s="17" t="s">
         <v>628</v>
@@ -43652,10 +43659,10 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="8" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="C661" s="17" t="s">
         <v>634</v>
@@ -44059,7 +44066,7 @@
         <v>673</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="C701" s="17" t="s">
         <v>689</v>
@@ -44070,7 +44077,7 @@
         <v>673</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="C702" s="17" t="s">
         <v>694</v>
@@ -44103,7 +44110,7 @@
         <v>699</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44166,7 +44173,7 @@
         <v>499</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="C711" s="17" t="s">
         <v>711</v>
@@ -44177,7 +44184,7 @@
         <v>695</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="C712" s="17" t="s">
         <v>711</v>
@@ -44270,7 +44277,7 @@
         <v>728</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="C721" s="17" t="s">
         <v>730</v>
@@ -44281,7 +44288,7 @@
         <v>731</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="C722" s="17" t="s">
         <v>733</v>
@@ -44317,7 +44324,7 @@
         <v>738</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44410,7 +44417,7 @@
         <v>545</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44462,7 +44469,7 @@
         <v>771</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44623,7 +44630,7 @@
         <v>799</v>
       </c>
       <c r="C755" s="17" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44653,10 +44660,10 @@
         <v>805</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="C758" s="17" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44686,7 +44693,7 @@
         <v>805</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="C761" s="17" t="s">
         <v>813</v>
@@ -44697,7 +44704,7 @@
         <v>805</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="C762" s="17" t="s">
         <v>813</v>
@@ -44711,7 +44718,7 @@
         <v>816</v>
       </c>
       <c r="C763" s="17" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44722,7 +44729,7 @@
         <v>819</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44914,7 +44921,7 @@
         <v>852</v>
       </c>
       <c r="C782" s="17" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44936,7 +44943,7 @@
         <v>856</v>
       </c>
       <c r="C784" s="17" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44947,7 +44954,7 @@
         <v>139</v>
       </c>
       <c r="C785" s="17" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45356,7 +45363,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="8" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B826" s="6" t="s">
         <v>608</v>
@@ -45367,7 +45374,7 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="8" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B827" s="6" t="s">
         <v>930</v>
@@ -45496,7 +45503,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="8" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B839" s="6" t="s">
         <v>951</v>
@@ -45550,7 +45557,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="8" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="B845" s="6" t="s">
         <v>962</v>
@@ -45572,7 +45579,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="8" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="B847" s="6" t="s">
         <v>965</v>
@@ -45695,7 +45702,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B859" s="6" t="s">
         <v>988</v>
@@ -45780,7 +45787,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="8" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B867" s="6" t="s">
         <v>1000</v>
@@ -45923,10 +45930,10 @@
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="8" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="C881" s="17" t="s">
         <v>1026</v>
@@ -46032,7 +46039,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="8" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="B892" s="6" t="s">
         <v>1035</v>
@@ -46108,7 +46115,7 @@
         <v>615</v>
       </c>
       <c r="B900" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="C900" s="17" t="s">
         <v>1053</v>
@@ -46119,7 +46126,7 @@
         <v>1054</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="C901" s="17" t="s">
         <v>1053</v>
@@ -46264,7 +46271,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="8" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="C915" s="17" t="s">
         <v>1081</v>
@@ -46341,7 +46348,7 @@
         <v>1093</v>
       </c>
       <c r="B922" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="C922" s="17" t="s">
         <v>1095</v>
@@ -46365,7 +46372,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="8" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="C925" s="17" t="s">
         <v>1101</v>
@@ -46508,7 +46515,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="C941" s="17" t="s">
         <v>1124</v>
@@ -46516,7 +46523,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B942" s="6" t="s">
         <v>906</v>
@@ -46527,10 +46534,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="C943" s="17" t="s">
         <v>1125</v>
@@ -46538,7 +46545,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="8" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="B944" s="6" t="s">
         <v>1128</v>
@@ -46549,7 +46556,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B945" s="6" t="s">
         <v>1130</v>
@@ -46571,7 +46578,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B947" s="6" t="s">
         <v>1134</v>
@@ -46582,7 +46589,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B948" s="6" t="s">
         <v>1135</v>
@@ -46593,7 +46600,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B949" s="6" t="s">
         <v>1135</v>
@@ -46604,7 +46611,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B950" s="6" t="s">
         <v>1138</v>
@@ -46670,7 +46677,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="B956" s="6" t="s">
         <v>1150</v>
@@ -46733,7 +46740,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="6" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="C962" s="17" t="s">
         <v>1161</v>
@@ -46782,7 +46789,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="8" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="C967" s="17" t="s">
         <v>1171</v>
@@ -46804,7 +46811,7 @@
         <v>1054</v>
       </c>
       <c r="B969" s="6" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="C969" s="17" t="s">
         <v>1176</v>
@@ -46815,7 +46822,7 @@
         <v>558</v>
       </c>
       <c r="B970" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="C970" s="17" t="s">
         <v>1176</v>
@@ -47030,7 +47037,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="8" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B995" s="6" t="s">
         <v>1215</v>
@@ -47461,7 +47468,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="8" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="C1038" s="17" t="s">
         <v>1281</v>
@@ -47491,7 +47498,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="8" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="B1041" s="6" t="s">
         <v>1215</v>
@@ -47672,7 +47679,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="8" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="B1058" s="6" t="s">
         <v>1296</v>
@@ -47683,7 +47690,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="8" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="B1059" s="6" t="s">
         <v>1297</v>
@@ -48379,7 +48386,7 @@
         <v>1377</v>
       </c>
       <c r="B1128" s="6" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="C1128" s="17" t="s">
         <v>1378</v>
@@ -48488,7 +48495,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="8" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="B1139" s="6" t="s">
         <v>1396</v>
@@ -48507,7 +48514,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="8" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="C1141" s="17" t="s">
         <v>1399</v>
@@ -48678,7 +48685,7 @@
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="8" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="C1159" s="17" t="s">
         <v>1425</v>
@@ -48705,7 +48712,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="8" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="B1162" s="6" t="s">
         <v>1142</v>
@@ -48716,7 +48723,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="8" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="B1163" s="6" t="s">
         <v>1430</v>
@@ -48820,7 +48827,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="8" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B1173" s="6" t="s">
         <v>1447</v>
@@ -48831,7 +48838,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="8" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
       <c r="C1174" s="17" t="s">
         <v>319</v>
@@ -48896,7 +48903,7 @@
         <v>1454</v>
       </c>
       <c r="B1181" s="6" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="C1181" s="17" t="s">
         <v>1456</v>
@@ -48918,7 +48925,7 @@
         <v>374</v>
       </c>
       <c r="B1183" s="6" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="C1183" s="17" t="s">
         <v>368</v>
@@ -48948,7 +48955,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="8" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="C1186" s="17" t="s">
         <v>320</v>
@@ -48997,7 +49004,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="8" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="B1191" s="6" t="s">
         <v>1469</v>
@@ -49067,7 +49074,7 @@
   <dimension ref="A308:C992"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A777" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C858" activeCellId="0" sqref="C858"/>
+      <selection pane="topLeft" activeCell="C858" activeCellId="1" sqref="C2512:C2538 C858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49485,7 +49492,7 @@
   <dimension ref="A1:C1350"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="C2512:C2538 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49509,12 +49516,12 @@
         <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3134</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>455</v>
@@ -49533,7 +49540,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>455</v>
@@ -49552,7 +49559,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>421</v>
@@ -49571,7 +49578,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>421</v>
@@ -49582,7 +49589,7 @@
         <v>378</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>385</v>
@@ -49773,7 +49780,7 @@
         <v>378</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>371</v>
@@ -49784,7 +49791,7 @@
         <v>378</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>371</v>
@@ -49795,7 +49802,7 @@
         <v>378</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>371</v>
@@ -49828,7 +49835,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>37</v>
@@ -49883,7 +49890,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>108</v>
@@ -50067,7 +50074,7 @@
         <v>402</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50078,7 +50085,7 @@
         <v>494</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50089,7 +50096,7 @@
         <v>430</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50130,7 +50137,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>129</v>
@@ -50174,7 +50181,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>87</v>
@@ -50196,7 +50203,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
@@ -50218,7 +50225,7 @@
         <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>89</v>
@@ -50229,7 +50236,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>148</v>
@@ -50342,7 +50349,7 @@
         <v>418</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50775,7 +50782,7 @@
         <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>131</v>
@@ -50841,7 +50848,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>90</v>
@@ -51149,7 +51156,7 @@
         <v>45</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>132</v>
@@ -51237,7 +51244,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>68</v>
@@ -51336,7 +51343,7 @@
         <v>45</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>110</v>
@@ -51589,7 +51596,7 @@
         <v>45</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>149</v>
@@ -51655,7 +51662,7 @@
         <v>45</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>111</v>
@@ -51736,7 +51743,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="17" t="s">
@@ -51795,7 +51802,7 @@
         <v>533</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>619</v>
@@ -51829,7 +51836,7 @@
         <v>819</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52072,7 +52079,7 @@
         <v>856</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52081,7 +52088,7 @@
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="17" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52114,7 +52121,7 @@
         <v>139</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52625,7 +52632,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="8" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>930</v>
@@ -52724,7 +52731,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="8" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>944</v>
@@ -52822,7 +52829,7 @@
         <v>533</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="C314" s="17" t="s">
         <v>622</v>
@@ -53290,10 +53297,10 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="C359" s="17" t="s">
         <v>1026</v>
@@ -53517,7 +53524,7 @@
         <v>615</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="C381" s="17" t="s">
         <v>1053</v>
@@ -53528,7 +53535,7 @@
         <v>1054</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="C382" s="17" t="s">
         <v>1053</v>
@@ -53633,7 +53640,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="17" t="s">
@@ -53815,7 +53822,7 @@
         <v>1093</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="C409" s="17" t="s">
         <v>1095</v>
@@ -53967,7 +53974,7 @@
         <v>699</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54033,7 +54040,7 @@
         <v>990</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="C431" s="17" t="s">
         <v>1125</v>
@@ -54375,7 +54382,7 @@
         <v>558</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="C463" s="17" t="s">
         <v>1176</v>
@@ -54386,7 +54393,7 @@
         <v>1054</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="C464" s="17" t="s">
         <v>1176</v>
@@ -54527,7 +54534,7 @@
         <v>499</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="C479" s="17" t="s">
         <v>711</v>
@@ -54538,7 +54545,7 @@
         <v>695</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="C480" s="17" t="s">
         <v>711</v>
@@ -54689,7 +54696,7 @@
         <v>728</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="C495" s="17" t="s">
         <v>730</v>
@@ -54700,7 +54707,7 @@
         <v>731</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="C496" s="17" t="s">
         <v>733</v>
@@ -54736,7 +54743,7 @@
         <v>738</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54831,7 +54838,7 @@
         <v>545</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54856,10 +54863,10 @@
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="8" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="C511" s="17" t="s">
         <v>634</v>
@@ -54937,7 +54944,7 @@
         <v>771</v>
       </c>
       <c r="C518" s="17" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55145,7 +55152,7 @@
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="17" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55186,10 +55193,10 @@
         <v>805</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="C542" s="17" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55208,7 +55215,7 @@
         <v>805</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="C544" s="17" t="s">
         <v>813</v>
@@ -55230,7 +55237,7 @@
         <v>805</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="C546" s="17" t="s">
         <v>813</v>
@@ -55244,7 +55251,7 @@
         <v>816</v>
       </c>
       <c r="C547" s="17" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55565,7 +55572,7 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>1646</v>
@@ -55590,7 +55597,7 @@
         <v>556</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>1647</v>
@@ -55758,7 +55765,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="8" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>1449</v>
@@ -55841,7 +55848,7 @@
         <v>1454</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="C604" s="17" t="s">
         <v>1456</v>
@@ -55871,7 +55878,7 @@
         <v>374</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="C607" s="17" t="s">
         <v>368</v>
@@ -55904,7 +55911,7 @@
         <v>45</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>104</v>
@@ -55934,7 +55941,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="B613" s="6"/>
       <c r="C613" s="17" t="s">
@@ -56131,7 +56138,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>1493</v>
@@ -56425,7 +56432,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>3233</v>
+        <v>3237</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1521</v>
@@ -56455,7 +56462,7 @@
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="8" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="B665" s="6"/>
       <c r="C665" s="17" t="s">
@@ -56810,7 +56817,7 @@
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>1574</v>
@@ -56848,7 +56855,7 @@
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>1581</v>
@@ -57111,7 +57118,7 @@
         <v>1123</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="C729" s="17" t="s">
         <v>498</v>
@@ -57494,7 +57501,7 @@
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="8" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
       <c r="B769" s="6"/>
       <c r="C769" s="17" t="s">
@@ -57697,7 +57704,7 @@
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="8" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="B790" s="6"/>
       <c r="C790" s="17" t="s">
@@ -57706,7 +57713,7 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="8" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="B791" s="6" t="s">
         <v>564</v>
@@ -58202,7 +58209,7 @@
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="8" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="B840" s="0" t="s">
         <v>458</v>
@@ -58213,7 +58220,7 @@
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>457</v>
@@ -58221,7 +58228,7 @@
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>457</v>
@@ -58336,7 +58343,7 @@
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>206</v>
@@ -58369,7 +58376,7 @@
         <v>45</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>122</v>
@@ -58522,7 +58529,7 @@
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>456</v>
@@ -58530,7 +58537,7 @@
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>456</v>
@@ -58699,7 +58706,7 @@
         <v>45</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>81</v>
@@ -58710,7 +58717,7 @@
         <v>45</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>81</v>
@@ -58795,7 +58802,7 @@
         <v>45</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>46</v>
@@ -58825,7 +58832,7 @@
         <v>45</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>82</v>
@@ -58937,7 +58944,7 @@
         <v>45</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>150</v>
@@ -59025,7 +59032,7 @@
         <v>45</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>83</v>
@@ -59080,7 +59087,7 @@
         <v>378</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>414</v>
@@ -59204,7 +59211,7 @@
         <v>1696</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59357,7 +59364,7 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="8" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="B951" s="0" t="s">
         <v>352</v>
@@ -59503,7 +59510,7 @@
         <v>378</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>415</v>
@@ -59651,7 +59658,7 @@
         <v>1769</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59733,7 +59740,7 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>1655</v>
@@ -59927,7 +59934,7 @@
         <v>556</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>1662</v>
@@ -60627,7 +60634,7 @@
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1076" s="0" t="s">
         <v>1722</v>
@@ -60690,7 +60697,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1727</v>
@@ -60942,7 +60949,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1758</v>
@@ -61052,7 +61059,7 @@
         <v>556</v>
       </c>
       <c r="B1116" s="0" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>1766</v>
@@ -61129,7 +61136,7 @@
         <v>499</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>219</v>
@@ -62784,7 +62791,7 @@
         <v>1377</v>
       </c>
       <c r="B1281" s="6" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="C1281" s="17" t="s">
         <v>1378</v>
@@ -63045,7 +63052,7 @@
         <v>170</v>
       </c>
       <c r="C1306" s="0" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63255,10 +63262,10 @@
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="0" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="C1332" s="0" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63266,7 +63273,7 @@
         <v>170</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63342,7 +63349,7 @@
         <v>378</v>
       </c>
       <c r="C1342" s="0" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63392,7 +63399,7 @@
         <v>378</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13941" uniqueCount="3250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14088" uniqueCount="3313">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -2236,7 +2236,7 @@
     <t xml:space="preserve">Dhp53</t>
   </si>
   <si>
-    <t xml:space="preserve">simile of fragrance</t>
+    <t xml:space="preserve">like fragrance that goes against wind</t>
   </si>
   <si>
     <t xml:space="preserve">Dhp54</t>
@@ -5314,7 +5314,7 @@
     <t xml:space="preserve">Snp3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">brahmā world</t>
+    <t xml:space="preserve">brahmā realm (brahmalokā)</t>
   </si>
   <si>
     <t xml:space="preserve">how to be reborn in</t>
@@ -9367,6 +9367,221 @@
     <t xml:space="preserve">will not be reborn in lower worlds</t>
   </si>
   <si>
+    <t xml:space="preserve">continued existence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xref </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">becoming (bhava)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">becoming </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(bhava)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consciousness (viññāṇa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as moisture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensuous realm (kāmadhātu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">becoming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">form realm (rūpadhātu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formless realm (arūpadhatu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declared to be a trainee by the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precepts and observances (sīlabbata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruitful when wholesome qualities grow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifestyles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiritual path (brahmacariya)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikhi Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhibhū, disciple of Sikhi Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voice spread through galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">world system (lokadhātu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jambudīpa (India)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one thousand in a world system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sineru, king of mountains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realm of the Four Great Kings (cātumahārājikā)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galaxies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udāyī, Ven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questions Ven. Ānanada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha predicts will become an arahant in this life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duties of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donkey pretending to be a cow like wrongly practicing monastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has duties like a farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monk having difficulty following rules told to train in three things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher ethics, higher mind, higher wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breaking rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial practice, partial success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relating to training rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamental rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connection to stages of enlightenment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one-seeder (ekabīji)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enlightenment, stages of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulty following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeking in suitable places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criticizing the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN3.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asking forgiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for criticizing the Buddha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddha giving a talk on</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a difference between</t>
   </si>
   <si>
@@ -9673,6 +9888,9 @@
     <t xml:space="preserve">simile of flower</t>
   </si>
   <si>
+    <t xml:space="preserve">simile of fragrance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dhp55–6</t>
   </si>
   <si>
@@ -9806,6 +10024,9 @@
   </si>
   <si>
     <t xml:space="preserve">his attainments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahmā world</t>
   </si>
   <si>
     <t xml:space="preserve">as king of Dhamma</t>
@@ -10103,10 +10324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2538"/>
+  <dimension ref="A1:C2589"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2531" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2538" activeCellId="0" sqref="C2512:C2538"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2585" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2589" activeCellId="0" sqref="C2589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36331,6 +36552,549 @@
       </c>
       <c r="C2538" s="2" t="s">
         <v>3095</v>
+      </c>
+    </row>
+    <row r="2539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2539" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2539" s="2" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="2540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2540" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2540" s="2" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2541" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2541" s="0" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2541" s="2" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2542" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B2542" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C2542" s="2" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2543" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2543" s="0" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C2543" s="2" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2544" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B2544" s="0" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C2544" s="2" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2545" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B2545" s="0" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C2545" s="2" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2546" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B2546" s="0" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C2546" s="2" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2547" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B2547" s="0" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C2547" s="2" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="2548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2548" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B2548" s="0" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C2548" s="2" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="2549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2549" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B2549" s="0" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C2549" s="2" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="2550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2550" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B2550" s="0" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C2550" s="2" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="2551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2551" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2551" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2551" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2552" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2552" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C2552" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2553" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C2553" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2554" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B2554" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C2554" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2555" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B2555" s="0" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C2555" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2556" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B2556" s="0" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C2556" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2557" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B2557" s="0" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C2557" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2558" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B2558" s="0" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C2558" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2559" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2559" s="0" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C2559" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2560" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C2560" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2561" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B2561" s="0" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C2561" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2562" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B2562" s="0" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C2562" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2563" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B2563" s="0" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C2563" s="2" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="2564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2564" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2564" s="0" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C2564" s="2" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="2565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2565" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B2565" s="0" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C2565" s="2" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="2566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2566" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2566" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C2566" s="2" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="2567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2567" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2567" s="0" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C2567" s="2" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="2568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2568" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B2568" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2568" s="2" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="2569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2569" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C2569" s="2" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="2570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2570" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2570" s="0" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C2570" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2571" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2571" s="0" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C2571" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2572" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2572" s="0" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C2572" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2573" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2573" s="0" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C2573" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2574" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2574" s="0" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C2574" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2575" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2575" s="0" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C2575" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2576" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C2576" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2577" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B2577" s="0" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C2577" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2578" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2578" s="0" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C2578" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2579" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2579" s="0" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C2579" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2580" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2580" s="0" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C2580" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2581" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2581" s="0" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C2581" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2582" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2582" s="0" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C2582" s="2" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2583" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2583" s="0" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C2583" s="2" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="2584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2584" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2584" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2584" s="2" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="2585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2585" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B2585" s="0" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C2585" s="2" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="2586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2586" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2586" s="0" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C2586" s="2" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="2587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2587" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B2587" s="0" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C2587" s="2" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="2588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2588" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B2588" s="0" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C2588" s="2" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="2589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2589" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2589" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C2589" s="2" t="s">
+        <v>3154</v>
       </c>
     </row>
   </sheetData>
@@ -36353,89 +37117,89 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="C2512:C2538 F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>3097</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>3098</v>
+        <v>3159</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>3099</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>3100</v>
+        <v>3161</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>3101</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3102</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3103</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>3104</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>3105</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>3106</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>3107</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3108</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>3109</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>3110</v>
+        <v>3171</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3111</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>3112</v>
+        <v>3173</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3113</v>
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
@@ -36458,14 +37222,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2512:C2538 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>3114</v>
+        <v>3175</v>
       </c>
     </row>
   </sheetData>
@@ -36487,10 +37251,10 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B18" activeCellId="1" sqref="C2512:C2538 B18"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36510,40 +37274,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>3115</v>
+        <v>3176</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>3116</v>
+        <v>3177</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3117</v>
+        <v>3178</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3118</v>
+        <v>3179</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3119</v>
+        <v>3180</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3120</v>
+        <v>3181</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3121</v>
+        <v>3182</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3122</v>
+        <v>3183</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3123</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>3124</v>
+        <v>3185</v>
       </c>
       <c r="B2" s="16" t="n">
         <f aca="false">SUM(B3:B220)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -36572,7 +37336,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>3125</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36583,7 +37347,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3126</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36653,7 +37417,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3127</v>
+        <v>3188</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>445</v>
@@ -36670,7 +37434,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3128</v>
+        <v>3189</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>469</v>
@@ -36752,7 +37516,7 @@
         <v>44820</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>2950</v>
@@ -36767,11 +37531,11 @@
         <v>248</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">G17-F17</f>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>376</v>
@@ -36811,7 +37575,7 @@
   <dimension ref="A1:C1197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1186" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1199" activeCellId="1" sqref="C2512:C2538 A1199"/>
+      <selection pane="topLeft" activeCell="A1199" activeCellId="0" sqref="A1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36824,13 +37588,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>3129</v>
+        <v>3190</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>3130</v>
+        <v>3191</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3131</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36839,7 +37603,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>3132</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36848,7 +37612,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>3133</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37188,7 +37952,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>3134</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37197,7 +37961,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>3135</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37206,7 +37970,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>3133</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37445,7 +38209,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>81</v>
@@ -37456,7 +38220,7 @@
         <v>45</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>82</v>
@@ -37467,7 +38231,7 @@
         <v>45</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>83</v>
@@ -37478,7 +38242,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>37</v>
@@ -37500,7 +38264,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>46</v>
@@ -37511,7 +38275,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>87</v>
@@ -37522,7 +38286,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>88</v>
@@ -37533,7 +38297,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>89</v>
@@ -37544,7 +38308,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>90</v>
@@ -37866,7 +38630,7 @@
         <v>114</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>3138</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38303,7 +39067,7 @@
         <v>45</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>129</v>
@@ -38314,7 +39078,7 @@
         <v>45</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>148</v>
@@ -38325,7 +39089,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>131</v>
@@ -38336,7 +39100,7 @@
         <v>45</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>132</v>
@@ -38347,7 +39111,7 @@
         <v>45</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>68</v>
@@ -38358,7 +39122,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>110</v>
@@ -38369,7 +39133,7 @@
         <v>45</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>149</v>
@@ -38380,7 +39144,7 @@
         <v>45</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>111</v>
@@ -38391,7 +39155,7 @@
         <v>45</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>150</v>
@@ -38402,7 +39166,7 @@
         <v>45</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>122</v>
@@ -38479,7 +39243,7 @@
         <v>45</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>3140</v>
+        <v>3201</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>81</v>
@@ -38490,7 +39254,7 @@
         <v>45</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>3140</v>
+        <v>3201</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>108</v>
@@ -38501,7 +39265,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>3140</v>
+        <v>3201</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>104</v>
@@ -38750,7 +39514,7 @@
         <v>170</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>3141</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38758,7 +39522,7 @@
         <v>170</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>3142</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38766,7 +39530,7 @@
         <v>170</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>3143</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39027,7 +39791,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>3144</v>
+        <v>3205</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>208</v>
@@ -39478,12 +40242,12 @@
         <v>260</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>3145</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>263</v>
@@ -39491,7 +40255,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>264</v>
@@ -39499,7 +40263,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>265</v>
@@ -39507,7 +40271,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C250" s="17" t="s">
         <v>266</v>
@@ -39515,7 +40279,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C251" s="17" t="s">
         <v>267</v>
@@ -39523,7 +40287,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>268</v>
@@ -39531,7 +40295,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>269</v>
@@ -39539,7 +40303,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>270</v>
@@ -39547,7 +40311,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C255" s="17" t="s">
         <v>271</v>
@@ -39555,7 +40319,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>272</v>
@@ -39563,7 +40327,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C257" s="17" t="s">
         <v>273</v>
@@ -39598,7 +40362,7 @@
         <v>170</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>3141</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39606,7 +40370,7 @@
         <v>170</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>3142</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39614,7 +40378,7 @@
         <v>170</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>3147</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39875,7 +40639,7 @@
         <v>170</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>3144</v>
+        <v>3205</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>208</v>
@@ -40326,12 +41090,12 @@
         <v>260</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>3145</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C329" s="17" t="s">
         <v>263</v>
@@ -40339,7 +41103,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C330" s="17" t="s">
         <v>264</v>
@@ -40347,7 +41111,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C331" s="17" t="s">
         <v>265</v>
@@ -40355,7 +41119,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C332" s="17" t="s">
         <v>266</v>
@@ -40363,7 +41127,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C333" s="17" t="s">
         <v>267</v>
@@ -40371,7 +41135,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C334" s="17" t="s">
         <v>268</v>
@@ -40379,7 +41143,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C335" s="17" t="s">
         <v>269</v>
@@ -40387,7 +41151,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C336" s="17" t="s">
         <v>270</v>
@@ -40395,7 +41159,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C337" s="17" t="s">
         <v>271</v>
@@ -40403,7 +41167,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C338" s="17" t="s">
         <v>272</v>
@@ -40411,7 +41175,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C339" s="17" t="s">
         <v>273</v>
@@ -40419,7 +41183,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C340" s="17" t="s">
         <v>274</v>
@@ -40427,7 +41191,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C341" s="17" t="s">
         <v>275</v>
@@ -40435,7 +41199,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C342" s="17" t="s">
         <v>276</v>
@@ -40443,7 +41207,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C343" s="17" t="s">
         <v>277</v>
@@ -40451,7 +41215,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C344" s="17" t="s">
         <v>278</v>
@@ -40459,15 +41223,15 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>3148</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>280</v>
@@ -40478,7 +41242,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>282</v>
@@ -40489,7 +41253,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>284</v>
@@ -40500,7 +41264,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>284</v>
@@ -40511,7 +41275,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>284</v>
@@ -40522,7 +41286,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>284</v>
@@ -40533,7 +41297,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>284</v>
@@ -40544,7 +41308,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>290</v>
@@ -40555,7 +41319,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>292</v>
@@ -40566,7 +41330,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>292</v>
@@ -40577,7 +41341,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>295</v>
@@ -40588,7 +41352,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>297</v>
@@ -40599,7 +41363,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>297</v>
@@ -40610,7 +41374,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>297</v>
@@ -40621,7 +41385,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>297</v>
@@ -40632,7 +41396,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>297</v>
@@ -40643,7 +41407,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>303</v>
@@ -40654,7 +41418,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>305</v>
@@ -40665,7 +41429,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>305</v>
@@ -40676,7 +41440,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>308</v>
@@ -40687,7 +41451,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>310</v>
@@ -40698,18 +41462,18 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>3149</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>313</v>
@@ -40720,7 +41484,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>313</v>
@@ -40731,7 +41495,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>313</v>
@@ -40742,7 +41506,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>317</v>
@@ -40753,7 +41517,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>21</v>
@@ -40764,7 +41528,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>21</v>
@@ -40775,7 +41539,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>321</v>
@@ -40786,7 +41550,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>321</v>
@@ -40797,7 +41561,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>324</v>
@@ -40808,7 +41572,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>324</v>
@@ -40819,7 +41583,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>324</v>
@@ -40830,7 +41594,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>324</v>
@@ -40841,7 +41605,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>324</v>
@@ -40852,29 +41616,29 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>3150</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>3151</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>324</v>
@@ -40885,7 +41649,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>324</v>
@@ -40896,7 +41660,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>324</v>
@@ -40907,7 +41671,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>331</v>
@@ -40918,7 +41682,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>331</v>
@@ -40929,7 +41693,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>333</v>
@@ -40940,7 +41704,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>335</v>
@@ -40951,7 +41715,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>336</v>
@@ -40962,7 +41726,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>336</v>
@@ -40973,7 +41737,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>336</v>
@@ -40984,7 +41748,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>336</v>
@@ -40995,7 +41759,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>336</v>
@@ -41006,7 +41770,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>336</v>
@@ -41017,7 +41781,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>341</v>
@@ -41028,7 +41792,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>341</v>
@@ -41039,7 +41803,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>341</v>
@@ -41050,7 +41814,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>344</v>
@@ -41061,7 +41825,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>344</v>
@@ -41072,7 +41836,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>344</v>
@@ -41083,10 +41847,10 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>3152</v>
+        <v>3213</v>
       </c>
       <c r="C402" s="17" t="s">
         <v>347</v>
@@ -41094,7 +41858,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="8" t="s">
-        <v>3146</v>
+        <v>3207</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>348</v>
@@ -41108,7 +41872,7 @@
         <v>238</v>
       </c>
       <c r="C404" s="17" t="s">
-        <v>3145</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41116,7 +41880,7 @@
         <v>349</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>3153</v>
+        <v>3214</v>
       </c>
       <c r="C405" s="17" t="s">
         <v>350</v>
@@ -41127,7 +41891,7 @@
         <v>349</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>3153</v>
+        <v>3214</v>
       </c>
       <c r="C406" s="17" t="s">
         <v>58</v>
@@ -41301,7 +42065,7 @@
         <v>369</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>3154</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41325,7 +42089,7 @@
         <v>374</v>
       </c>
       <c r="C427" s="17" t="s">
-        <v>3155</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41382,7 +42146,7 @@
         <v>378</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>3156</v>
+        <v>3217</v>
       </c>
       <c r="C433" s="17" t="s">
         <v>385</v>
@@ -41448,7 +42212,7 @@
         <v>378</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>3157</v>
+        <v>3218</v>
       </c>
       <c r="C439" s="17" t="s">
         <v>396</v>
@@ -41495,7 +42259,7 @@
         <v>402</v>
       </c>
       <c r="C443" s="17" t="s">
-        <v>3158</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41558,7 +42322,7 @@
         <v>378</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>3159</v>
+        <v>3220</v>
       </c>
       <c r="C449" s="17" t="s">
         <v>414</v>
@@ -41569,7 +42333,7 @@
         <v>378</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>3159</v>
+        <v>3220</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>415</v>
@@ -41580,7 +42344,7 @@
         <v>378</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>3160</v>
+        <v>3221</v>
       </c>
       <c r="C451" s="17" t="s">
         <v>364</v>
@@ -41591,7 +42355,7 @@
         <v>378</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>3161</v>
+        <v>3222</v>
       </c>
       <c r="C452" s="17" t="s">
         <v>145</v>
@@ -41602,7 +42366,7 @@
         <v>378</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>3162</v>
+        <v>3223</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>353</v>
@@ -41616,7 +42380,7 @@
         <v>418</v>
       </c>
       <c r="C454" s="17" t="s">
-        <v>3163</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41704,7 +42468,7 @@
         <v>430</v>
       </c>
       <c r="C462" s="17" t="s">
-        <v>3164</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41954,7 +42718,7 @@
         <v>378</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C485" s="17" t="s">
         <v>455</v>
@@ -41965,7 +42729,7 @@
         <v>378</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C486" s="17" t="s">
         <v>421</v>
@@ -41976,7 +42740,7 @@
         <v>378</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C487" s="17" t="s">
         <v>455</v>
@@ -41987,10 +42751,10 @@
         <v>378</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>3166</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41998,7 +42762,7 @@
         <v>378</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C489" s="17" t="s">
         <v>456</v>
@@ -42009,7 +42773,7 @@
         <v>378</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C490" s="17" t="s">
         <v>457</v>
@@ -42020,7 +42784,7 @@
         <v>378</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C491" s="17" t="s">
         <v>206</v>
@@ -42031,7 +42795,7 @@
         <v>378</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>3167</v>
+        <v>3228</v>
       </c>
       <c r="C492" s="17" t="s">
         <v>457</v>
@@ -42042,7 +42806,7 @@
         <v>378</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>3168</v>
+        <v>3229</v>
       </c>
       <c r="C493" s="17" t="s">
         <v>459</v>
@@ -42086,7 +42850,7 @@
         <v>378</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>3169</v>
+        <v>3230</v>
       </c>
       <c r="C497" s="17" t="s">
         <v>371</v>
@@ -42097,7 +42861,7 @@
         <v>378</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>3170</v>
+        <v>3231</v>
       </c>
       <c r="C498" s="17" t="s">
         <v>371</v>
@@ -42108,7 +42872,7 @@
         <v>378</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>3171</v>
+        <v>3232</v>
       </c>
       <c r="C499" s="17" t="s">
         <v>371</v>
@@ -42449,7 +43213,7 @@
         <v>378</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C530" s="17" t="s">
         <v>455</v>
@@ -42460,7 +43224,7 @@
         <v>378</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C531" s="17" t="s">
         <v>421</v>
@@ -42471,7 +43235,7 @@
         <v>378</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C532" s="17" t="s">
         <v>455</v>
@@ -42482,7 +43246,7 @@
         <v>378</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C533" s="17" t="s">
         <v>456</v>
@@ -42493,7 +43257,7 @@
         <v>378</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C534" s="17" t="s">
         <v>457</v>
@@ -42504,7 +43268,7 @@
         <v>378</v>
       </c>
       <c r="C535" s="17" t="s">
-        <v>3173</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42512,7 +43276,7 @@
         <v>378</v>
       </c>
       <c r="C536" s="17" t="s">
-        <v>3174</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42523,12 +43287,12 @@
         <v>494</v>
       </c>
       <c r="C537" s="17" t="s">
-        <v>3164</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="18" t="s">
-        <v>3175</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42544,7 +43308,7 @@
         <v>1123</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>3176</v>
+        <v>3237</v>
       </c>
       <c r="C540" s="17" t="s">
         <v>498</v>
@@ -42638,7 +43402,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="8" t="s">
-        <v>3177</v>
+        <v>3238</v>
       </c>
       <c r="C551" s="17" t="s">
         <v>502</v>
@@ -42681,7 +43445,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="8" t="s">
-        <v>3178</v>
+        <v>3239</v>
       </c>
       <c r="C556" s="17" t="s">
         <v>515</v>
@@ -42689,7 +43453,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="8" t="s">
-        <v>3179</v>
+        <v>3240</v>
       </c>
       <c r="C557" s="17" t="s">
         <v>515</v>
@@ -42762,7 +43526,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="8" t="s">
-        <v>3180</v>
+        <v>3241</v>
       </c>
       <c r="C565" s="17" t="s">
         <v>515</v>
@@ -42886,7 +43650,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="8" t="s">
-        <v>3181</v>
+        <v>3242</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>545</v>
@@ -43053,7 +43817,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="8" t="s">
-        <v>3182</v>
+        <v>3243</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>564</v>
@@ -43064,7 +43828,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="8" t="s">
-        <v>3183</v>
+        <v>3244</v>
       </c>
       <c r="B599" s="6" t="s">
         <v>566</v>
@@ -43075,7 +43839,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="8" t="s">
-        <v>3184</v>
+        <v>3245</v>
       </c>
       <c r="C600" s="17" t="s">
         <v>554</v>
@@ -43209,7 +43973,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3178</v>
+        <v>3239</v>
       </c>
       <c r="C613" s="17" t="s">
         <v>584</v>
@@ -43236,7 +44000,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="8" t="s">
-        <v>3180</v>
+        <v>3241</v>
       </c>
       <c r="C616" s="17" t="s">
         <v>584</v>
@@ -43304,7 +44068,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="8" t="s">
-        <v>3185</v>
+        <v>3246</v>
       </c>
       <c r="B623" s="6" t="s">
         <v>594</v>
@@ -43363,7 +44127,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="8" t="s">
-        <v>3186</v>
+        <v>3247</v>
       </c>
       <c r="C630" s="17" t="s">
         <v>584</v>
@@ -43382,7 +44146,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="8" t="s">
-        <v>3178</v>
+        <v>3239</v>
       </c>
       <c r="B632" s="6" t="s">
         <v>604</v>
@@ -43420,7 +44184,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="8" t="s">
-        <v>3178</v>
+        <v>3239</v>
       </c>
       <c r="B636" s="6" t="s">
         <v>608</v>
@@ -43494,7 +44258,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="8" t="s">
-        <v>3187</v>
+        <v>3248</v>
       </c>
       <c r="C643" s="17" t="s">
         <v>268</v>
@@ -43543,7 +44307,7 @@
         <v>533</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>3188</v>
+        <v>3249</v>
       </c>
       <c r="C648" s="17" t="s">
         <v>619</v>
@@ -43562,7 +44326,7 @@
         <v>533</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>3188</v>
+        <v>3249</v>
       </c>
       <c r="C650" s="17" t="s">
         <v>622</v>
@@ -43578,7 +44342,7 @@
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="8" t="s">
-        <v>3189</v>
+        <v>3250</v>
       </c>
       <c r="C652" s="17" t="s">
         <v>624</v>
@@ -43594,7 +44358,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="8" t="s">
-        <v>3190</v>
+        <v>3251</v>
       </c>
       <c r="C654" s="17" t="s">
         <v>628</v>
@@ -43659,10 +44423,10 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="8" t="s">
-        <v>3191</v>
+        <v>3252</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>3192</v>
+        <v>3253</v>
       </c>
       <c r="C661" s="17" t="s">
         <v>634</v>
@@ -44066,7 +44830,7 @@
         <v>673</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>3193</v>
+        <v>3254</v>
       </c>
       <c r="C701" s="17" t="s">
         <v>689</v>
@@ -44077,7 +44841,7 @@
         <v>673</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>3193</v>
+        <v>3254</v>
       </c>
       <c r="C702" s="17" t="s">
         <v>694</v>
@@ -44110,7 +44874,7 @@
         <v>699</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3194</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44173,7 +44937,7 @@
         <v>499</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>3195</v>
+        <v>3256</v>
       </c>
       <c r="C711" s="17" t="s">
         <v>711</v>
@@ -44184,7 +44948,7 @@
         <v>695</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>3196</v>
+        <v>3257</v>
       </c>
       <c r="C712" s="17" t="s">
         <v>711</v>
@@ -44277,7 +45041,7 @@
         <v>728</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>3197</v>
+        <v>3258</v>
       </c>
       <c r="C721" s="17" t="s">
         <v>730</v>
@@ -44288,7 +45052,7 @@
         <v>731</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>3198</v>
+        <v>3259</v>
       </c>
       <c r="C722" s="17" t="s">
         <v>733</v>
@@ -44310,7 +45074,7 @@
         <v>8</v>
       </c>
       <c r="B724" s="6" t="s">
-        <v>736</v>
+        <v>3260</v>
       </c>
       <c r="C724" s="17" t="s">
         <v>737</v>
@@ -44324,7 +45088,7 @@
         <v>738</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3199</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44417,7 +45181,7 @@
         <v>545</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3200</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44469,7 +45233,7 @@
         <v>771</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>3201</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44630,7 +45394,7 @@
         <v>799</v>
       </c>
       <c r="C755" s="17" t="s">
-        <v>3202</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44660,10 +45424,10 @@
         <v>805</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>3203</v>
+        <v>3265</v>
       </c>
       <c r="C758" s="17" t="s">
-        <v>3204</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44693,7 +45457,7 @@
         <v>805</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>3205</v>
+        <v>3267</v>
       </c>
       <c r="C761" s="17" t="s">
         <v>813</v>
@@ -44704,7 +45468,7 @@
         <v>805</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>3206</v>
+        <v>3268</v>
       </c>
       <c r="C762" s="17" t="s">
         <v>813</v>
@@ -44718,7 +45482,7 @@
         <v>816</v>
       </c>
       <c r="C763" s="17" t="s">
-        <v>3207</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44729,7 +45493,7 @@
         <v>819</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>3208</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44921,7 +45685,7 @@
         <v>852</v>
       </c>
       <c r="C782" s="17" t="s">
-        <v>3209</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44943,7 +45707,7 @@
         <v>856</v>
       </c>
       <c r="C784" s="17" t="s">
-        <v>3209</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44954,7 +45718,7 @@
         <v>139</v>
       </c>
       <c r="C785" s="17" t="s">
-        <v>3210</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45363,7 +46127,7 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="8" t="s">
-        <v>3180</v>
+        <v>3241</v>
       </c>
       <c r="B826" s="6" t="s">
         <v>608</v>
@@ -45374,7 +46138,7 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="8" t="s">
-        <v>3182</v>
+        <v>3243</v>
       </c>
       <c r="B827" s="6" t="s">
         <v>930</v>
@@ -45503,7 +46267,7 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="8" t="s">
-        <v>3178</v>
+        <v>3239</v>
       </c>
       <c r="B839" s="6" t="s">
         <v>951</v>
@@ -45557,7 +46321,7 @@
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="8" t="s">
-        <v>3190</v>
+        <v>3251</v>
       </c>
       <c r="B845" s="6" t="s">
         <v>962</v>
@@ -45579,7 +46343,7 @@
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="8" t="s">
-        <v>3211</v>
+        <v>3273</v>
       </c>
       <c r="B847" s="6" t="s">
         <v>965</v>
@@ -45702,7 +46466,7 @@
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B859" s="6" t="s">
         <v>988</v>
@@ -45787,7 +46551,7 @@
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="8" t="s">
-        <v>3180</v>
+        <v>3241</v>
       </c>
       <c r="B867" s="6" t="s">
         <v>1000</v>
@@ -45930,10 +46694,10 @@
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="8" t="s">
-        <v>3213</v>
+        <v>3275</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>3214</v>
+        <v>3276</v>
       </c>
       <c r="C881" s="17" t="s">
         <v>1026</v>
@@ -46039,7 +46803,7 @@
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="8" t="s">
-        <v>3215</v>
+        <v>3277</v>
       </c>
       <c r="B892" s="6" t="s">
         <v>1035</v>
@@ -46115,7 +46879,7 @@
         <v>615</v>
       </c>
       <c r="B900" s="6" t="s">
-        <v>3216</v>
+        <v>3278</v>
       </c>
       <c r="C900" s="17" t="s">
         <v>1053</v>
@@ -46126,7 +46890,7 @@
         <v>1054</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>3217</v>
+        <v>3279</v>
       </c>
       <c r="C901" s="17" t="s">
         <v>1053</v>
@@ -46271,7 +47035,7 @@
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="8" t="s">
-        <v>3218</v>
+        <v>3280</v>
       </c>
       <c r="C915" s="17" t="s">
         <v>1081</v>
@@ -46348,7 +47112,7 @@
         <v>1093</v>
       </c>
       <c r="B922" s="6" t="s">
-        <v>3196</v>
+        <v>3257</v>
       </c>
       <c r="C922" s="17" t="s">
         <v>1095</v>
@@ -46372,7 +47136,7 @@
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="8" t="s">
-        <v>3219</v>
+        <v>3281</v>
       </c>
       <c r="C925" s="17" t="s">
         <v>1101</v>
@@ -46515,7 +47279,7 @@
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="C941" s="17" t="s">
         <v>1124</v>
@@ -46523,7 +47287,7 @@
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B942" s="6" t="s">
         <v>906</v>
@@ -46534,10 +47298,10 @@
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>3220</v>
+        <v>3282</v>
       </c>
       <c r="C943" s="17" t="s">
         <v>1125</v>
@@ -46545,7 +47309,7 @@
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="8" t="s">
-        <v>3221</v>
+        <v>3283</v>
       </c>
       <c r="B944" s="6" t="s">
         <v>1128</v>
@@ -46556,7 +47320,7 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B945" s="6" t="s">
         <v>1130</v>
@@ -46578,7 +47342,7 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B947" s="6" t="s">
         <v>1134</v>
@@ -46589,7 +47353,7 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B948" s="6" t="s">
         <v>1135</v>
@@ -46600,7 +47364,7 @@
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B949" s="6" t="s">
         <v>1135</v>
@@ -46611,7 +47375,7 @@
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B950" s="6" t="s">
         <v>1138</v>
@@ -46677,7 +47441,7 @@
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="8" t="s">
-        <v>3212</v>
+        <v>3274</v>
       </c>
       <c r="B956" s="6" t="s">
         <v>1150</v>
@@ -46740,7 +47504,7 @@
         <v>71</v>
       </c>
       <c r="B962" s="6" t="s">
-        <v>3222</v>
+        <v>3284</v>
       </c>
       <c r="C962" s="17" t="s">
         <v>1161</v>
@@ -46789,7 +47553,7 @@
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="8" t="s">
-        <v>3187</v>
+        <v>3248</v>
       </c>
       <c r="C967" s="17" t="s">
         <v>1171</v>
@@ -46811,7 +47575,7 @@
         <v>1054</v>
       </c>
       <c r="B969" s="6" t="s">
-        <v>3223</v>
+        <v>3285</v>
       </c>
       <c r="C969" s="17" t="s">
         <v>1176</v>
@@ -46822,7 +47586,7 @@
         <v>558</v>
       </c>
       <c r="B970" s="6" t="s">
-        <v>3216</v>
+        <v>3278</v>
       </c>
       <c r="C970" s="17" t="s">
         <v>1176</v>
@@ -47037,7 +47801,7 @@
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="8" t="s">
-        <v>3180</v>
+        <v>3241</v>
       </c>
       <c r="B995" s="6" t="s">
         <v>1215</v>
@@ -47468,7 +48232,7 @@
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="8" t="s">
-        <v>3180</v>
+        <v>3241</v>
       </c>
       <c r="C1038" s="17" t="s">
         <v>1281</v>
@@ -47498,7 +48262,7 @@
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="8" t="s">
-        <v>3180</v>
+        <v>3241</v>
       </c>
       <c r="B1041" s="6" t="s">
         <v>1215</v>
@@ -47679,7 +48443,7 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="8" t="s">
-        <v>3224</v>
+        <v>3286</v>
       </c>
       <c r="B1058" s="6" t="s">
         <v>1296</v>
@@ -47690,7 +48454,7 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="8" t="s">
-        <v>3187</v>
+        <v>3248</v>
       </c>
       <c r="B1059" s="6" t="s">
         <v>1297</v>
@@ -48386,7 +49150,7 @@
         <v>1377</v>
       </c>
       <c r="B1128" s="6" t="s">
-        <v>3225</v>
+        <v>3287</v>
       </c>
       <c r="C1128" s="17" t="s">
         <v>1378</v>
@@ -48495,7 +49259,7 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="8" t="s">
-        <v>3226</v>
+        <v>3288</v>
       </c>
       <c r="B1139" s="6" t="s">
         <v>1396</v>
@@ -48514,7 +49278,7 @@
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="8" t="s">
-        <v>3227</v>
+        <v>3289</v>
       </c>
       <c r="C1141" s="17" t="s">
         <v>1399</v>
@@ -48685,7 +49449,7 @@
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="8" t="s">
-        <v>3228</v>
+        <v>3290</v>
       </c>
       <c r="C1159" s="17" t="s">
         <v>1425</v>
@@ -48712,7 +49476,7 @@
     </row>
     <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="8" t="s">
-        <v>3221</v>
+        <v>3283</v>
       </c>
       <c r="B1162" s="6" t="s">
         <v>1142</v>
@@ -48723,7 +49487,7 @@
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="8" t="s">
-        <v>3221</v>
+        <v>3283</v>
       </c>
       <c r="B1163" s="6" t="s">
         <v>1430</v>
@@ -48827,7 +49591,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="8" t="s">
-        <v>3178</v>
+        <v>3239</v>
       </c>
       <c r="B1173" s="6" t="s">
         <v>1447</v>
@@ -48838,7 +49602,7 @@
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="8" t="s">
-        <v>3229</v>
+        <v>3291</v>
       </c>
       <c r="C1174" s="17" t="s">
         <v>319</v>
@@ -48903,7 +49667,7 @@
         <v>1454</v>
       </c>
       <c r="B1181" s="6" t="s">
-        <v>3230</v>
+        <v>3292</v>
       </c>
       <c r="C1181" s="17" t="s">
         <v>1456</v>
@@ -48925,7 +49689,7 @@
         <v>374</v>
       </c>
       <c r="B1183" s="6" t="s">
-        <v>3231</v>
+        <v>3293</v>
       </c>
       <c r="C1183" s="17" t="s">
         <v>368</v>
@@ -48955,7 +49719,7 @@
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="8" t="s">
-        <v>3232</v>
+        <v>3294</v>
       </c>
       <c r="C1186" s="17" t="s">
         <v>320</v>
@@ -49004,7 +49768,7 @@
     </row>
     <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="8" t="s">
-        <v>3219</v>
+        <v>3281</v>
       </c>
       <c r="B1191" s="6" t="s">
         <v>1469</v>
@@ -49074,7 +49838,7 @@
   <dimension ref="A308:C992"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A777" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C858" activeCellId="1" sqref="C2512:C2538 C858"/>
+      <selection pane="topLeft" activeCell="C858" activeCellId="0" sqref="C858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49492,7 +50256,7 @@
   <dimension ref="A1:C1350"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="C2512:C2538 B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49516,12 +50280,12 @@
         <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3138</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>455</v>
@@ -49540,7 +50304,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>455</v>
@@ -49559,7 +50323,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>421</v>
@@ -49578,7 +50342,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>421</v>
@@ -49589,7 +50353,7 @@
         <v>378</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3156</v>
+        <v>3217</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>385</v>
@@ -49780,7 +50544,7 @@
         <v>378</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>3169</v>
+        <v>3230</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>371</v>
@@ -49791,7 +50555,7 @@
         <v>378</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3170</v>
+        <v>3231</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>371</v>
@@ -49802,7 +50566,7 @@
         <v>378</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3171</v>
+        <v>3232</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>371</v>
@@ -49835,7 +50599,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>37</v>
@@ -49890,7 +50654,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3140</v>
+        <v>3201</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>108</v>
@@ -50074,7 +50838,7 @@
         <v>402</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>3158</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50085,7 +50849,7 @@
         <v>494</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>3164</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50096,7 +50860,7 @@
         <v>430</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>3164</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50137,7 +50901,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>129</v>
@@ -50181,7 +50945,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>87</v>
@@ -50203,7 +50967,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
@@ -50225,7 +50989,7 @@
         <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>89</v>
@@ -50236,7 +51000,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>148</v>
@@ -50349,7 +51113,7 @@
         <v>418</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>3163</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50782,7 +51546,7 @@
         <v>45</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>131</v>
@@ -50848,7 +51612,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>90</v>
@@ -51156,7 +51920,7 @@
         <v>45</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>132</v>
@@ -51244,7 +52008,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>68</v>
@@ -51343,7 +52107,7 @@
         <v>45</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>110</v>
@@ -51596,7 +52360,7 @@
         <v>45</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>149</v>
@@ -51662,7 +52426,7 @@
         <v>45</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>111</v>
@@ -51743,7 +52507,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="s">
-        <v>3218</v>
+        <v>3280</v>
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="17" t="s">
@@ -51802,7 +52566,7 @@
         <v>533</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>3188</v>
+        <v>3249</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>619</v>
@@ -51836,7 +52600,7 @@
         <v>819</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>3208</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52079,7 +52843,7 @@
         <v>856</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>3209</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52088,7 +52852,7 @@
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="17" t="s">
-        <v>3209</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52121,7 +52885,7 @@
         <v>139</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>3210</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52632,7 +53396,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="8" t="s">
-        <v>3182</v>
+        <v>3243</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>930</v>
@@ -52731,7 +53495,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="8" t="s">
-        <v>3233</v>
+        <v>3295</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>944</v>
@@ -52829,7 +53593,7 @@
         <v>533</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>3188</v>
+        <v>3249</v>
       </c>
       <c r="C314" s="17" t="s">
         <v>622</v>
@@ -53297,10 +54061,10 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>3213</v>
+        <v>3275</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>3214</v>
+        <v>3276</v>
       </c>
       <c r="C359" s="17" t="s">
         <v>1026</v>
@@ -53524,7 +54288,7 @@
         <v>615</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>3216</v>
+        <v>3278</v>
       </c>
       <c r="C381" s="17" t="s">
         <v>1053</v>
@@ -53535,7 +54299,7 @@
         <v>1054</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>3217</v>
+        <v>3279</v>
       </c>
       <c r="C382" s="17" t="s">
         <v>1053</v>
@@ -53640,7 +54404,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>3189</v>
+        <v>3250</v>
       </c>
       <c r="B392" s="6"/>
       <c r="C392" s="17" t="s">
@@ -53822,7 +54586,7 @@
         <v>1093</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>3196</v>
+        <v>3257</v>
       </c>
       <c r="C409" s="17" t="s">
         <v>1095</v>
@@ -53974,7 +54738,7 @@
         <v>699</v>
       </c>
       <c r="C424" s="17" t="s">
-        <v>3194</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54040,7 +54804,7 @@
         <v>990</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>3220</v>
+        <v>3282</v>
       </c>
       <c r="C431" s="17" t="s">
         <v>1125</v>
@@ -54382,7 +55146,7 @@
         <v>558</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>3216</v>
+        <v>3278</v>
       </c>
       <c r="C463" s="17" t="s">
         <v>1176</v>
@@ -54393,7 +55157,7 @@
         <v>1054</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>3223</v>
+        <v>3285</v>
       </c>
       <c r="C464" s="17" t="s">
         <v>1176</v>
@@ -54534,7 +55298,7 @@
         <v>499</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>3195</v>
+        <v>3256</v>
       </c>
       <c r="C479" s="17" t="s">
         <v>711</v>
@@ -54545,7 +55309,7 @@
         <v>695</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>3196</v>
+        <v>3257</v>
       </c>
       <c r="C480" s="17" t="s">
         <v>711</v>
@@ -54696,7 +55460,7 @@
         <v>728</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>3197</v>
+        <v>3258</v>
       </c>
       <c r="C495" s="17" t="s">
         <v>730</v>
@@ -54707,7 +55471,7 @@
         <v>731</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>3198</v>
+        <v>3259</v>
       </c>
       <c r="C496" s="17" t="s">
         <v>733</v>
@@ -54729,7 +55493,7 @@
         <v>8</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>736</v>
+        <v>3260</v>
       </c>
       <c r="C498" s="17" t="s">
         <v>737</v>
@@ -54743,7 +55507,7 @@
         <v>738</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>3199</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54838,7 +55602,7 @@
         <v>545</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>3200</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54863,10 +55627,10 @@
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="8" t="s">
-        <v>3191</v>
+        <v>3252</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>3192</v>
+        <v>3253</v>
       </c>
       <c r="C511" s="17" t="s">
         <v>634</v>
@@ -54944,7 +55708,7 @@
         <v>771</v>
       </c>
       <c r="C518" s="17" t="s">
-        <v>3201</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55152,7 +55916,7 @@
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="17" t="s">
-        <v>3202</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55193,10 +55957,10 @@
         <v>805</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>3203</v>
+        <v>3265</v>
       </c>
       <c r="C542" s="17" t="s">
-        <v>3204</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55215,7 +55979,7 @@
         <v>805</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>3205</v>
+        <v>3267</v>
       </c>
       <c r="C544" s="17" t="s">
         <v>813</v>
@@ -55237,7 +56001,7 @@
         <v>805</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>3206</v>
+        <v>3268</v>
       </c>
       <c r="C546" s="17" t="s">
         <v>813</v>
@@ -55251,7 +56015,7 @@
         <v>816</v>
       </c>
       <c r="C547" s="17" t="s">
-        <v>3207</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55572,7 +56336,7 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>3234</v>
+        <v>3296</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>1646</v>
@@ -55597,7 +56361,7 @@
         <v>556</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>3235</v>
+        <v>3297</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>1647</v>
@@ -55765,7 +56529,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="8" t="s">
-        <v>3229</v>
+        <v>3291</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>1449</v>
@@ -55848,7 +56612,7 @@
         <v>1454</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>3230</v>
+        <v>3292</v>
       </c>
       <c r="C604" s="17" t="s">
         <v>1456</v>
@@ -55878,7 +56642,7 @@
         <v>374</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>3231</v>
+        <v>3293</v>
       </c>
       <c r="C607" s="17" t="s">
         <v>368</v>
@@ -55911,7 +56675,7 @@
         <v>45</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>3140</v>
+        <v>3201</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>104</v>
@@ -55941,7 +56705,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
-        <v>3232</v>
+        <v>3294</v>
       </c>
       <c r="B613" s="6"/>
       <c r="C613" s="17" t="s">
@@ -56138,7 +56902,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>3236</v>
+        <v>3298</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>1493</v>
@@ -56432,7 +57196,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>3237</v>
+        <v>3299</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>1521</v>
@@ -56462,7 +57226,7 @@
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="8" t="s">
-        <v>3228</v>
+        <v>3290</v>
       </c>
       <c r="B665" s="6"/>
       <c r="C665" s="17" t="s">
@@ -56817,7 +57581,7 @@
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>3238</v>
+        <v>3300</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>1574</v>
@@ -57118,7 +57882,7 @@
         <v>1123</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>3176</v>
+        <v>3237</v>
       </c>
       <c r="C729" s="17" t="s">
         <v>498</v>
@@ -57501,7 +58265,7 @@
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="8" t="s">
-        <v>3239</v>
+        <v>3301</v>
       </c>
       <c r="B769" s="6"/>
       <c r="C769" s="17" t="s">
@@ -57704,7 +58468,7 @@
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="8" t="s">
-        <v>3184</v>
+        <v>3245</v>
       </c>
       <c r="B790" s="6"/>
       <c r="C790" s="17" t="s">
@@ -57713,7 +58477,7 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="8" t="s">
-        <v>3182</v>
+        <v>3243</v>
       </c>
       <c r="B791" s="6" t="s">
         <v>564</v>
@@ -58209,7 +58973,7 @@
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="8" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="B840" s="0" t="s">
         <v>458</v>
@@ -58220,7 +58984,7 @@
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>457</v>
@@ -58228,7 +58992,7 @@
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>457</v>
@@ -58343,7 +59107,7 @@
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>206</v>
@@ -58376,7 +59140,7 @@
         <v>45</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>122</v>
@@ -58529,7 +59293,7 @@
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>456</v>
@@ -58537,7 +59301,7 @@
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>3172</v>
+        <v>3233</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>456</v>
@@ -58706,7 +59470,7 @@
         <v>45</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>81</v>
@@ -58717,7 +59481,7 @@
         <v>45</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>3140</v>
+        <v>3201</v>
       </c>
       <c r="C890" s="0" t="s">
         <v>81</v>
@@ -58802,7 +59566,7 @@
         <v>45</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>3137</v>
+        <v>3198</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>46</v>
@@ -58832,7 +59596,7 @@
         <v>45</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>82</v>
@@ -58944,7 +59708,7 @@
         <v>45</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>3139</v>
+        <v>3200</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>150</v>
@@ -59032,7 +59796,7 @@
         <v>45</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>3136</v>
+        <v>3197</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>83</v>
@@ -59087,7 +59851,7 @@
         <v>378</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>3159</v>
+        <v>3220</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>414</v>
@@ -59211,7 +59975,7 @@
         <v>1696</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>3240</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59364,7 +60128,7 @@
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="8" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="B951" s="0" t="s">
         <v>352</v>
@@ -59510,7 +60274,7 @@
         <v>378</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>3159</v>
+        <v>3220</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>415</v>
@@ -59658,7 +60422,7 @@
         <v>1769</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>3241</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59740,7 +60504,7 @@
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>3242</v>
+        <v>3304</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>1655</v>
@@ -59934,7 +60698,7 @@
         <v>556</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>3243</v>
+        <v>3305</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>1662</v>
@@ -60697,7 +61461,7 @@
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>3232</v>
+        <v>3294</v>
       </c>
       <c r="C1082" s="0" t="s">
         <v>1727</v>
@@ -60949,7 +61713,7 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>3232</v>
+        <v>3294</v>
       </c>
       <c r="C1106" s="0" t="s">
         <v>1758</v>
@@ -60957,7 +61721,7 @@
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>1762</v>
+        <v>3306</v>
       </c>
       <c r="B1107" s="0" t="s">
         <v>1763</v>
@@ -61059,7 +61823,7 @@
         <v>556</v>
       </c>
       <c r="B1116" s="0" t="s">
-        <v>3244</v>
+        <v>3307</v>
       </c>
       <c r="C1116" s="0" t="s">
         <v>1766</v>
@@ -61136,7 +61900,7 @@
         <v>499</v>
       </c>
       <c r="B1123" s="0" t="s">
-        <v>3195</v>
+        <v>3256</v>
       </c>
       <c r="C1123" s="0" t="s">
         <v>219</v>
@@ -62791,7 +63555,7 @@
         <v>1377</v>
       </c>
       <c r="B1281" s="6" t="s">
-        <v>3225</v>
+        <v>3287</v>
       </c>
       <c r="C1281" s="17" t="s">
         <v>1378</v>
@@ -63052,7 +63816,7 @@
         <v>170</v>
       </c>
       <c r="C1306" s="0" t="s">
-        <v>3245</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63262,10 +64026,10 @@
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="0" t="s">
-        <v>3165</v>
+        <v>3226</v>
       </c>
       <c r="C1332" s="0" t="s">
-        <v>3246</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63273,7 +64037,7 @@
         <v>170</v>
       </c>
       <c r="C1333" s="0" t="s">
-        <v>3247</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63349,7 +64113,7 @@
         <v>378</v>
       </c>
       <c r="C1342" s="0" t="s">
-        <v>3248</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63399,7 +64163,7 @@
         <v>378</v>
       </c>
       <c r="C1348" s="0" t="s">
-        <v>3249</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -9129,7 +9129,7 @@
     <t xml:space="preserve">xref assurances, four (assāsa)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nandaka, Ven</t>
+    <t xml:space="preserve">Nandaka, Ven.</t>
   </si>
   <si>
     <t xml:space="preserve">AN3.66</t>
@@ -11282,8 +11282,8 @@
   </sheetPr>
   <dimension ref="A1:C3135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2899" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2905" activeCellId="0" sqref="A2905"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2475" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2482" activeCellId="0" sqref="A2482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10579" uniqueCount="4729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="4734">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -14198,6 +14198,9 @@
     <t xml:space="preserve">AN2.245</t>
   </si>
   <si>
+    <t xml:space="preserve">AN5.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">worry</t>
   </si>
   <si>
@@ -14291,7 +14294,19 @@
     <t xml:space="preserve">AN</t>
   </si>
   <si>
-    <t xml:space="preserve">Pages per daydays</t>
+    <t xml:space="preserve">Pages per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pages per week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
   </si>
 </sst>
 </file>
@@ -14479,7 +14494,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -14584,6 +14599,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14665,7 +14684,7 @@
   </sheetPr>
   <dimension ref="A1:C3766"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B259" activeCellId="0" sqref="B259"/>
     </sheetView>
   </sheetViews>
@@ -54179,10 +54198,10 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54764,13 +54783,25 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="19" t="s">
+        <v>4697</v>
+      </c>
+      <c r="F27" s="18" t="n">
+        <v>629</v>
+      </c>
+      <c r="G27" s="18" t="n">
+        <v>629</v>
+      </c>
       <c r="H27" s="20" t="n">
         <f aca="false">G27-F27</f>
         <v>0</v>
       </c>
+      <c r="I27" s="18" t="n">
+        <v>850</v>
+      </c>
       <c r="J27" s="20" t="n">
         <f aca="false">I27-F27</f>
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54834,10 +54865,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54845,95 +54876,95 @@
         <v>4621</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54943,7 +54974,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>6</v>
@@ -54951,12 +54982,12 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
     </row>
   </sheetData>
@@ -54975,20 +55006,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="9" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
       <c r="B1" s="10" t="n">
         <v>435</v>
@@ -54999,7 +55031,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>1029</v>
@@ -55010,24 +55042,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>1512</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1439</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>4728</v>
+        <v>4729</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>4730</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55041,6 +55076,30 @@
       <c r="G5" s="9" t="n">
         <f aca="false">B5/F5</f>
         <v>88.3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="s">
+        <v>4731</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>4732</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">B5/F9</f>
+        <v>17.66</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">G9/4</f>
+        <v>4.415</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/general-index.xlsx
+++ b/src/data/general-index.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11824" uniqueCount="5126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11993" uniqueCount="5183">
   <si>
     <t xml:space="preserve">generosity (cāga)</t>
   </si>
@@ -15115,6 +15115,165 @@
     <t xml:space="preserve">xref brahmā realm (brahmalokā)</t>
   </si>
   <si>
+    <t xml:space="preserve">like a royal elephant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paying close attention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and scorning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living together then scorning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gossip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gullible for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impulsiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in faith, devotion, fondness, and confidence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">having and not having</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without having done wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinary and spiritual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who practices is rare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repulsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeing repulsive and unrepulsive in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greed (rāga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removing by seeing repulsive in unrepulsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removing by seeing unrepulsive in repulsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">towards repulsive an unrepulsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breaking five precepts leads to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not breaking five precepts leads to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causing rebirth in hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t associate with monk who starts lots of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t associate with monk who makes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aimless wanderings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results of depending on how gift was given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timely gifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">properly and improperly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuation of Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helps Dhamma continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memorizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monastics being difficult to is cause for decline of Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being slack leads to decline of Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leads to decline of Dhamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrongly directed topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timidity (sārajja)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualities that make one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">urge to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN5.160</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a difference between</t>
   </si>
   <si>
@@ -15362,6 +15521,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://suttacentral.net/an5.136/en/sujato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://suttacentral.net/an5.149/en/sujato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://suttacentral.net/an5.150/en/sujato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being inspired to speak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://suttacentral.net/an5.160/en/sujato</t>
   </si>
   <si>
     <t xml:space="preserve">pomodoros</t>
@@ -15897,10 +16068,10 @@
     <tabColor rgb="FFF57F17"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4181"/>
+  <dimension ref="A1:C4236"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4146" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4148" activeCellId="3" sqref="C4116:C4128 C4131:C4132 C4137:C4146 C4148:C4167"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4227" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4236" activeCellId="0" sqref="A4236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59485,6 +59656,611 @@
       </c>
       <c r="C4181" s="2" t="s">
         <v>4991</v>
+      </c>
+    </row>
+    <row r="4182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4182" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4182" s="1" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C4182" s="2" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="4183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4183" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4183" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="C4183" s="2" t="s">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="4184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4184" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4184" s="1" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C4184" s="2" t="s">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="4185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4185" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4185" s="1" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C4185" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4186" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B4186" s="1" t="s">
+        <v>4996</v>
+      </c>
+      <c r="C4186" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4187" s="1" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B4187" s="1" t="s">
+        <v>4998</v>
+      </c>
+      <c r="C4187" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4188" s="1" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B4188" s="3" t="s">
+        <v>5000</v>
+      </c>
+      <c r="C4188" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4189" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B4189" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4189" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4190" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4190" s="1" t="s">
+        <v>5001</v>
+      </c>
+      <c r="C4190" s="2" t="s">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="4191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4191" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4191" s="1" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C4191" s="2" t="s">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="4192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4192" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B4192" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C4192" s="2" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="4193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4193" s="1" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B4193" s="1" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C4193" s="2" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="4194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4194" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B4194" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C4194" s="2" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="4195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4195" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B4195" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C4195" s="2" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="4196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4196" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4196" s="1" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C4196" s="2" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="4197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4197" s="1" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B4197" s="1" t="s">
+        <v>5009</v>
+      </c>
+      <c r="C4197" s="2" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="4198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4198" s="1" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B4198" s="1" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C4198" s="2" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="4199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4199" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4199" s="1" t="s">
+        <v>5013</v>
+      </c>
+      <c r="C4199" s="2" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="4200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4200" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B4200" s="1" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4200" s="2" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="4201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4201" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B4201" s="1" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4201" s="2" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="4202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4202" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4202" s="1" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4202" s="2" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="4203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4203" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4203" s="1" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4203" s="2" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="4204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4204" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4204" s="1" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4204" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4205" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4205" s="1" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4205" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4206" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B4206" s="1" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4206" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4207" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B4207" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4207" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4208" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B4208" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4208" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4209" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4209" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4209" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4210" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4210" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4210" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4211" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4211" s="1" t="s">
+        <v>5022</v>
+      </c>
+      <c r="C4211" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4212" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4212" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4212" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4213" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4213" s="1" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C4213" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4214" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4214" s="1" t="s">
+        <v>5024</v>
+      </c>
+      <c r="C4214" s="2" t="s">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="4215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4215" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4215" s="1" t="s">
+        <v>5024</v>
+      </c>
+      <c r="C4215" s="2" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="4216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4216" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B4216" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4216" s="2" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="4217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4217" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4217" s="1" t="s">
+        <v>5024</v>
+      </c>
+      <c r="C4217" s="2" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="4218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4218" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B4218" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4218" s="2" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="4219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4219" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4219" s="1" t="s">
+        <v>5028</v>
+      </c>
+      <c r="C4219" s="2" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="4220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4220" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4220" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4220" s="2" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="4221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4221" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B4221" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4221" s="2" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="4222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4222" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4222" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C4222" s="2" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="4223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4223" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4223" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C4223" s="2" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="4224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4224" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B4224" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4224" s="2" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="4225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4225" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4225" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4225" s="2" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="4226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4226" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B4226" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4226" s="2" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="4227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4227" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4227" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C4227" s="2" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="4228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4228" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4228" s="1" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C4228" s="2" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="4229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4229" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B4229" s="1" t="s">
+        <v>5035</v>
+      </c>
+      <c r="C4229" s="2" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="4230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4230" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B4230" s="1" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C4230" s="2" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="4231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4231" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B4231" s="10" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4231" s="2" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="4232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4232" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4232" s="1" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C4232" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4233" s="9" t="s">
+        <v>5038</v>
+      </c>
+      <c r="B4233" s="1" t="s">
+        <v>5039</v>
+      </c>
+      <c r="C4233" s="2" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="4234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4234" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B4234" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C4234" s="2" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="4235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4235" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4235" s="1" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C4235" s="2" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="4236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4236" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B4236" s="1" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C4236" s="2" t="s">
+        <v>5044</v>
       </c>
     </row>
   </sheetData>
@@ -59507,7 +60283,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="4" sqref="C4116:C4128 C4131:C4132 C4137:C4146 C4148:C4167 B43"/>
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59520,153 +60296,153 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>4992</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="12" t="s">
-        <v>4993</v>
+        <v>5046</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>4994</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12" t="s">
-        <v>4995</v>
+        <v>5048</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1771</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>4996</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>4997</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>4998</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>4999</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>5000</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>5001</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>5002</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>5003</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>5004</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>5005</v>
+        <v>5058</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>5006</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>5007</v>
+        <v>5060</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>5008</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>5009</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>5010</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>5011</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>5005</v>
+        <v>5058</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>5012</v>
+        <v>5065</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>5013</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>5014</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>5005</v>
+        <v>5058</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>5015</v>
+        <v>5068</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>5016</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>5017</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>5005</v>
+        <v>5058</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>5018</v>
+        <v>5071</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>5019</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>5020</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>5021</v>
+        <v>5074</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>5022</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59674,15 +60450,15 @@
         <v>4248</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>5023</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>5024</v>
+        <v>5077</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>5025</v>
+        <v>5078</v>
       </c>
     </row>
   </sheetData>
@@ -59702,10 +60478,10 @@
     <tabColor rgb="FFFFD700"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="4" sqref="C4116:C4128 C4131:C4132 C4137:C4146 C4148:C4167 B34"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59717,233 +60493,251 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>5026</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>5027</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>5028</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>5029</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>5030</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>5031</v>
+        <v>5084</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>5032</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>5033</v>
+        <v>5086</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>5034</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>5035</v>
+        <v>5088</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>5036</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="14" t="s">
-        <v>5037</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="14" t="s">
-        <v>5038</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="14" t="s">
-        <v>5039</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="14" t="s">
-        <v>5040</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>5035</v>
+        <v>5088</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>5041</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>5042</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>5043</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>5044</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>5045</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>5046</v>
+        <v>5099</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>5047</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>5048</v>
+        <v>5101</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>5049</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>5050</v>
+        <v>5103</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>5051</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>5052</v>
+        <v>5105</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>5053</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>5054</v>
+        <v>5107</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>5055</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>5056</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>5054</v>
+        <v>5107</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>5057</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>5058</v>
+        <v>5111</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>5059</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>5060</v>
+        <v>5113</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>5061</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>5062</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>5063</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>5054</v>
+        <v>5107</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>5064</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="13" t="s">
-        <v>5065</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>5066</v>
+        <v>5119</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>5067</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>5068</v>
+        <v>5121</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>5069</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>5054</v>
+        <v>5107</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>5070</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>5071</v>
+        <v>5124</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>5072</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="13" t="s">
-        <v>5073</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13" t="s">
-        <v>5074</v>
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="13" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="13" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>5131</v>
       </c>
     </row>
   </sheetData>
@@ -59968,7 +60762,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G30" activeCellId="4" sqref="C4116:C4128 C4131:C4132 C4137:C4146 C4148:C4167 G30"/>
+      <selection pane="bottomLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59990,43 +60784,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="18" t="s">
-        <v>5075</v>
+        <v>5132</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>5076</v>
+        <v>5133</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>5077</v>
+        <v>5134</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>5078</v>
+        <v>5135</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>5079</v>
+        <v>5136</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>5080</v>
+        <v>5137</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>5081</v>
+        <v>5138</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>5082</v>
+        <v>5139</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>5083</v>
+        <v>5140</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>5084</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>5085</v>
+        <v>5142</v>
       </c>
       <c r="B2" s="24" t="n">
         <f aca="false">SUM(B3:B221)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60053,7 +60847,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>5086</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60064,7 +60858,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>5087</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60134,7 +60928,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>5088</v>
+        <v>5145</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>445</v>
@@ -60151,7 +60945,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>5089</v>
+        <v>5146</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>469</v>
@@ -60527,7 +61321,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>5090</v>
+        <v>5147</v>
       </c>
       <c r="D26" s="18" t="n">
         <v>911</v>
@@ -60633,6 +61427,9 @@
       <c r="A29" s="17" t="n">
         <v>44831</v>
       </c>
+      <c r="B29" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="C29" s="19" t="s">
         <v>4939</v>
       </c>
@@ -60646,11 +61443,11 @@
         <v>739</v>
       </c>
       <c r="G29" s="18" t="n">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">G29-F29</f>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I29" s="18" t="n">
         <v>850</v>
@@ -60661,7 +61458,7 @@
       </c>
       <c r="K29" s="25" t="n">
         <f aca="false">I29-G29</f>
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60716,7 +61513,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="4" sqref="C4116:C4128 C4131:C4132 C4137:C4146 C4148:C4167 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60727,106 +61524,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>5091</v>
+        <v>5148</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>5092</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>5001</v>
+        <v>5054</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>5093</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>5094</v>
+        <v>5151</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5095</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>5096</v>
+        <v>5153</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>5097</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>5098</v>
+        <v>5155</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>5099</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>5100</v>
+        <v>5157</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>5101</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>5102</v>
+        <v>5159</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>5103</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>5104</v>
+        <v>5161</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>5105</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>5106</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>5107</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>5108</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>5109</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>5110</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>5111</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>5112</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>5113</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60836,7 +61633,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>5114</v>
+        <v>5171</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>6</v>
@@ -60844,7 +61641,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>5115</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60871,7 +61668,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="4" sqref="C4116:C4128 C4131:C4132 C4137:C4146 C4148:C4167 I6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60882,7 +61679,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>5116</v>
+        <v>5173</v>
       </c>
       <c r="B1" s="9" t="n">
         <v>435</v>
@@ -60893,7 +61690,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>5117</v>
+        <v>5174</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>1029</v>
@@ -60904,33 +61701,33 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>5118</v>
+        <v>5175</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>1512</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5119</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>5120</v>
+        <v>5177</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>1439</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>5121</v>
+        <v>5178</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>5122</v>
+        <v>5179</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>5123</v>
+        <v>5180</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>5124</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60956,13 +61753,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="8" t="s">
-        <v>5125</v>
+        <v>5182</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>5123</v>
+        <v>5180</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>5124</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
